--- a/raster_cells_per_sub.xlsx
+++ b/raster_cells_per_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myuva-my.sharepoint.com/personal/wnt6gp_virginia_edu/Documents/StreamLit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CDBDB7-8B13-4481-8214-41917BA620F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{10CDBDB7-8B13-4481-8214-41917BA620F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FFBC133-9115-4607-B6AD-14950B8E4230}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97454CBC-327E-48EE-B8D6-214EE2D65EB7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabulat_Subcatc2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabulat_Subcatc2!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabulat_Subcatc2!$A$1:$AF$1</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>NAME</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>MaxNumber_RG_DEM_considered</t>
+  </si>
+  <si>
+    <t>Impervious_ft2</t>
+  </si>
+  <si>
+    <t>Pervious_ft2</t>
+  </si>
+  <si>
+    <t>area_ft2_rainbarrel_cover</t>
+  </si>
+  <si>
+    <t>area_raingarden_coverft2</t>
+  </si>
+  <si>
+    <t>addedtogether</t>
+  </si>
+  <si>
+    <t>roof_plus_pp_area_allowable_treated</t>
+  </si>
+  <si>
+    <t>max_percent_treated_with_max</t>
   </si>
 </sst>
 </file>
@@ -624,11 +645,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,21 +668,24 @@
     <col min="12" max="12" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="3"/>
-    <col min="28" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="16" width="18.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="3"/>
+    <col min="30" max="31" width="9.140625" style="3"/>
+    <col min="32" max="32" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -705,226 +729,297 @@
         <v>41</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="AB1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>3587</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1">
-        <v>1182</v>
+        <v>758</v>
       </c>
       <c r="F2" s="1">
-        <v>1361</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>615</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1">
-        <v>2252</v>
+        <v>551</v>
       </c>
       <c r="I2" s="1">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1070</v>
+        <v>5</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(C2:K2)</f>
-        <v>10592</v>
+        <v>1495</v>
       </c>
       <c r="M2" s="3">
         <f>K2+J2+I2+H2+G2+F2</f>
-        <v>5823</v>
+        <v>579</v>
       </c>
       <c r="N2" s="3">
         <f>C2+D2+E2</f>
-        <v>4769</v>
+        <v>916</v>
       </c>
       <c r="O2" s="5">
+        <f>M2*10.7639104</f>
+        <v>6232.3041216000001</v>
+      </c>
+      <c r="P2" s="5">
+        <f>N2*10.7639104</f>
+        <v>9859.7419264</v>
+      </c>
+      <c r="Q2" s="5">
         <f>M2/L2*100</f>
-        <v>54.975453172205434</v>
-      </c>
-      <c r="P2" s="5">
+        <v>38.729096989966557</v>
+      </c>
+      <c r="R2" s="5">
         <f>N2/L2*100</f>
-        <v>45.024546827794559</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>61.270903010033436</v>
+      </c>
+      <c r="S2" s="3">
         <f>F2+I2</f>
-        <v>1693</v>
-      </c>
-      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
         <f>G2+J2</f>
-        <v>808</v>
-      </c>
-      <c r="S2" s="3">
+        <v>23</v>
+      </c>
+      <c r="U2" s="3">
         <f>E2</f>
-        <v>1182</v>
-      </c>
-      <c r="T2" s="5">
-        <f>S2*10.7639104</f>
-        <v>12722.9420928</v>
-      </c>
-      <c r="U2" s="4">
+        <v>758</v>
+      </c>
+      <c r="V2" s="5">
+        <f>U2*10.7639104</f>
+        <v>8159.0440832000004</v>
+      </c>
+      <c r="W2" s="4">
         <f>D2+E2+F2+G2+I2+J2</f>
-        <v>7270</v>
-      </c>
-      <c r="V2" s="5">
-        <f>U2*10.7639104/3000</f>
-        <v>26.084542869333333</v>
-      </c>
-      <c r="W2" s="5">
-        <v>20</v>
+        <v>939</v>
       </c>
       <c r="X2" s="5">
-        <f>Q2*10.7639104/700</f>
-        <v>26.033286153142857</v>
-      </c>
-      <c r="Y2" s="3">
+        <f>W2*10.7639104/3000</f>
+        <v>3.3691039552000004</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>S2*10.7639104/700</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
         <f>B2</f>
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>Z2*595</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>Y2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>AC2+AB2</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>(T2+S2)*10.7639104</f>
+        <v>247.56993920000002</v>
+      </c>
+      <c r="AF2" s="3">
+        <f>AD2/AE2*100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4661</v>
+        <v>444</v>
       </c>
       <c r="E3" s="1">
-        <v>2381</v>
+        <v>417</v>
       </c>
       <c r="F3" s="1">
-        <v>3331</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1">
-        <v>5429</v>
+        <v>921</v>
       </c>
       <c r="H3" s="1">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="I3" s="1">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1389</v>
+        <v>89</v>
       </c>
       <c r="K3" s="1">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="L3" s="3">
         <f>SUM(C3:K3)</f>
-        <v>19452</v>
+        <v>3482</v>
       </c>
       <c r="M3" s="3">
         <f>K3+J3+I3+H3+G3+F3</f>
-        <v>12410</v>
+        <v>2621</v>
       </c>
       <c r="N3" s="3">
         <f>C3+D3+E3</f>
-        <v>7042</v>
+        <v>861</v>
       </c>
       <c r="O3" s="5">
+        <f>M3*10.7639104</f>
+        <v>28212.209158400001</v>
+      </c>
+      <c r="P3" s="5">
+        <f>N3*10.7639104</f>
+        <v>9267.7268543999999</v>
+      </c>
+      <c r="Q3" s="5">
         <f>M3/L3*100</f>
-        <v>63.798067036808561</v>
-      </c>
-      <c r="P3" s="5">
+        <v>75.272831705916147</v>
+      </c>
+      <c r="R3" s="5">
         <f>N3/L3*100</f>
-        <v>36.201932963191446</v>
-      </c>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q40" si="0">F3+I3</f>
-        <v>3929</v>
-      </c>
-      <c r="R3" s="3">
-        <f t="shared" ref="R3:R40" si="1">G3+J3</f>
-        <v>6818</v>
+        <v>24.72716829408386</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3:S40" si="2">E3</f>
-        <v>2381</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3:T40" si="3">S3*10.7639104</f>
-        <v>25628.870662400001</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" ref="U3:U40" si="4">D3+E3+F3+G3+I3+J3</f>
-        <v>17789</v>
+        <f>F3+I3</f>
+        <v>33</v>
+      </c>
+      <c r="T3" s="3">
+        <f>G3+J3</f>
+        <v>1010</v>
+      </c>
+      <c r="U3" s="3">
+        <f>E3</f>
+        <v>417</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" ref="V3:V40" si="5">U3*10.7639104/3000</f>
-        <v>63.826400701866667</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
+        <f>U3*10.7639104</f>
+        <v>4488.5506368000006</v>
+      </c>
+      <c r="W3" s="4">
+        <f>D3+E3+F3+G3+I3+J3</f>
+        <v>1904</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" ref="X3:X40" si="6">Q3*10.7639104/700</f>
-        <v>60.416291373714287</v>
-      </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y40" si="7">B3</f>
-        <v>2</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+        <f>W3*10.7639104/3000</f>
+        <v>6.8314951338666665</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <f>S3*10.7639104/700</f>
+        <v>0.50744149028571428</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>B3</f>
+        <v>7</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>Z3*595</f>
+        <v>301.92768672</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>Y3*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>AC3+AB3</f>
+        <v>301.92768672</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>(T3+S3)*10.7639104</f>
+        <v>11226.758547200001</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>AD3/AE3*100</f>
+        <v>2.689357622243528</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,3382 +1066,4338 @@
         <v>3218</v>
       </c>
       <c r="O4" s="5">
+        <f>M4*10.7639104</f>
+        <v>86940.104300799998</v>
+      </c>
+      <c r="P4" s="5">
+        <f>N4*10.7639104</f>
+        <v>34638.263667200001</v>
+      </c>
+      <c r="Q4" s="5">
         <f>M4/L4*100</f>
         <v>71.509517485613102</v>
       </c>
-      <c r="P4" s="5">
+      <c r="R4" s="5">
         <f>N4/L4*100</f>
         <v>28.490482514386894</v>
       </c>
-      <c r="Q4" s="3">
-        <f t="shared" si="0"/>
+      <c r="S4" s="3">
+        <f>F4+I4</f>
         <v>1152</v>
       </c>
-      <c r="R4" s="3">
-        <f t="shared" si="1"/>
+      <c r="T4" s="3">
+        <f>G4+J4</f>
         <v>5816</v>
       </c>
-      <c r="S4" s="3">
-        <f t="shared" si="2"/>
+      <c r="U4" s="3">
+        <f>E4</f>
         <v>2335</v>
       </c>
-      <c r="T4" s="5">
-        <f t="shared" si="3"/>
+      <c r="V4" s="5">
+        <f>U4*10.7639104</f>
         <v>25133.730783999999</v>
       </c>
-      <c r="U4" s="4">
-        <f t="shared" si="4"/>
+      <c r="W4" s="4">
+        <f>D4+E4+F4+G4+I4+J4</f>
         <v>10186</v>
       </c>
-      <c r="V4" s="5">
-        <f t="shared" si="5"/>
+      <c r="X4" s="5">
+        <f>W4*10.7639104/3000</f>
         <v>36.547063778133335</v>
       </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" si="6"/>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <f>S4*10.7639104/700</f>
         <v>17.714321115428572</v>
       </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="7"/>
+      <c r="AA4" s="3">
+        <f>B4</f>
         <v>3</v>
       </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="AB4" s="3">
+        <f>Z4*595</f>
+        <v>10540.02106368</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>Y4*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <f>AC4+AB4</f>
+        <v>10540.02106368</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>(T4+S4)*10.7639104</f>
+        <v>75002.927667199998</v>
+      </c>
+      <c r="AF4" s="3">
+        <f>AD4/AE4*100</f>
+        <v>14.052812858783009</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>169</v>
+        <v>534</v>
       </c>
       <c r="E5" s="1">
-        <v>1421</v>
+        <v>656</v>
       </c>
       <c r="F5" s="1">
-        <v>2112</v>
+        <v>305</v>
       </c>
       <c r="G5" s="1">
-        <v>3811</v>
+        <v>1121</v>
       </c>
       <c r="H5" s="1">
-        <v>1097</v>
+        <v>784</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="L5" s="3">
         <f>SUM(C5:K5)</f>
-        <v>8809</v>
+        <v>3813</v>
       </c>
       <c r="M5" s="3">
         <f>K5+J5+I5+H5+G5+F5</f>
-        <v>7219</v>
+        <v>2623</v>
       </c>
       <c r="N5" s="3">
         <f>C5+D5+E5</f>
-        <v>1590</v>
+        <v>1190</v>
       </c>
       <c r="O5" s="5">
+        <f>M5*10.7639104</f>
+        <v>28233.736979199999</v>
+      </c>
+      <c r="P5" s="5">
+        <f>N5*10.7639104</f>
+        <v>12809.053376</v>
+      </c>
+      <c r="Q5" s="5">
         <f>M5/L5*100</f>
-        <v>81.950278124645251</v>
-      </c>
-      <c r="P5" s="5">
+        <v>68.79097823236296</v>
+      </c>
+      <c r="R5" s="5">
         <f>N5/L5*100</f>
-        <v>18.049721875354752</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" si="0"/>
+        <v>31.209021767637029</v>
+      </c>
+      <c r="S5" s="3">
+        <f>F5+I5</f>
+        <v>328</v>
+      </c>
+      <c r="T5" s="3">
+        <f>G5+J5</f>
+        <v>1184</v>
+      </c>
+      <c r="U5" s="3">
+        <f>E5</f>
+        <v>656</v>
+      </c>
+      <c r="V5" s="5">
+        <f>U5*10.7639104</f>
+        <v>7061.1252224</v>
+      </c>
+      <c r="W5" s="4">
+        <f>D5+E5+F5+G5+I5+J5</f>
+        <v>2702</v>
+      </c>
+      <c r="X5" s="5">
+        <f>W5*10.7639104/3000</f>
+        <v>9.694695300266666</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <f>S5*10.7639104/700</f>
+        <v>5.0436608731428567</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>B5</f>
+        <v>22</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>Z5*595</f>
+        <v>3000.9782195199996</v>
+      </c>
+      <c r="AC5" s="3">
+        <f>Y5*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <f>AC5+AB5</f>
+        <v>3000.9782195199996</v>
+      </c>
+      <c r="AE5" s="3">
+        <f>(T5+S5)*10.7639104</f>
+        <v>16275.032524800001</v>
+      </c>
+      <c r="AF5" s="3">
+        <f>AD5/AE5*100</f>
+        <v>18.439153439153436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>169</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1421</v>
+      </c>
+      <c r="F6" s="1">
         <v>2112</v>
       </c>
-      <c r="R5" s="3">
-        <f t="shared" si="1"/>
-        <v>3857</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="2"/>
-        <v>1421</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="3"/>
-        <v>15295.516678400001</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="4"/>
-        <v>7559</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="5"/>
-        <v>27.12146623786667</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="6"/>
-        <v>32.476255378285714</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>198</v>
-      </c>
-      <c r="E6" s="1">
-        <v>168</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1293</v>
-      </c>
       <c r="G6" s="1">
-        <v>2048</v>
+        <v>3811</v>
       </c>
       <c r="H6" s="1">
-        <v>4174</v>
+        <v>1097</v>
       </c>
       <c r="I6" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="L6" s="3">
         <f>SUM(C6:K6)</f>
-        <v>8203</v>
+        <v>8809</v>
       </c>
       <c r="M6" s="3">
         <f>K6+J6+I6+H6+G6+F6</f>
-        <v>7837</v>
+        <v>7219</v>
       </c>
       <c r="N6" s="3">
         <f>C6+D6+E6</f>
-        <v>366</v>
+        <v>1590</v>
       </c>
       <c r="O6" s="5">
+        <f>M6*10.7639104</f>
+        <v>77704.669177600008</v>
+      </c>
+      <c r="P6" s="5">
+        <f>N6*10.7639104</f>
+        <v>17114.617536000002</v>
+      </c>
+      <c r="Q6" s="5">
         <f>M6/L6*100</f>
-        <v>95.538217725222481</v>
-      </c>
-      <c r="P6" s="5">
+        <v>81.950278124645251</v>
+      </c>
+      <c r="R6" s="5">
         <f>N6/L6*100</f>
-        <v>4.4617822747775202</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="0"/>
-        <v>1302</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="1"/>
-        <v>2078</v>
+        <v>18.049721875354752</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="3"/>
-        <v>1808.3369471999999</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="4"/>
-        <v>3746</v>
+        <f>F6+I6</f>
+        <v>2112</v>
+      </c>
+      <c r="T6" s="3">
+        <f>G6+J6</f>
+        <v>3857</v>
+      </c>
+      <c r="U6" s="3">
+        <f>E6</f>
+        <v>1421</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="5"/>
-        <v>13.440536119466667</v>
-      </c>
-      <c r="W6" s="5">
-        <v>13</v>
+        <f>U6*10.7639104</f>
+        <v>15295.516678400001</v>
+      </c>
+      <c r="W6" s="4">
+        <f>D6+E6+F6+G6+I6+J6</f>
+        <v>7559</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="6"/>
-        <v>20.020873344000002</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+        <f>W6*10.7639104/3000</f>
+        <v>27.12146623786667</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <f>S6*10.7639104/700</f>
+        <v>32.476255378285714</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>B6</f>
+        <v>4</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>Z6*595</f>
+        <v>19323.37195008</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>Y6*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <f>AC6+AB6</f>
+        <v>19323.37195008</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>(T6+S6)*10.7639104</f>
+        <v>64249.781177600002</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>AD6/AE6*100</f>
+        <v>30.075389512481149</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>264</v>
+        <v>4661</v>
       </c>
       <c r="E7" s="1">
-        <v>740</v>
+        <v>2381</v>
       </c>
       <c r="F7" s="1">
-        <v>1422</v>
+        <v>3331</v>
       </c>
       <c r="G7" s="1">
-        <v>2042</v>
+        <v>5429</v>
       </c>
       <c r="H7" s="1">
-        <v>2055</v>
+        <v>1413</v>
       </c>
       <c r="I7" s="1">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="J7" s="1">
-        <v>137</v>
+        <v>1389</v>
       </c>
       <c r="K7" s="1">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="L7" s="3">
         <f>SUM(C7:K7)</f>
-        <v>6779</v>
+        <v>19452</v>
       </c>
       <c r="M7" s="3">
         <f>K7+J7+I7+H7+G7+F7</f>
-        <v>5775</v>
+        <v>12410</v>
       </c>
       <c r="N7" s="3">
         <f>C7+D7+E7</f>
-        <v>1004</v>
+        <v>7042</v>
       </c>
       <c r="O7" s="5">
+        <f>M7*10.7639104</f>
+        <v>133580.12806399999</v>
+      </c>
+      <c r="P7" s="5">
+        <f>N7*10.7639104</f>
+        <v>75799.457036799999</v>
+      </c>
+      <c r="Q7" s="5">
         <f>M7/L7*100</f>
-        <v>85.189555981708224</v>
-      </c>
-      <c r="P7" s="5">
+        <v>63.798067036808561</v>
+      </c>
+      <c r="R7" s="5">
         <f>N7/L7*100</f>
-        <v>14.810444018291783</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="0"/>
-        <v>1433</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="1"/>
-        <v>2179</v>
+        <v>36.201932963191446</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="2"/>
-        <v>740</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="3"/>
-        <v>7965.2936960000006</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="4"/>
-        <v>4616</v>
+        <f>F7+I7</f>
+        <v>3929</v>
+      </c>
+      <c r="T7" s="3">
+        <f>G7+J7</f>
+        <v>6818</v>
+      </c>
+      <c r="U7" s="3">
+        <f>E7</f>
+        <v>2381</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="5"/>
-        <v>16.562070135466666</v>
-      </c>
-      <c r="W7" s="5">
-        <v>17</v>
+        <f>U7*10.7639104</f>
+        <v>25628.870662400001</v>
+      </c>
+      <c r="W7" s="4">
+        <f>D7+E7+F7+G7+I7+J7</f>
+        <v>17789</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="6"/>
-        <v>22.035262290285715</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
+        <f>W7*10.7639104/3000</f>
+        <v>63.826400701866667</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>S7*10.7639104/700</f>
+        <v>60.416291373714287</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>B7</f>
+        <v>2</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>Z7*595</f>
+        <v>35947.69336736</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>Y7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <f>AC7+AB7</f>
+        <v>35947.69336736</v>
+      </c>
+      <c r="AE7" s="3">
+        <f>(T7+S7)*10.7639104</f>
+        <v>115679.74506880001</v>
+      </c>
+      <c r="AF7" s="3">
+        <f>AD7/AE7*100</f>
+        <v>31.075183772215496</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>444</v>
+        <v>1206</v>
       </c>
       <c r="E8" s="1">
-        <v>417</v>
+        <v>808</v>
       </c>
       <c r="F8" s="1">
-        <v>33</v>
+        <v>3233</v>
       </c>
       <c r="G8" s="1">
-        <v>921</v>
+        <v>2802</v>
       </c>
       <c r="H8" s="1">
-        <v>1532</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J8" s="1">
-        <v>89</v>
+        <v>583</v>
       </c>
       <c r="K8" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <f>SUM(C8:K8)</f>
-        <v>3482</v>
+        <v>8851</v>
       </c>
       <c r="M8" s="3">
         <f>K8+J8+I8+H8+G8+F8</f>
-        <v>2621</v>
+        <v>6837</v>
       </c>
       <c r="N8" s="3">
         <f>C8+D8+E8</f>
-        <v>861</v>
+        <v>2014</v>
       </c>
       <c r="O8" s="5">
+        <f>M8*10.7639104</f>
+        <v>73592.855404800008</v>
+      </c>
+      <c r="P8" s="5">
+        <f>N8*10.7639104</f>
+        <v>21678.515545599999</v>
+      </c>
+      <c r="Q8" s="5">
         <f>M8/L8*100</f>
-        <v>75.272831705916147</v>
-      </c>
-      <c r="P8" s="5">
+        <v>77.245508982035929</v>
+      </c>
+      <c r="R8" s="5">
         <f>N8/L8*100</f>
-        <v>24.72716829408386</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="1"/>
-        <v>1010</v>
+        <v>22.754491017964071</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="2"/>
-        <v>417</v>
-      </c>
-      <c r="T8" s="5">
-        <f t="shared" si="3"/>
-        <v>4488.5506368000006</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="4"/>
-        <v>1904</v>
+        <f>F8+I8</f>
+        <v>3440</v>
+      </c>
+      <c r="T8" s="3">
+        <f>G8+J8</f>
+        <v>3385</v>
+      </c>
+      <c r="U8" s="3">
+        <f>E8</f>
+        <v>808</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="5"/>
-        <v>6.8314951338666665</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
+        <f>U8*10.7639104</f>
+        <v>8697.2396031999997</v>
+      </c>
+      <c r="W8" s="4">
+        <f>D8+E8+F8+G8+I8+J8</f>
+        <v>8839</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="6"/>
-        <v>0.50744149028571428</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+        <f>W8*10.7639104/3000</f>
+        <v>31.714068008533335</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <f>S8*10.7639104/700</f>
+        <v>52.89693110857143</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>B8</f>
+        <v>10</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>Z8*595</f>
+        <v>31473.674009599999</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>Y8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <f>AC8+AB8</f>
+        <v>31473.674009599999</v>
+      </c>
+      <c r="AE8" s="3">
+        <f>(T8+S8)*10.7639104</f>
+        <v>73463.688479999997</v>
+      </c>
+      <c r="AF8" s="3">
+        <f>AD8/AE8*100</f>
+        <v>42.842490842490847</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>158</v>
+        <v>1911</v>
       </c>
       <c r="E9" s="1">
-        <v>758</v>
+        <v>2447</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1599</v>
       </c>
       <c r="G9" s="1">
-        <v>23</v>
+        <v>2618</v>
       </c>
       <c r="H9" s="1">
-        <v>551</v>
+        <v>3148</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="L9" s="3">
         <f>SUM(C9:K9)</f>
-        <v>1495</v>
+        <v>11921</v>
       </c>
       <c r="M9" s="3">
         <f>K9+J9+I9+H9+G9+F9</f>
-        <v>579</v>
+        <v>7563</v>
       </c>
       <c r="N9" s="3">
         <f>C9+D9+E9</f>
-        <v>916</v>
+        <v>4358</v>
       </c>
       <c r="O9" s="5">
+        <f>M9*10.7639104</f>
+        <v>81407.454355199996</v>
+      </c>
+      <c r="P9" s="5">
+        <f>N9*10.7639104</f>
+        <v>46909.121523200003</v>
+      </c>
+      <c r="Q9" s="5">
         <f>M9/L9*100</f>
-        <v>38.729096989966557</v>
-      </c>
-      <c r="P9" s="5">
+        <v>63.442664206022982</v>
+      </c>
+      <c r="R9" s="5">
         <f>N9/L9*100</f>
-        <v>61.270903010033436</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" si="1"/>
+        <v>36.55733579397701</v>
+      </c>
+      <c r="S9" s="3">
+        <f>F9+I9</f>
+        <v>1645</v>
+      </c>
+      <c r="T9" s="3">
+        <f>G9+J9</f>
+        <v>2672</v>
+      </c>
+      <c r="U9" s="3">
+        <f>E9</f>
+        <v>2447</v>
+      </c>
+      <c r="V9" s="5">
+        <f>U9*10.7639104</f>
+        <v>26339.288748800001</v>
+      </c>
+      <c r="W9" s="4">
+        <f>D9+E9+F9+G9+I9+J9</f>
+        <v>8675</v>
+      </c>
+      <c r="X9" s="5">
+        <f>W9*10.7639104/3000</f>
+        <v>31.125640906666668</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="5">
+        <f>S9*10.7639104/700</f>
+        <v>25.295189440000001</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>B9</f>
         <v>23</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="2"/>
-        <v>758</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="3"/>
-        <v>8159.0440832000004</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="4"/>
-        <v>939</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="5"/>
-        <v>3.3691039552000004</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
+      <c r="AB9" s="3">
+        <f>Z9*595</f>
+        <v>15050.637716800002</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>Y9*1000</f>
+        <v>5000</v>
+      </c>
+      <c r="AD9" s="3">
+        <f>AC9+AB9</f>
+        <v>20050.637716800004</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>(T9+S9)*10.7639104</f>
+        <v>46467.801196799999</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>AD9/AE9*100</f>
+        <v>43.149529782745113</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="D10" s="1">
-        <v>5377</v>
+        <v>1355</v>
       </c>
       <c r="E10" s="1">
-        <v>5155</v>
+        <v>3732</v>
       </c>
       <c r="F10" s="1">
-        <v>2337</v>
+        <v>1503</v>
       </c>
       <c r="G10" s="1">
-        <v>2308</v>
+        <v>2259</v>
       </c>
       <c r="H10" s="1">
-        <v>1864</v>
+        <v>1511</v>
       </c>
       <c r="I10" s="1">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1">
-        <v>525</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1">
-        <v>408</v>
+        <v>141</v>
       </c>
       <c r="L10" s="3">
         <f>SUM(C10:K10)</f>
-        <v>18272</v>
+        <v>11368</v>
       </c>
       <c r="M10" s="3">
         <f>K10+J10+I10+H10+G10+F10</f>
-        <v>7740</v>
+        <v>5485</v>
       </c>
       <c r="N10" s="3">
         <f>C10+D10+E10</f>
-        <v>10532</v>
+        <v>5883</v>
       </c>
       <c r="O10" s="5">
+        <f>M10*10.7639104</f>
+        <v>59040.048544000005</v>
+      </c>
+      <c r="P10" s="5">
+        <f>N10*10.7639104</f>
+        <v>63324.084883200005</v>
+      </c>
+      <c r="Q10" s="5">
         <f>M10/L10*100</f>
-        <v>42.359894921190893</v>
-      </c>
-      <c r="P10" s="5">
+        <v>48.24947220267417</v>
+      </c>
+      <c r="R10" s="5">
         <f>N10/L10*100</f>
-        <v>57.640105078809114</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="0"/>
-        <v>2635</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="1"/>
-        <v>2833</v>
+        <v>51.75052779732583</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="2"/>
-        <v>5155</v>
-      </c>
-      <c r="T10" s="5">
-        <f t="shared" si="3"/>
-        <v>55487.958112</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="4"/>
-        <v>16000</v>
+        <f>F10+I10</f>
+        <v>1506</v>
+      </c>
+      <c r="T10" s="3">
+        <f>G10+J10</f>
+        <v>2327</v>
+      </c>
+      <c r="U10" s="3">
+        <f>E10</f>
+        <v>3732</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" si="5"/>
-        <v>57.407522133333337</v>
-      </c>
-      <c r="W10" s="5">
-        <f>V10/2</f>
-        <v>28.703761066666669</v>
+        <f>U10*10.7639104</f>
+        <v>40170.913612800003</v>
+      </c>
+      <c r="W10" s="4">
+        <f>D10+E10+F10+G10+I10+J10</f>
+        <v>8920</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="6"/>
-        <v>40.51843414857143</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+        <f>W10*10.7639104/3000</f>
+        <v>32.004693589333336</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="5">
+        <f>S10*10.7639104/700</f>
+        <v>23.157784374857144</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>B10</f>
+        <v>16</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>Z10*595</f>
+        <v>13778.881703040001</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>Y10*1000</f>
+        <v>5000</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>AC10+AB10</f>
+        <v>18778.881703040002</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>(T10+S10)*10.7639104</f>
+        <v>41258.068563200002</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>AD10/AE10*100</f>
+        <v>45.515658771748136</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1206</v>
+        <v>1370</v>
       </c>
       <c r="E11" s="1">
-        <v>808</v>
+        <v>1506</v>
       </c>
       <c r="F11" s="1">
-        <v>3233</v>
+        <v>2793</v>
       </c>
       <c r="G11" s="1">
-        <v>2802</v>
+        <v>2233</v>
       </c>
       <c r="H11" s="1">
-        <v>12</v>
+        <v>1667</v>
       </c>
       <c r="I11" s="1">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="L11" s="3">
         <f>SUM(C11:K11)</f>
-        <v>8851</v>
+        <v>10025</v>
       </c>
       <c r="M11" s="3">
         <f>K11+J11+I11+H11+G11+F11</f>
-        <v>6837</v>
+        <v>7149</v>
       </c>
       <c r="N11" s="3">
         <f>C11+D11+E11</f>
-        <v>2014</v>
+        <v>2876</v>
       </c>
       <c r="O11" s="5">
+        <f>M11*10.7639104</f>
+        <v>76951.195449599996</v>
+      </c>
+      <c r="P11" s="5">
+        <f>N11*10.7639104</f>
+        <v>30957.0063104</v>
+      </c>
+      <c r="Q11" s="5">
         <f>M11/L11*100</f>
-        <v>77.245508982035929</v>
-      </c>
-      <c r="P11" s="5">
+        <v>71.311720698254362</v>
+      </c>
+      <c r="R11" s="5">
         <f>N11/L11*100</f>
-        <v>22.754491017964071</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="0"/>
-        <v>3440</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="1"/>
-        <v>3385</v>
+        <v>28.688279301745634</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="2"/>
-        <v>808</v>
-      </c>
-      <c r="T11" s="5">
-        <f t="shared" si="3"/>
-        <v>8697.2396031999997</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="4"/>
-        <v>8839</v>
+        <f>F11+I11</f>
+        <v>2875</v>
+      </c>
+      <c r="T11" s="3">
+        <f>G11+J11</f>
+        <v>2338</v>
+      </c>
+      <c r="U11" s="3">
+        <f>E11</f>
+        <v>1506</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="5"/>
-        <v>31.714068008533335</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0</v>
+        <f>U11*10.7639104</f>
+        <v>16210.449062400001</v>
+      </c>
+      <c r="W11" s="4">
+        <f>D11+E11+F11+G11+I11+J11</f>
+        <v>8089</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="6"/>
-        <v>52.89693110857143</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
+        <f>W11*10.7639104/3000</f>
+        <v>29.023090408533335</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="5">
+        <f>S11*10.7639104/700</f>
+        <v>44.208917714285711</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>B11</f>
+        <v>21</v>
+      </c>
+      <c r="AB11" s="3">
+        <f>Z11*595</f>
+        <v>26304.306039999999</v>
+      </c>
+      <c r="AC11" s="3">
+        <f>Y11*1000</f>
+        <v>4000</v>
+      </c>
+      <c r="AD11" s="3">
+        <f>AC11+AB11</f>
+        <v>30304.306039999999</v>
+      </c>
+      <c r="AE11" s="3">
+        <f>(T11+S11)*10.7639104</f>
+        <v>56112.264915200001</v>
+      </c>
+      <c r="AF11" s="3">
+        <f>AD11/AE11*100</f>
+        <v>54.006563602088711</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>548</v>
+        <v>1881</v>
       </c>
       <c r="E12" s="1">
-        <v>616</v>
+        <v>2828</v>
       </c>
       <c r="F12" s="1">
-        <v>192</v>
+        <v>2753</v>
       </c>
       <c r="G12" s="1">
-        <v>65</v>
+        <v>5774</v>
       </c>
       <c r="H12" s="1">
-        <v>850</v>
+        <v>3720</v>
       </c>
       <c r="I12" s="1">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="J12" s="1">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="L12" s="3">
         <f>SUM(C12:K12)</f>
-        <v>2705</v>
+        <v>17666</v>
       </c>
       <c r="M12" s="3">
         <f>K12+J12+I12+H12+G12+F12</f>
-        <v>1541</v>
+        <v>12957</v>
       </c>
       <c r="N12" s="3">
         <f>C12+D12+E12</f>
-        <v>1164</v>
+        <v>4709</v>
       </c>
       <c r="O12" s="5">
+        <f>M12*10.7639104</f>
+        <v>139467.98705280002</v>
+      </c>
+      <c r="P12" s="5">
+        <f>N12*10.7639104</f>
+        <v>50687.254073600001</v>
+      </c>
+      <c r="Q12" s="5">
         <f>M12/L12*100</f>
-        <v>56.968576709796672</v>
-      </c>
-      <c r="P12" s="5">
+        <v>73.34427714253367</v>
+      </c>
+      <c r="R12" s="5">
         <f>N12/L12*100</f>
-        <v>43.031423290203321</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="1"/>
-        <v>295</v>
+        <v>26.655722857466319</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="2"/>
-        <v>616</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" si="3"/>
-        <v>6630.5688064000005</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="4"/>
-        <v>1682</v>
+        <f>F12+I12</f>
+        <v>2957</v>
+      </c>
+      <c r="T12" s="3">
+        <f>G12+J12</f>
+        <v>5931</v>
+      </c>
+      <c r="U12" s="3">
+        <f>E12</f>
+        <v>2828</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="5"/>
-        <v>6.0349657642666665</v>
-      </c>
-      <c r="W12" s="5">
-        <v>3</v>
+        <f>U12*10.7639104</f>
+        <v>30440.338611200001</v>
+      </c>
+      <c r="W12" s="4">
+        <f>D12+E12+F12+G12+I12+J12</f>
+        <v>13597</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="6"/>
-        <v>3.4290743131428574</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+        <f>W12*10.7639104/3000</f>
+        <v>48.785629902933337</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="5">
+        <f>S12*10.7639104/700</f>
+        <v>45.469832932571428</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>B12</f>
+        <v>38</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>Z12*595</f>
+        <v>27054.550594879998</v>
+      </c>
+      <c r="AC12" s="3">
+        <f>Y12*1000</f>
+        <v>25000</v>
+      </c>
+      <c r="AD12" s="3">
+        <f>AC12+AB12</f>
+        <v>52054.550594879998</v>
+      </c>
+      <c r="AE12" s="3">
+        <f>(T12+S12)*10.7639104</f>
+        <v>95669.6356352</v>
+      </c>
+      <c r="AF12" s="3">
+        <f>AD12/AE12*100</f>
+        <v>54.410733613923604</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>7861</v>
+        <v>2950</v>
       </c>
       <c r="E13" s="1">
-        <v>3021</v>
+        <v>4118</v>
       </c>
       <c r="F13" s="1">
-        <v>3913</v>
+        <v>8808</v>
       </c>
       <c r="G13" s="1">
-        <v>1197</v>
+        <v>6578</v>
       </c>
       <c r="H13" s="1">
-        <v>2289</v>
+        <v>7229</v>
       </c>
       <c r="I13" s="1">
-        <v>649</v>
+        <v>340</v>
       </c>
       <c r="J13" s="1">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="K13" s="1">
-        <v>1927</v>
+        <v>284</v>
       </c>
       <c r="L13" s="3">
         <f>SUM(C13:K13)</f>
-        <v>21493</v>
+        <v>30907</v>
       </c>
       <c r="M13" s="3">
         <f>K13+J13+I13+H13+G13+F13</f>
-        <v>10611</v>
+        <v>23839</v>
       </c>
       <c r="N13" s="3">
         <f>C13+D13+E13</f>
-        <v>10882</v>
+        <v>7068</v>
       </c>
       <c r="O13" s="5">
+        <f>M13*10.7639104</f>
+        <v>256600.86002560001</v>
+      </c>
+      <c r="P13" s="5">
+        <f>N13*10.7639104</f>
+        <v>76079.3187072</v>
+      </c>
+      <c r="Q13" s="5">
         <f>M13/L13*100</f>
-        <v>49.369562183036336</v>
-      </c>
-      <c r="P13" s="5">
+        <v>77.131394182547638</v>
+      </c>
+      <c r="R13" s="5">
         <f>N13/L13*100</f>
-        <v>50.630437816963656</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="0"/>
-        <v>4562</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="1"/>
-        <v>1833</v>
+        <v>22.868605817452355</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="2"/>
-        <v>3021</v>
-      </c>
-      <c r="T13" s="5">
-        <f t="shared" si="3"/>
-        <v>32517.773318400003</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="4"/>
-        <v>17277</v>
+        <f>F13+I13</f>
+        <v>9148</v>
+      </c>
+      <c r="T13" s="3">
+        <f>G13+J13</f>
+        <v>7178</v>
+      </c>
+      <c r="U13" s="3">
+        <f>E13</f>
+        <v>4118</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="5"/>
-        <v>61.989359993600004</v>
-      </c>
-      <c r="W13" s="5">
-        <v>50</v>
+        <f>U13*10.7639104</f>
+        <v>44325.783027199999</v>
+      </c>
+      <c r="W13" s="4">
+        <f>D13+E13+F13+G13+I13+J13</f>
+        <v>23394</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="6"/>
-        <v>70.149941778285722</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
+        <f>W13*10.7639104/3000</f>
+        <v>83.936973299200005</v>
+      </c>
+      <c r="Y13" s="5">
+        <f>X13*0.2</f>
+        <v>16.78739465984</v>
+      </c>
+      <c r="Z13" s="5">
+        <f>S13*10.7639104/700</f>
+        <v>140.66893191314287</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>B13</f>
+        <v>32</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>Z13*595</f>
+        <v>83698.014488320012</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>Y13*1000</f>
+        <v>16787.39465984</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>AC13+AB13</f>
+        <v>100485.40914816002</v>
+      </c>
+      <c r="AE13" s="3">
+        <f>(T13+S13)*10.7639104</f>
+        <v>175731.60119040002</v>
+      </c>
+      <c r="AF13" s="3">
+        <f>AD13/AE13*100</f>
+        <v>57.181183388460134</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>5518</v>
+        <v>5514</v>
       </c>
       <c r="E14" s="1">
-        <v>3258</v>
+        <v>4987</v>
       </c>
       <c r="F14" s="1">
-        <v>3722</v>
+        <v>5746</v>
       </c>
       <c r="G14" s="1">
-        <v>1747</v>
+        <v>4537</v>
       </c>
       <c r="H14" s="1">
-        <v>1457</v>
+        <v>3488</v>
       </c>
       <c r="I14" s="1">
-        <v>960</v>
+        <v>502</v>
       </c>
       <c r="J14" s="1">
-        <v>396</v>
+        <v>704</v>
       </c>
       <c r="K14" s="1">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="L14" s="3">
         <f>SUM(C14:K14)</f>
-        <v>17713</v>
+        <v>26083</v>
       </c>
       <c r="M14" s="3">
         <f>K14+J14+I14+H14+G14+F14</f>
-        <v>8937</v>
+        <v>15582</v>
       </c>
       <c r="N14" s="3">
         <f>C14+D14+E14</f>
-        <v>8776</v>
+        <v>10501</v>
       </c>
       <c r="O14" s="5">
+        <f>M14*10.7639104</f>
+        <v>167723.25185279999</v>
+      </c>
+      <c r="P14" s="5">
+        <f>N14*10.7639104</f>
+        <v>113031.8231104</v>
+      </c>
+      <c r="Q14" s="5">
         <f>M14/L14*100</f>
-        <v>50.45446846948569</v>
-      </c>
-      <c r="P14" s="5">
+        <v>59.740060575854002</v>
+      </c>
+      <c r="R14" s="5">
         <f>N14/L14*100</f>
-        <v>49.545531530514317</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="0"/>
-        <v>4682</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="1"/>
-        <v>2143</v>
+        <v>40.259939424145998</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="2"/>
-        <v>3258</v>
-      </c>
-      <c r="T14" s="5">
-        <f t="shared" si="3"/>
-        <v>35068.8200832</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="4"/>
-        <v>15601</v>
+        <f>F14+I14</f>
+        <v>6248</v>
+      </c>
+      <c r="T14" s="3">
+        <f>G14+J14</f>
+        <v>5241</v>
+      </c>
+      <c r="U14" s="3">
+        <f>E14</f>
+        <v>4987</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="5"/>
-        <v>55.975922050133335</v>
-      </c>
-      <c r="W14" s="5">
-        <f>V14/2</f>
-        <v>27.987961025066667</v>
+        <f>U14*10.7639104</f>
+        <v>53679.621164800003</v>
+      </c>
+      <c r="W14" s="4">
+        <f>D14+E14+F14+G14+I14+J14</f>
+        <v>21990</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="6"/>
-        <v>71.995183561142866</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
+        <f>W14*10.7639104/3000</f>
+        <v>78.899463232000002</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="5">
+        <f>S14*10.7639104/700</f>
+        <v>96.075588827428589</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>B14</f>
+        <v>26</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>Z14*595</f>
+        <v>57164.975352320012</v>
+      </c>
+      <c r="AC14" s="3">
+        <f>Y14*1000</f>
+        <v>15000</v>
+      </c>
+      <c r="AD14" s="3">
+        <f>AC14+AB14</f>
+        <v>72164.975352320005</v>
+      </c>
+      <c r="AE14" s="3">
+        <f>(T14+S14)*10.7639104</f>
+        <v>123666.5665856</v>
+      </c>
+      <c r="AF14" s="3">
+        <f>AD14/AE14*100</f>
+        <v>58.354474733774211</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>15232</v>
+        <v>4827</v>
       </c>
       <c r="E15" s="1">
-        <v>12035</v>
+        <v>3165</v>
       </c>
       <c r="F15" s="1">
-        <v>11196</v>
+        <v>2070</v>
       </c>
       <c r="G15" s="1">
-        <v>8164</v>
+        <v>1369</v>
       </c>
       <c r="H15" s="1">
-        <v>5866</v>
+        <v>1501</v>
       </c>
       <c r="I15" s="1">
-        <v>2193</v>
+        <v>217</v>
       </c>
       <c r="J15" s="1">
-        <v>1400</v>
+        <v>178</v>
       </c>
       <c r="K15" s="1">
-        <v>2522</v>
+        <v>338</v>
       </c>
       <c r="L15" s="3">
         <f>SUM(C15:K15)</f>
-        <v>60358</v>
+        <v>13665</v>
       </c>
       <c r="M15" s="3">
         <f>K15+J15+I15+H15+G15+F15</f>
-        <v>31341</v>
+        <v>5673</v>
       </c>
       <c r="N15" s="3">
         <f>C15+D15+E15</f>
-        <v>29017</v>
+        <v>7992</v>
       </c>
       <c r="O15" s="5">
+        <f>M15*10.7639104</f>
+        <v>61063.663699199999</v>
+      </c>
+      <c r="P15" s="5">
+        <f>N15*10.7639104</f>
+        <v>86025.171916799998</v>
+      </c>
+      <c r="Q15" s="5">
         <f>M15/L15*100</f>
-        <v>51.925179760760798</v>
-      </c>
-      <c r="P15" s="5">
+        <v>41.514818880351264</v>
+      </c>
+      <c r="R15" s="5">
         <f>N15/L15*100</f>
-        <v>48.074820239239209</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="0"/>
-        <v>13389</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="1"/>
-        <v>9564</v>
+        <v>58.485181119648729</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="2"/>
-        <v>12035</v>
-      </c>
-      <c r="T15" s="5">
-        <f t="shared" si="3"/>
-        <v>129543.661664</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="4"/>
-        <v>50220</v>
+        <f>F15+I15</f>
+        <v>2287</v>
+      </c>
+      <c r="T15" s="3">
+        <f>G15+J15</f>
+        <v>1547</v>
+      </c>
+      <c r="U15" s="3">
+        <f>E15</f>
+        <v>3165</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="5"/>
-        <v>180.18786009600001</v>
-      </c>
-      <c r="W15" s="5">
-        <f>V15*0.8</f>
-        <v>144.15028807680002</v>
+        <f>U15*10.7639104</f>
+        <v>34067.776416000001</v>
+      </c>
+      <c r="W15" s="4">
+        <f>D15+E15+F15+G15+I15+J15</f>
+        <v>11826</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="6"/>
-        <v>205.88285192228571</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
+        <f>W15*10.7639104/3000</f>
+        <v>42.431334796800002</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="5">
+        <f>S15*10.7639104/700</f>
+        <v>35.167232978285718</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>B15</f>
+        <v>25</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>Z15*595</f>
+        <v>20924.503622080003</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>Y15*1000</f>
+        <v>5000</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>AC15+AB15</f>
+        <v>25924.503622080003</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>(T15+S15)*10.7639104</f>
+        <v>41268.8324736</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>AD15/AE15*100</f>
+        <v>62.818602001072158</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>3164</v>
+        <v>1296</v>
       </c>
       <c r="E16" s="1">
-        <v>2887</v>
+        <v>1486</v>
       </c>
       <c r="F16" s="1">
-        <v>3153</v>
+        <v>2664</v>
       </c>
       <c r="G16" s="1">
-        <v>2390</v>
+        <v>1962</v>
       </c>
       <c r="H16" s="1">
-        <v>1979</v>
+        <v>2590</v>
       </c>
       <c r="I16" s="1">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1">
-        <v>544</v>
+        <v>281</v>
       </c>
       <c r="K16" s="1">
-        <v>441</v>
+        <v>210</v>
       </c>
       <c r="L16" s="3">
         <f>SUM(C16:K16)</f>
-        <v>14898</v>
+        <v>10656</v>
       </c>
       <c r="M16" s="3">
         <f>K16+J16+I16+H16+G16+F16</f>
-        <v>8847</v>
+        <v>7874</v>
       </c>
       <c r="N16" s="3">
         <f>C16+D16+E16</f>
-        <v>6051</v>
+        <v>2782</v>
       </c>
       <c r="O16" s="5">
+        <f>M16*10.7639104</f>
+        <v>84755.030489600002</v>
+      </c>
+      <c r="P16" s="5">
+        <f>N16*10.7639104</f>
+        <v>29945.1987328</v>
+      </c>
+      <c r="Q16" s="5">
         <f>M16/L16*100</f>
-        <v>59.383809907370122</v>
-      </c>
-      <c r="P16" s="5">
+        <v>73.892642642642642</v>
+      </c>
+      <c r="R16" s="5">
         <f>N16/L16*100</f>
-        <v>40.616190092629886</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="0"/>
-        <v>3493</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="1"/>
-        <v>2934</v>
+        <v>26.107357357357358</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="2"/>
-        <v>2887</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" si="3"/>
-        <v>31075.409324800003</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="4"/>
-        <v>12478</v>
+        <f>F16+I16</f>
+        <v>2831</v>
+      </c>
+      <c r="T16" s="3">
+        <f>G16+J16</f>
+        <v>2243</v>
+      </c>
+      <c r="U16" s="3">
+        <f>E16</f>
+        <v>1486</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="5"/>
-        <v>44.770691323733338</v>
-      </c>
-      <c r="W16" s="5">
-        <f>V16*0.8</f>
-        <v>35.816553058986671</v>
+        <f>U16*10.7639104</f>
+        <v>15995.170854400001</v>
+      </c>
+      <c r="W16" s="4">
+        <f>D16+E16+F16+G16+I16+J16</f>
+        <v>7856</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="6"/>
-        <v>53.711912896000008</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
+        <f>W16*10.7639104/3000</f>
+        <v>28.187093367466669</v>
+      </c>
+      <c r="Y16" s="5">
+        <f>X16*0.35</f>
+        <v>9.8654826786133345</v>
+      </c>
+      <c r="Z16" s="5">
+        <f>S16*10.7639104/700</f>
+        <v>43.532329060571428</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>B16</f>
+        <v>30</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>Z16*595</f>
+        <v>25901.735791039999</v>
+      </c>
+      <c r="AC16" s="3">
+        <f>Y16*1000</f>
+        <v>9865.4826786133344</v>
+      </c>
+      <c r="AD16" s="3">
+        <f>AC16+AB16</f>
+        <v>35767.218469653337</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>(T16+S16)*10.7639104</f>
+        <v>54616.081369600004</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>AD16/AE16*100</f>
+        <v>65.488437787412963</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1355</v>
+        <v>2758</v>
       </c>
       <c r="E17" s="1">
-        <v>3732</v>
+        <v>1567</v>
       </c>
       <c r="F17" s="1">
-        <v>1503</v>
+        <v>4187</v>
       </c>
       <c r="G17" s="1">
-        <v>2259</v>
+        <v>4040</v>
       </c>
       <c r="H17" s="1">
-        <v>1511</v>
+        <v>3870</v>
       </c>
       <c r="I17" s="1">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="J17" s="1">
-        <v>68</v>
+        <v>778</v>
       </c>
       <c r="K17" s="1">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="L17" s="3">
         <f>SUM(C17:K17)</f>
-        <v>11368</v>
+        <v>18047</v>
       </c>
       <c r="M17" s="3">
         <f>K17+J17+I17+H17+G17+F17</f>
-        <v>5485</v>
+        <v>13722</v>
       </c>
       <c r="N17" s="3">
         <f>C17+D17+E17</f>
-        <v>5883</v>
+        <v>4325</v>
       </c>
       <c r="O17" s="5">
+        <f>M17*10.7639104</f>
+        <v>147702.3785088</v>
+      </c>
+      <c r="P17" s="5">
+        <f>N17*10.7639104</f>
+        <v>46553.912479999999</v>
+      </c>
+      <c r="Q17" s="5">
         <f>M17/L17*100</f>
-        <v>48.24947220267417</v>
-      </c>
-      <c r="P17" s="5">
+        <v>76.034798027372972</v>
+      </c>
+      <c r="R17" s="5">
         <f>N17/L17*100</f>
-        <v>51.75052779732583</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="0"/>
-        <v>1506</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="1"/>
-        <v>2327</v>
+        <v>23.965201972627028</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="2"/>
-        <v>3732</v>
-      </c>
-      <c r="T17" s="5">
-        <f t="shared" si="3"/>
-        <v>40170.913612800003</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="4"/>
-        <v>8920</v>
+        <f>F17+I17</f>
+        <v>4566</v>
+      </c>
+      <c r="T17" s="3">
+        <f>G17+J17</f>
+        <v>4818</v>
+      </c>
+      <c r="U17" s="3">
+        <f>E17</f>
+        <v>1567</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="5"/>
-        <v>32.004693589333336</v>
-      </c>
-      <c r="W17" s="5">
-        <v>5</v>
+        <f>U17*10.7639104</f>
+        <v>16867.047596799999</v>
+      </c>
+      <c r="W17" s="4">
+        <f>D17+E17+F17+G17+I17+J17</f>
+        <v>13709</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="6"/>
-        <v>23.157784374857144</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
+        <f>W17*10.7639104/3000</f>
+        <v>49.187482557866666</v>
+      </c>
+      <c r="Y17" s="5">
+        <f>X17/2</f>
+        <v>24.593741278933333</v>
+      </c>
+      <c r="Z17" s="5">
+        <f>S17*10.7639104/700</f>
+        <v>70.211449837714284</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>B17</f>
+        <v>29</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>Z17*595</f>
+        <v>41775.81265344</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>Y17*1000</f>
+        <v>24593.741278933332</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>AC17+AB17</f>
+        <v>66369.553932373325</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>(T17+S17)*10.7639104</f>
+        <v>101008.53519360001</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>AD17/AE17*100</f>
+        <v>65.706876953680009</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>6875</v>
+        <v>973</v>
       </c>
       <c r="E18" s="1">
-        <v>4919</v>
+        <v>324</v>
       </c>
       <c r="F18" s="1">
-        <v>2206</v>
+        <v>2509</v>
       </c>
       <c r="G18" s="1">
-        <v>2016</v>
+        <v>1394</v>
       </c>
       <c r="H18" s="1">
-        <v>2185</v>
+        <v>559</v>
       </c>
       <c r="I18" s="1">
-        <v>352</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1">
-        <v>1129</v>
+        <v>59</v>
       </c>
       <c r="K18" s="1">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="L18" s="3">
         <f>SUM(C18:K18)</f>
-        <v>20011</v>
+        <v>6133</v>
       </c>
       <c r="M18" s="3">
         <f>K18+J18+I18+H18+G18+F18</f>
-        <v>8217</v>
+        <v>4836</v>
       </c>
       <c r="N18" s="3">
         <f>C18+D18+E18</f>
-        <v>11794</v>
+        <v>1297</v>
       </c>
       <c r="O18" s="5">
+        <f>M18*10.7639104</f>
+        <v>52054.270694400002</v>
+      </c>
+      <c r="P18" s="5">
+        <f>N18*10.7639104</f>
+        <v>13960.791788800001</v>
+      </c>
+      <c r="Q18" s="5">
         <f>M18/L18*100</f>
-        <v>41.062415671380741</v>
-      </c>
-      <c r="P18" s="5">
+        <v>78.852111527800432</v>
+      </c>
+      <c r="R18" s="5">
         <f>N18/L18*100</f>
-        <v>58.937584328619266</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="0"/>
-        <v>2558</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="1"/>
-        <v>3145</v>
+        <v>21.147888472199575</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="2"/>
-        <v>4919</v>
-      </c>
-      <c r="T18" s="5">
-        <f t="shared" si="3"/>
-        <v>52947.6752576</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="4"/>
-        <v>17497</v>
+        <f>F18+I18</f>
+        <v>2568</v>
+      </c>
+      <c r="T18" s="3">
+        <f>G18+J18</f>
+        <v>1453</v>
+      </c>
+      <c r="U18" s="3">
+        <f>E18</f>
+        <v>324</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="5"/>
-        <v>62.778713422933329</v>
-      </c>
-      <c r="W18" s="5">
-        <f>V18/2</f>
-        <v>31.389356711466665</v>
+        <f>U18*10.7639104</f>
+        <v>3487.5069696</v>
+      </c>
+      <c r="W18" s="4">
+        <f>D18+E18+F18+G18+I18+J18</f>
+        <v>5318</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="6"/>
-        <v>39.334404004571425</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
+        <f>W18*10.7639104/3000</f>
+        <v>19.080825169066667</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>X18*0.3</f>
+        <v>5.7242475507200004</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>S18*10.7639104/700</f>
+        <v>39.488174153142857</v>
+      </c>
+      <c r="AA18" s="3">
+        <f>B18</f>
+        <v>18</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>Z18*595</f>
+        <v>23495.463621120001</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>Y18*1000</f>
+        <v>5724.2475507200006</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>AC18+AB18</f>
+        <v>29219.711171840001</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>(T18+S18)*10.7639104</f>
+        <v>43281.683718400003</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>AD18/AE18*100</f>
+        <v>67.510569510072116</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>973</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1">
-        <v>2509</v>
+        <v>1293</v>
       </c>
       <c r="G19" s="1">
-        <v>1394</v>
+        <v>2048</v>
       </c>
       <c r="H19" s="1">
-        <v>559</v>
+        <v>4174</v>
       </c>
       <c r="I19" s="1">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="L19" s="3">
         <f>SUM(C19:K19)</f>
-        <v>6133</v>
+        <v>8203</v>
       </c>
       <c r="M19" s="3">
         <f>K19+J19+I19+H19+G19+F19</f>
-        <v>4836</v>
+        <v>7837</v>
       </c>
       <c r="N19" s="3">
         <f>C19+D19+E19</f>
-        <v>1297</v>
+        <v>366</v>
       </c>
       <c r="O19" s="5">
+        <f>M19*10.7639104</f>
+        <v>84356.765804800001</v>
+      </c>
+      <c r="P19" s="5">
+        <f>N19*10.7639104</f>
+        <v>3939.5912063999999</v>
+      </c>
+      <c r="Q19" s="5">
         <f>M19/L19*100</f>
-        <v>78.852111527800432</v>
-      </c>
-      <c r="P19" s="5">
+        <v>95.538217725222481</v>
+      </c>
+      <c r="R19" s="5">
         <f>N19/L19*100</f>
-        <v>21.147888472199575</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="0"/>
-        <v>2568</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="1"/>
-        <v>1453</v>
+        <v>4.4617822747775202</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="2"/>
-        <v>324</v>
-      </c>
-      <c r="T19" s="5">
-        <f t="shared" si="3"/>
-        <v>3487.5069696</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" si="4"/>
-        <v>5318</v>
+        <f>F19+I19</f>
+        <v>1302</v>
+      </c>
+      <c r="T19" s="3">
+        <f>G19+J19</f>
+        <v>2078</v>
+      </c>
+      <c r="U19" s="3">
+        <f>E19</f>
+        <v>168</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="5"/>
-        <v>19.080825169066667</v>
-      </c>
-      <c r="W19" s="5">
-        <f>V19*0.3</f>
-        <v>5.7242475507200004</v>
+        <f>U19*10.7639104</f>
+        <v>1808.3369471999999</v>
+      </c>
+      <c r="W19" s="4">
+        <f>D19+E19+F19+G19+I19+J19</f>
+        <v>3746</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="6"/>
-        <v>39.488174153142857</v>
-      </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+        <f>W19*10.7639104/3000</f>
+        <v>13.440536119466667</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>S19*10.7639104/700</f>
+        <v>20.020873344000002</v>
+      </c>
+      <c r="AA19" s="3">
+        <f>B19</f>
+        <v>5</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>Z19*595</f>
+        <v>11912.419639680002</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>Y19*1000</f>
+        <v>13000</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>AC19+AB19</f>
+        <v>24912.419639680003</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>(T19+S19)*10.7639104</f>
+        <v>36382.017152</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>AD19/AE19*100</f>
+        <v>68.474542067304029</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1246</v>
+        <v>1379</v>
       </c>
       <c r="E20" s="1">
-        <v>657</v>
+        <v>780</v>
       </c>
       <c r="F20" s="1">
-        <v>2944</v>
+        <v>3193</v>
       </c>
       <c r="G20" s="1">
-        <v>1415</v>
+        <v>2979</v>
       </c>
       <c r="H20" s="1">
-        <v>2024</v>
+        <v>3686</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="J20" s="1">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="K20" s="1">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="L20" s="3">
         <f>SUM(C20:K20)</f>
-        <v>8715</v>
+        <v>12927</v>
       </c>
       <c r="M20" s="3">
         <f>K20+J20+I20+H20+G20+F20</f>
-        <v>6812</v>
+        <v>10768</v>
       </c>
       <c r="N20" s="3">
         <f>C20+D20+E20</f>
-        <v>1903</v>
+        <v>2159</v>
       </c>
       <c r="O20" s="5">
+        <f>M20*10.7639104</f>
+        <v>115905.78718720001</v>
+      </c>
+      <c r="P20" s="5">
+        <f>N20*10.7639104</f>
+        <v>23239.282553600002</v>
+      </c>
+      <c r="Q20" s="5">
         <f>M20/L20*100</f>
-        <v>78.164084911072862</v>
-      </c>
-      <c r="P20" s="5">
+        <v>83.2985224723447</v>
+      </c>
+      <c r="R20" s="5">
         <f>N20/L20*100</f>
-        <v>21.835915088927138</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="0"/>
-        <v>2974</v>
-      </c>
-      <c r="R20" s="3">
-        <f t="shared" si="1"/>
-        <v>1475</v>
+        <v>16.701477527655296</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="2"/>
-        <v>657</v>
-      </c>
-      <c r="T20" s="5">
-        <f t="shared" si="3"/>
-        <v>7071.8891328</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="4"/>
-        <v>6352</v>
+        <f>F20+I20</f>
+        <v>3490</v>
+      </c>
+      <c r="T20" s="3">
+        <f>G20+J20</f>
+        <v>3512</v>
+      </c>
+      <c r="U20" s="3">
+        <f>E20</f>
+        <v>780</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="5"/>
-        <v>22.790786286933333</v>
-      </c>
-      <c r="W20" s="5">
-        <v>20</v>
+        <f>U20*10.7639104</f>
+        <v>8395.8501120000001</v>
+      </c>
+      <c r="W20" s="4">
+        <f>D20+E20+F20+G20+I20+J20</f>
+        <v>9161</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="6"/>
-        <v>45.731242185142861</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
+        <f>W20*10.7639104/3000</f>
+        <v>32.86939439146667</v>
+      </c>
+      <c r="Y20" s="5">
+        <f>X20*0.65</f>
+        <v>21.365106354453335</v>
+      </c>
+      <c r="Z20" s="5">
+        <f>S20*10.7639104/700</f>
+        <v>53.665781851428576</v>
+      </c>
+      <c r="AA20" s="3">
+        <f>B20</f>
+        <v>33</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>Z20*595</f>
+        <v>31931.140201600003</v>
+      </c>
+      <c r="AC20" s="3">
+        <f>Y20*1000</f>
+        <v>21365.106354453335</v>
+      </c>
+      <c r="AD20" s="3">
+        <f>AC20+AB20</f>
+        <v>53296.246556053338</v>
+      </c>
+      <c r="AE20" s="3">
+        <f>(T20+S20)*10.7639104</f>
+        <v>75368.900620800006</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>AD20/AE20*100</f>
+        <v>70.713843663715124</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>14120</v>
+        <v>2425</v>
       </c>
       <c r="E21" s="1">
-        <v>5968</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1">
-        <v>8404</v>
+        <v>1649</v>
       </c>
       <c r="G21" s="1">
-        <v>6853</v>
+        <v>1331</v>
       </c>
       <c r="H21" s="1">
-        <v>6277</v>
+        <v>1584</v>
       </c>
       <c r="I21" s="1">
-        <v>1667</v>
+        <v>554</v>
       </c>
       <c r="J21" s="1">
-        <v>906</v>
+        <v>325</v>
       </c>
       <c r="K21" s="1">
-        <v>2513</v>
+        <v>750</v>
       </c>
       <c r="L21" s="3">
         <f>SUM(C21:K21)</f>
-        <v>46708</v>
+        <v>9286</v>
       </c>
       <c r="M21" s="3">
         <f>K21+J21+I21+H21+G21+F21</f>
-        <v>26620</v>
+        <v>6193</v>
       </c>
       <c r="N21" s="3">
         <f>C21+D21+E21</f>
-        <v>20088</v>
+        <v>3093</v>
       </c>
       <c r="O21" s="5">
+        <f>M21*10.7639104</f>
+        <v>66660.897107199999</v>
+      </c>
+      <c r="P21" s="5">
+        <f>N21*10.7639104</f>
+        <v>33292.774867200002</v>
+      </c>
+      <c r="Q21" s="5">
         <f>M21/L21*100</f>
-        <v>56.992378179326884</v>
-      </c>
-      <c r="P21" s="5">
+        <v>66.691794098643115</v>
+      </c>
+      <c r="R21" s="5">
         <f>N21/L21*100</f>
-        <v>43.007621820673123</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="0"/>
-        <v>10071</v>
-      </c>
-      <c r="R21" s="3">
-        <f t="shared" si="1"/>
-        <v>7759</v>
+        <v>33.308205901356878</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="2"/>
-        <v>5968</v>
-      </c>
-      <c r="T21" s="5">
-        <f t="shared" si="3"/>
-        <v>64239.017267200004</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="4"/>
-        <v>37918</v>
+        <f>F21+I21</f>
+        <v>2203</v>
+      </c>
+      <c r="T21" s="3">
+        <f>G21+J21</f>
+        <v>1656</v>
+      </c>
+      <c r="U21" s="3">
+        <f>E21</f>
+        <v>668</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="5"/>
-        <v>136.04865151573333</v>
-      </c>
-      <c r="W21" s="5">
-        <f>V21-15</f>
-        <v>121.04865151573333</v>
+        <f>U21*10.7639104</f>
+        <v>7190.2921471999998</v>
+      </c>
+      <c r="W21" s="4">
+        <f>D21+E21+F21+G21+I21+J21</f>
+        <v>6952</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="6"/>
-        <v>154.8619166262857</v>
-      </c>
-      <c r="Y21" s="3">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
+        <f>W21*10.7639104/3000</f>
+        <v>24.943568366933334</v>
+      </c>
+      <c r="Y21" s="5">
+        <f>X21*0.4</f>
+        <v>9.9774273467733341</v>
+      </c>
+      <c r="Z21" s="5">
+        <f>S21*10.7639104/700</f>
+        <v>33.87556373028572</v>
+      </c>
+      <c r="AA21" s="3">
+        <f>B21</f>
+        <v>27</v>
+      </c>
+      <c r="AB21" s="3">
+        <f>Z21*595</f>
+        <v>20155.960419520005</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>Y21*1000</f>
+        <v>9977.4273467733346</v>
+      </c>
+      <c r="AD21" s="3">
+        <f>AC21+AB21</f>
+        <v>30133.387766293337</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>(T21+S21)*10.7639104</f>
+        <v>41537.930233600004</v>
+      </c>
+      <c r="AF21" s="3">
+        <f>AD21/AE21*100</f>
+        <v>72.544268808845118</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>1370</v>
+        <v>6551</v>
       </c>
       <c r="E22" s="1">
-        <v>1506</v>
+        <v>6100</v>
       </c>
       <c r="F22" s="1">
-        <v>2793</v>
+        <v>9341</v>
       </c>
       <c r="G22" s="1">
-        <v>2233</v>
+        <v>8319</v>
       </c>
       <c r="H22" s="1">
-        <v>1667</v>
+        <v>9429</v>
       </c>
       <c r="I22" s="1">
-        <v>82</v>
+        <v>672</v>
       </c>
       <c r="J22" s="1">
-        <v>105</v>
+        <v>1305</v>
       </c>
       <c r="K22" s="1">
-        <v>269</v>
+        <v>1198</v>
       </c>
       <c r="L22" s="3">
         <f>SUM(C22:K22)</f>
-        <v>10025</v>
+        <v>42915</v>
       </c>
       <c r="M22" s="3">
         <f>K22+J22+I22+H22+G22+F22</f>
-        <v>7149</v>
+        <v>30264</v>
       </c>
       <c r="N22" s="3">
         <f>C22+D22+E22</f>
-        <v>2876</v>
+        <v>12651</v>
       </c>
       <c r="O22" s="5">
+        <f>M22*10.7639104</f>
+        <v>325758.98434560001</v>
+      </c>
+      <c r="P22" s="5">
+        <f>N22*10.7639104</f>
+        <v>136174.23047040001</v>
+      </c>
+      <c r="Q22" s="5">
         <f>M22/L22*100</f>
-        <v>71.311720698254362</v>
-      </c>
-      <c r="P22" s="5">
+        <v>70.520796924152393</v>
+      </c>
+      <c r="R22" s="5">
         <f>N22/L22*100</f>
-        <v>28.688279301745634</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="0"/>
-        <v>2875</v>
-      </c>
-      <c r="R22" s="3">
-        <f t="shared" si="1"/>
-        <v>2338</v>
+        <v>29.479203075847604</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="2"/>
-        <v>1506</v>
-      </c>
-      <c r="T22" s="5">
-        <f t="shared" si="3"/>
-        <v>16210.449062400001</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" si="4"/>
-        <v>8089</v>
+        <f>F22+I22</f>
+        <v>10013</v>
+      </c>
+      <c r="T22" s="3">
+        <f>G22+J22</f>
+        <v>9624</v>
+      </c>
+      <c r="U22" s="3">
+        <f>E22</f>
+        <v>6100</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="5"/>
-        <v>29.023090408533335</v>
-      </c>
-      <c r="W22" s="5">
-        <v>4</v>
+        <f>U22*10.7639104</f>
+        <v>65659.853440000006</v>
+      </c>
+      <c r="W22" s="4">
+        <f>D22+E22+F22+G22+I22+J22</f>
+        <v>32288</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="6"/>
-        <v>44.208917714285711</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
+        <f>W22*10.7639104/3000</f>
+        <v>115.84837966506666</v>
+      </c>
+      <c r="Y22" s="5">
+        <f>X22*0.6</f>
+        <v>69.509027799039998</v>
+      </c>
+      <c r="Z22" s="5">
+        <f>S22*10.7639104/700</f>
+        <v>153.97004976457143</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>B22</f>
+        <v>28</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>Z22*595</f>
+        <v>91612.17960992</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>Y22*1000</f>
+        <v>69509.027799039992</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>AC22+AB22</f>
+        <v>161121.20740895998</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>(T22+S22)*10.7639104</f>
+        <v>211370.9085248</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>AD22/AE22*100</f>
+        <v>76.226765799256498</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>534</v>
+        <v>5538</v>
       </c>
       <c r="E23" s="1">
-        <v>656</v>
+        <v>4191</v>
       </c>
       <c r="F23" s="1">
-        <v>305</v>
+        <v>3669</v>
       </c>
       <c r="G23" s="1">
-        <v>1121</v>
+        <v>5074</v>
       </c>
       <c r="H23" s="1">
-        <v>784</v>
+        <v>3646</v>
       </c>
       <c r="I23" s="1">
-        <v>23</v>
+        <v>915</v>
       </c>
       <c r="J23" s="1">
-        <v>63</v>
+        <v>730</v>
       </c>
       <c r="K23" s="1">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(C23:K23)</f>
-        <v>3813</v>
+        <v>24001</v>
       </c>
       <c r="M23" s="3">
         <f>K23+J23+I23+H23+G23+F23</f>
-        <v>2623</v>
+        <v>14272</v>
       </c>
       <c r="N23" s="3">
         <f>C23+D23+E23</f>
-        <v>1190</v>
+        <v>9729</v>
       </c>
       <c r="O23" s="5">
+        <f>M23*10.7639104</f>
+        <v>153622.52922880001</v>
+      </c>
+      <c r="P23" s="5">
+        <f>N23*10.7639104</f>
+        <v>104722.08428160001</v>
+      </c>
+      <c r="Q23" s="5">
         <f>M23/L23*100</f>
-        <v>68.79097823236296</v>
-      </c>
-      <c r="P23" s="5">
+        <v>59.464188992125329</v>
+      </c>
+      <c r="R23" s="5">
         <f>N23/L23*100</f>
-        <v>31.209021767637029</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="1"/>
-        <v>1184</v>
+        <v>40.535811007874671</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="2"/>
-        <v>656</v>
-      </c>
-      <c r="T23" s="5">
-        <f t="shared" si="3"/>
-        <v>7061.1252224</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="4"/>
-        <v>2702</v>
+        <f>F23+I23</f>
+        <v>4584</v>
+      </c>
+      <c r="T23" s="3">
+        <f>G23+J23</f>
+        <v>5804</v>
+      </c>
+      <c r="U23" s="3">
+        <f>E23</f>
+        <v>4191</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="5"/>
-        <v>9.694695300266666</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
+        <f>U23*10.7639104</f>
+        <v>45111.548486400003</v>
+      </c>
+      <c r="W23" s="4">
+        <f>D23+E23+F23+G23+I23+J23</f>
+        <v>20117</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="6"/>
-        <v>5.0436608731428567</v>
-      </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
+        <f>W23*10.7639104/3000</f>
+        <v>72.17919517226666</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>X23*0.6</f>
+        <v>43.307517103359991</v>
+      </c>
+      <c r="Z23" s="5">
+        <f>S23*10.7639104/700</f>
+        <v>70.48823610514286</v>
+      </c>
+      <c r="AA23" s="3">
+        <f>B23</f>
+        <v>24</v>
+      </c>
+      <c r="AB23" s="3">
+        <f>Z23*595</f>
+        <v>41940.500482560004</v>
+      </c>
+      <c r="AC23" s="3">
+        <f>Y23*1000</f>
+        <v>43307.517103359991</v>
+      </c>
+      <c r="AD23" s="3">
+        <f>AC23+AB23</f>
+        <v>85248.017585919995</v>
+      </c>
+      <c r="AE23" s="3">
+        <f>(T23+S23)*10.7639104</f>
+        <v>111815.5012352</v>
+      </c>
+      <c r="AF23" s="3">
+        <f>AD23/AE23*100</f>
+        <v>76.239892183288404</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>1911</v>
+        <v>264</v>
       </c>
       <c r="E24" s="1">
-        <v>2447</v>
+        <v>740</v>
       </c>
       <c r="F24" s="1">
-        <v>1599</v>
+        <v>1422</v>
       </c>
       <c r="G24" s="1">
-        <v>2618</v>
+        <v>2042</v>
       </c>
       <c r="H24" s="1">
-        <v>3148</v>
+        <v>2055</v>
       </c>
       <c r="I24" s="1">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="K24" s="1">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L24" s="3">
         <f>SUM(C24:K24)</f>
-        <v>11921</v>
+        <v>6779</v>
       </c>
       <c r="M24" s="3">
         <f>K24+J24+I24+H24+G24+F24</f>
-        <v>7563</v>
+        <v>5775</v>
       </c>
       <c r="N24" s="3">
         <f>C24+D24+E24</f>
-        <v>4358</v>
+        <v>1004</v>
       </c>
       <c r="O24" s="5">
+        <f>M24*10.7639104</f>
+        <v>62161.582560000003</v>
+      </c>
+      <c r="P24" s="5">
+        <f>N24*10.7639104</f>
+        <v>10806.966041600001</v>
+      </c>
+      <c r="Q24" s="5">
         <f>M24/L24*100</f>
-        <v>63.442664206022982</v>
-      </c>
-      <c r="P24" s="5">
+        <v>85.189555981708224</v>
+      </c>
+      <c r="R24" s="5">
         <f>N24/L24*100</f>
-        <v>36.55733579397701</v>
-      </c>
-      <c r="Q24" s="3">
-        <f t="shared" si="0"/>
-        <v>1645</v>
-      </c>
-      <c r="R24" s="3">
-        <f t="shared" si="1"/>
-        <v>2672</v>
+        <v>14.810444018291783</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="2"/>
-        <v>2447</v>
-      </c>
-      <c r="T24" s="5">
-        <f t="shared" si="3"/>
-        <v>26339.288748800001</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="4"/>
-        <v>8675</v>
+        <f>F24+I24</f>
+        <v>1433</v>
+      </c>
+      <c r="T24" s="3">
+        <f>G24+J24</f>
+        <v>2179</v>
+      </c>
+      <c r="U24" s="3">
+        <f>E24</f>
+        <v>740</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="5"/>
-        <v>31.125640906666668</v>
-      </c>
-      <c r="W24" s="5">
-        <v>5</v>
+        <f>U24*10.7639104</f>
+        <v>7965.2936960000006</v>
+      </c>
+      <c r="W24" s="4">
+        <f>D24+E24+F24+G24+I24+J24</f>
+        <v>4616</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="6"/>
-        <v>25.295189440000001</v>
-      </c>
-      <c r="Y24" s="3">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
+        <f>W24*10.7639104/3000</f>
+        <v>16.562070135466666</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>17</v>
+      </c>
+      <c r="Z24" s="5">
+        <f>S24*10.7639104/700</f>
+        <v>22.035262290285715</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>B24</f>
+        <v>6</v>
+      </c>
+      <c r="AB24" s="3">
+        <f>Z24*595</f>
+        <v>13110.98106272</v>
+      </c>
+      <c r="AC24" s="3">
+        <f>Y24*1000</f>
+        <v>17000</v>
+      </c>
+      <c r="AD24" s="3">
+        <f>AC24+AB24</f>
+        <v>30110.981062719999</v>
+      </c>
+      <c r="AE24" s="3">
+        <f>(T24+S24)*10.7639104</f>
+        <v>38879.244364800004</v>
+      </c>
+      <c r="AF24" s="3">
+        <f>AD24/AE24*100</f>
+        <v>77.447444143182722</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>5538</v>
+        <v>853</v>
       </c>
       <c r="E25" s="1">
-        <v>4191</v>
+        <v>828</v>
       </c>
       <c r="F25" s="1">
-        <v>3669</v>
+        <v>1686</v>
       </c>
       <c r="G25" s="1">
-        <v>5074</v>
+        <v>1857</v>
       </c>
       <c r="H25" s="1">
-        <v>3646</v>
+        <v>2020</v>
       </c>
       <c r="I25" s="1">
-        <v>915</v>
+        <v>60</v>
       </c>
       <c r="J25" s="1">
-        <v>730</v>
+        <v>105</v>
       </c>
       <c r="K25" s="1">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="L25" s="3">
         <f>SUM(C25:K25)</f>
-        <v>24001</v>
+        <v>7587</v>
       </c>
       <c r="M25" s="3">
         <f>K25+J25+I25+H25+G25+F25</f>
-        <v>14272</v>
+        <v>5906</v>
       </c>
       <c r="N25" s="3">
         <f>C25+D25+E25</f>
-        <v>9729</v>
+        <v>1681</v>
       </c>
       <c r="O25" s="5">
+        <f>M25*10.7639104</f>
+        <v>63571.6548224</v>
+      </c>
+      <c r="P25" s="5">
+        <f>N25*10.7639104</f>
+        <v>18094.133382399999</v>
+      </c>
+      <c r="Q25" s="5">
         <f>M25/L25*100</f>
-        <v>59.464188992125329</v>
-      </c>
-      <c r="P25" s="5">
+        <v>77.843679978911297</v>
+      </c>
+      <c r="R25" s="5">
         <f>N25/L25*100</f>
-        <v>40.535811007874671</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="0"/>
-        <v>4584</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" si="1"/>
-        <v>5804</v>
+        <v>22.156320021088703</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="2"/>
-        <v>4191</v>
-      </c>
-      <c r="T25" s="5">
-        <f t="shared" si="3"/>
-        <v>45111.548486400003</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="4"/>
-        <v>20117</v>
+        <f>F25+I25</f>
+        <v>1746</v>
+      </c>
+      <c r="T25" s="3">
+        <f>G25+J25</f>
+        <v>1962</v>
+      </c>
+      <c r="U25" s="3">
+        <f>E25</f>
+        <v>828</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="5"/>
-        <v>72.17919517226666</v>
-      </c>
-      <c r="W25" s="5">
-        <f>V25*0.6</f>
-        <v>43.307517103359991</v>
+        <f>U25*10.7639104</f>
+        <v>8912.5178111999994</v>
+      </c>
+      <c r="W25" s="4">
+        <f>D25+E25+F25+G25+I25+J25</f>
+        <v>5389</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="6"/>
-        <v>70.48823610514286</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
+        <f>W25*10.7639104/3000</f>
+        <v>19.335571048533332</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="5">
+        <f>S25*10.7639104/700</f>
+        <v>26.848267940571429</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>B25</f>
+        <v>37</v>
+      </c>
+      <c r="AB25" s="3">
+        <f>Z25*595</f>
+        <v>15974.719424639999</v>
+      </c>
+      <c r="AC25" s="3">
+        <f>Y25*1000</f>
+        <v>19000</v>
+      </c>
+      <c r="AD25" s="3">
+        <f>AC25+AB25</f>
+        <v>34974.719424640003</v>
+      </c>
+      <c r="AE25" s="3">
+        <f>(T25+S25)*10.7639104</f>
+        <v>39912.579763200003</v>
+      </c>
+      <c r="AF25" s="3">
+        <f>AD25/AE25*100</f>
+        <v>87.6283107535114</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>4827</v>
+        <v>1662</v>
       </c>
       <c r="E26" s="1">
-        <v>3165</v>
+        <v>1674</v>
       </c>
       <c r="F26" s="1">
-        <v>2070</v>
+        <v>2471</v>
       </c>
       <c r="G26" s="1">
-        <v>1369</v>
+        <v>2559</v>
       </c>
       <c r="H26" s="1">
-        <v>1501</v>
+        <v>2915</v>
       </c>
       <c r="I26" s="1">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="K26" s="1">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="L26" s="3">
         <f>SUM(C26:K26)</f>
-        <v>13665</v>
+        <v>11750</v>
       </c>
       <c r="M26" s="3">
         <f>K26+J26+I26+H26+G26+F26</f>
-        <v>5673</v>
+        <v>8414</v>
       </c>
       <c r="N26" s="3">
         <f>C26+D26+E26</f>
-        <v>7992</v>
+        <v>3336</v>
       </c>
       <c r="O26" s="5">
+        <f>M26*10.7639104</f>
+        <v>90567.542105600005</v>
+      </c>
+      <c r="P26" s="5">
+        <f>N26*10.7639104</f>
+        <v>35908.405094400005</v>
+      </c>
+      <c r="Q26" s="5">
         <f>M26/L26*100</f>
-        <v>41.514818880351264</v>
-      </c>
-      <c r="P26" s="5">
+        <v>71.608510638297872</v>
+      </c>
+      <c r="R26" s="5">
         <f>N26/L26*100</f>
-        <v>58.485181119648729</v>
-      </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="0"/>
-        <v>2287</v>
-      </c>
-      <c r="R26" s="3">
+        <v>28.391489361702128</v>
+      </c>
+      <c r="S26" s="3">
+        <f>F26+I26</f>
+        <v>2493</v>
+      </c>
+      <c r="T26" s="3">
         <f>G26+J26</f>
-        <v>1547</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="2"/>
-        <v>3165</v>
-      </c>
-      <c r="T26" s="5">
-        <f t="shared" si="3"/>
-        <v>34067.776416000001</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="4"/>
-        <v>11826</v>
+        <v>2830</v>
+      </c>
+      <c r="U26" s="3">
+        <f>E26</f>
+        <v>1674</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="5"/>
-        <v>42.431334796800002</v>
-      </c>
-      <c r="W26" s="5">
-        <v>5</v>
+        <f>U26*10.7639104</f>
+        <v>18018.7860096</v>
+      </c>
+      <c r="W26" s="4">
+        <f>D26+E26+F26+G26+I26+J26</f>
+        <v>8659</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="6"/>
-        <v>35.167232978285718</v>
-      </c>
-      <c r="Y26" s="3">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
+        <f>W26*10.7639104/3000</f>
+        <v>31.068233384533332</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>28</v>
+      </c>
+      <c r="Z26" s="5">
+        <f>S26*10.7639104/700</f>
+        <v>38.334898038857141</v>
+      </c>
+      <c r="AA26" s="3">
+        <f>B26</f>
+        <v>31</v>
+      </c>
+      <c r="AB26" s="3">
+        <f>Z26*595</f>
+        <v>22809.264333119998</v>
+      </c>
+      <c r="AC26" s="3">
+        <f>Y26*1000</f>
+        <v>28000</v>
+      </c>
+      <c r="AD26" s="3">
+        <f>AC26+AB26</f>
+        <v>50809.264333119994</v>
+      </c>
+      <c r="AE26" s="3">
+        <f>(T26+S26)*10.7639104</f>
+        <v>57296.295059200005</v>
+      </c>
+      <c r="AF26" s="3">
+        <f>AD26/AE26*100</f>
+        <v>88.67809738940808</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>5514</v>
+        <v>6875</v>
       </c>
       <c r="E27" s="1">
-        <v>4987</v>
+        <v>4919</v>
       </c>
       <c r="F27" s="1">
-        <v>5746</v>
+        <v>2206</v>
       </c>
       <c r="G27" s="1">
-        <v>4537</v>
+        <v>2016</v>
       </c>
       <c r="H27" s="1">
-        <v>3488</v>
+        <v>2185</v>
       </c>
       <c r="I27" s="1">
-        <v>502</v>
+        <v>352</v>
       </c>
       <c r="J27" s="1">
-        <v>704</v>
+        <v>1129</v>
       </c>
       <c r="K27" s="1">
-        <v>605</v>
+        <v>329</v>
       </c>
       <c r="L27" s="3">
         <f>SUM(C27:K27)</f>
-        <v>26083</v>
+        <v>20011</v>
       </c>
       <c r="M27" s="3">
         <f>K27+J27+I27+H27+G27+F27</f>
-        <v>15582</v>
+        <v>8217</v>
       </c>
       <c r="N27" s="3">
         <f>C27+D27+E27</f>
-        <v>10501</v>
+        <v>11794</v>
       </c>
       <c r="O27" s="5">
+        <f>M27*10.7639104</f>
+        <v>88447.051756800007</v>
+      </c>
+      <c r="P27" s="5">
+        <f>N27*10.7639104</f>
+        <v>126949.55925760001</v>
+      </c>
+      <c r="Q27" s="5">
         <f>M27/L27*100</f>
-        <v>59.740060575854002</v>
-      </c>
-      <c r="P27" s="5">
+        <v>41.062415671380741</v>
+      </c>
+      <c r="R27" s="5">
         <f>N27/L27*100</f>
-        <v>40.259939424145998</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="0"/>
-        <v>6248</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" si="1"/>
-        <v>5241</v>
+        <v>58.937584328619266</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="2"/>
-        <v>4987</v>
-      </c>
-      <c r="T27" s="5">
-        <f t="shared" si="3"/>
-        <v>53679.621164800003</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="4"/>
-        <v>21990</v>
+        <f>F27+I27</f>
+        <v>2558</v>
+      </c>
+      <c r="T27" s="3">
+        <f>G27+J27</f>
+        <v>3145</v>
+      </c>
+      <c r="U27" s="3">
+        <f>E27</f>
+        <v>4919</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="5"/>
-        <v>78.899463232000002</v>
-      </c>
-      <c r="W27" s="5">
+        <f>U27*10.7639104</f>
+        <v>52947.6752576</v>
+      </c>
+      <c r="W27" s="4">
+        <f>D27+E27+F27+G27+I27+J27</f>
+        <v>17497</v>
+      </c>
+      <c r="X27" s="5">
+        <f>W27*10.7639104/3000</f>
+        <v>62.778713422933329</v>
+      </c>
+      <c r="Y27" s="5">
+        <f>X27/2</f>
+        <v>31.389356711466665</v>
+      </c>
+      <c r="Z27" s="5">
+        <f>S27*10.7639104/700</f>
+        <v>39.334404004571425</v>
+      </c>
+      <c r="AA27" s="3">
+        <f>B27</f>
+        <v>17</v>
+      </c>
+      <c r="AB27" s="3">
+        <f>Z27*595</f>
+        <v>23403.970382719999</v>
+      </c>
+      <c r="AC27" s="3">
+        <f>Y27*1000</f>
+        <v>31389.356711466666</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>AC27+AB27</f>
+        <v>54793.327094186665</v>
+      </c>
+      <c r="AE27" s="3">
+        <f>(T27+S27)*10.7639104</f>
+        <v>61386.581011200004</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>AD27/AE27*100</f>
+        <v>89.259454088491424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X27" s="5">
-        <f t="shared" si="6"/>
-        <v>96.075588827428589</v>
-      </c>
-      <c r="Y27" s="3">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B28" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>2425</v>
+        <v>5377</v>
       </c>
       <c r="E28" s="1">
-        <v>668</v>
+        <v>5155</v>
       </c>
       <c r="F28" s="1">
-        <v>1649</v>
+        <v>2337</v>
       </c>
       <c r="G28" s="1">
-        <v>1331</v>
+        <v>2308</v>
       </c>
       <c r="H28" s="1">
-        <v>1584</v>
+        <v>1864</v>
       </c>
       <c r="I28" s="1">
-        <v>554</v>
+        <v>298</v>
       </c>
       <c r="J28" s="1">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="K28" s="1">
-        <v>750</v>
+        <v>408</v>
       </c>
       <c r="L28" s="3">
         <f>SUM(C28:K28)</f>
-        <v>9286</v>
+        <v>18272</v>
       </c>
       <c r="M28" s="3">
         <f>K28+J28+I28+H28+G28+F28</f>
-        <v>6193</v>
+        <v>7740</v>
       </c>
       <c r="N28" s="3">
         <f>C28+D28+E28</f>
-        <v>3093</v>
+        <v>10532</v>
       </c>
       <c r="O28" s="5">
+        <f>M28*10.7639104</f>
+        <v>83312.666496000005</v>
+      </c>
+      <c r="P28" s="5">
+        <f>N28*10.7639104</f>
+        <v>113365.5043328</v>
+      </c>
+      <c r="Q28" s="5">
         <f>M28/L28*100</f>
-        <v>66.691794098643115</v>
-      </c>
-      <c r="P28" s="5">
+        <v>42.359894921190893</v>
+      </c>
+      <c r="R28" s="5">
         <f>N28/L28*100</f>
-        <v>33.308205901356878</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="0"/>
-        <v>2203</v>
-      </c>
-      <c r="R28" s="3">
-        <f t="shared" si="1"/>
-        <v>1656</v>
+        <v>57.640105078809114</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="2"/>
-        <v>668</v>
-      </c>
-      <c r="T28" s="5">
-        <f t="shared" si="3"/>
-        <v>7190.2921471999998</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="4"/>
-        <v>6952</v>
+        <f>F28+I28</f>
+        <v>2635</v>
+      </c>
+      <c r="T28" s="3">
+        <f>G28+J28</f>
+        <v>2833</v>
+      </c>
+      <c r="U28" s="3">
+        <f>E28</f>
+        <v>5155</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="5"/>
-        <v>24.943568366933334</v>
-      </c>
-      <c r="W28" s="5">
-        <f>V28*0.4</f>
-        <v>9.9774273467733341</v>
+        <f>U28*10.7639104</f>
+        <v>55487.958112</v>
+      </c>
+      <c r="W28" s="4">
+        <f>D28+E28+F28+G28+I28+J28</f>
+        <v>16000</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="6"/>
-        <v>33.87556373028572</v>
-      </c>
-      <c r="Y28" s="3">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
+        <f>W28*10.7639104/3000</f>
+        <v>57.407522133333337</v>
+      </c>
+      <c r="Y28" s="5">
+        <f>X28/2</f>
+        <v>28.703761066666669</v>
+      </c>
+      <c r="Z28" s="5">
+        <f>S28*10.7639104/700</f>
+        <v>40.51843414857143</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>B28</f>
+        <v>9</v>
+      </c>
+      <c r="AB28" s="3">
+        <f>Z28*595</f>
+        <v>24108.468318400002</v>
+      </c>
+      <c r="AC28" s="3">
+        <f>Y28*1000</f>
+        <v>28703.76106666667</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>AC28+AB28</f>
+        <v>52812.229385066676</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>(T28+S28)*10.7639104</f>
+        <v>58857.0620672</v>
+      </c>
+      <c r="AF28" s="3">
+        <f>AD28/AE28*100</f>
+        <v>89.729639112411618</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>6551</v>
+        <v>548</v>
       </c>
       <c r="E29" s="1">
-        <v>6100</v>
+        <v>616</v>
       </c>
       <c r="F29" s="1">
-        <v>9341</v>
+        <v>192</v>
       </c>
       <c r="G29" s="1">
-        <v>8319</v>
+        <v>65</v>
       </c>
       <c r="H29" s="1">
-        <v>9429</v>
+        <v>850</v>
       </c>
       <c r="I29" s="1">
-        <v>672</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1">
-        <v>1305</v>
+        <v>230</v>
       </c>
       <c r="K29" s="1">
-        <v>1198</v>
+        <v>173</v>
       </c>
       <c r="L29" s="3">
         <f>SUM(C29:K29)</f>
-        <v>42915</v>
+        <v>2705</v>
       </c>
       <c r="M29" s="3">
         <f>K29+J29+I29+H29+G29+F29</f>
-        <v>30264</v>
+        <v>1541</v>
       </c>
       <c r="N29" s="3">
         <f>C29+D29+E29</f>
-        <v>12651</v>
+        <v>1164</v>
       </c>
       <c r="O29" s="5">
+        <f>M29*10.7639104</f>
+        <v>16587.185926400001</v>
+      </c>
+      <c r="P29" s="5">
+        <f>N29*10.7639104</f>
+        <v>12529.1917056</v>
+      </c>
+      <c r="Q29" s="5">
         <f>M29/L29*100</f>
-        <v>70.520796924152393</v>
-      </c>
-      <c r="P29" s="5">
+        <v>56.968576709796672</v>
+      </c>
+      <c r="R29" s="5">
         <f>N29/L29*100</f>
-        <v>29.479203075847604</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="0"/>
-        <v>10013</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="1"/>
-        <v>9624</v>
+        <v>43.031423290203321</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="2"/>
-        <v>6100</v>
-      </c>
-      <c r="T29" s="5">
-        <f t="shared" si="3"/>
-        <v>65659.853440000006</v>
-      </c>
-      <c r="U29" s="4">
-        <f t="shared" si="4"/>
-        <v>32288</v>
+        <f>F29+I29</f>
+        <v>223</v>
+      </c>
+      <c r="T29" s="3">
+        <f>G29+J29</f>
+        <v>295</v>
+      </c>
+      <c r="U29" s="3">
+        <f>E29</f>
+        <v>616</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="5"/>
-        <v>115.84837966506666</v>
-      </c>
-      <c r="W29" s="5">
-        <f>V29*0.6</f>
-        <v>69.509027799039998</v>
+        <f>U29*10.7639104</f>
+        <v>6630.5688064000005</v>
+      </c>
+      <c r="W29" s="4">
+        <f>D29+E29+F29+G29+I29+J29</f>
+        <v>1682</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="6"/>
-        <v>153.97004976457143</v>
-      </c>
-      <c r="Y29" s="3">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
+        <f>W29*10.7639104/3000</f>
+        <v>6.0349657642666665</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="5">
+        <f>S29*10.7639104/700</f>
+        <v>3.4290743131428574</v>
+      </c>
+      <c r="AA29" s="3">
+        <f>B29</f>
+        <v>11</v>
+      </c>
+      <c r="AB29" s="3">
+        <f>Z29*595</f>
+        <v>2040.2992163200001</v>
+      </c>
+      <c r="AC29" s="3">
+        <f>Y29*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="AD29" s="3">
+        <f>AC29+AB29</f>
+        <v>5040.2992163199997</v>
+      </c>
+      <c r="AE29" s="3">
+        <f>(T29+S29)*10.7639104</f>
+        <v>5575.7055872000001</v>
+      </c>
+      <c r="AF29" s="3">
+        <f>AD29/AE29*100</f>
+        <v>90.397513597039293</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>2758</v>
+        <v>1512</v>
       </c>
       <c r="E30" s="1">
-        <v>1567</v>
+        <v>1712</v>
       </c>
       <c r="F30" s="1">
-        <v>4187</v>
+        <v>1746</v>
       </c>
       <c r="G30" s="1">
-        <v>4040</v>
+        <v>1739</v>
       </c>
       <c r="H30" s="1">
-        <v>3870</v>
+        <v>2135</v>
       </c>
       <c r="I30" s="1">
-        <v>379</v>
+        <v>184</v>
       </c>
       <c r="J30" s="1">
-        <v>778</v>
+        <v>143</v>
       </c>
       <c r="K30" s="1">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="L30" s="3">
         <f>SUM(C30:K30)</f>
-        <v>18047</v>
+        <v>9253</v>
       </c>
       <c r="M30" s="3">
         <f>K30+J30+I30+H30+G30+F30</f>
-        <v>13722</v>
+        <v>6029</v>
       </c>
       <c r="N30" s="3">
         <f>C30+D30+E30</f>
-        <v>4325</v>
+        <v>3224</v>
       </c>
       <c r="O30" s="5">
+        <f>M30*10.7639104</f>
+        <v>64895.615801600004</v>
+      </c>
+      <c r="P30" s="5">
+        <f>N30*10.7639104</f>
+        <v>34702.847129599999</v>
+      </c>
+      <c r="Q30" s="5">
         <f>M30/L30*100</f>
-        <v>76.034798027372972</v>
-      </c>
-      <c r="P30" s="5">
+        <v>65.157246298497782</v>
+      </c>
+      <c r="R30" s="5">
         <f>N30/L30*100</f>
-        <v>23.965201972627028</v>
-      </c>
-      <c r="Q30" s="3">
-        <f t="shared" si="0"/>
-        <v>4566</v>
-      </c>
-      <c r="R30" s="3">
-        <f t="shared" si="1"/>
-        <v>4818</v>
+        <v>34.842753701502218</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="2"/>
-        <v>1567</v>
-      </c>
-      <c r="T30" s="5">
-        <f t="shared" si="3"/>
-        <v>16867.047596799999</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" si="4"/>
-        <v>13709</v>
+        <f>F30+I30</f>
+        <v>1930</v>
+      </c>
+      <c r="T30" s="3">
+        <f>G30+J30</f>
+        <v>1882</v>
+      </c>
+      <c r="U30" s="3">
+        <f>E30</f>
+        <v>1712</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="5"/>
-        <v>49.187482557866666</v>
-      </c>
-      <c r="W30" s="5">
-        <f>V30/2</f>
-        <v>24.593741278933333</v>
+        <f>U30*10.7639104</f>
+        <v>18427.814604800002</v>
+      </c>
+      <c r="W30" s="4">
+        <f>D30+E30+F30+G30+I30+J30</f>
+        <v>7036</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="6"/>
-        <v>70.211449837714284</v>
-      </c>
-      <c r="Y30" s="3">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+        <f>W30*10.7639104/3000</f>
+        <v>25.244957858133333</v>
+      </c>
+      <c r="Y30" s="5">
+        <f>X30*0.85</f>
+        <v>21.458214179413332</v>
+      </c>
+      <c r="Z30" s="5">
+        <f>S30*10.7639104/700</f>
+        <v>29.677638674285713</v>
+      </c>
+      <c r="AA30" s="3">
+        <f>B30</f>
+        <v>34</v>
+      </c>
+      <c r="AB30" s="3">
+        <f>Z30*595</f>
+        <v>17658.195011200001</v>
+      </c>
+      <c r="AC30" s="3">
+        <f>Y30*1000</f>
+        <v>21458.214179413331</v>
+      </c>
+      <c r="AD30" s="3">
+        <f>AC30+AB30</f>
+        <v>39116.409190613333</v>
+      </c>
+      <c r="AE30" s="3">
+        <f>(T30+S30)*10.7639104</f>
+        <v>41032.026444800002</v>
+      </c>
+      <c r="AF30" s="3">
+        <f>AD30/AE30*100</f>
+        <v>95.331409583770537</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1296</v>
+        <v>5518</v>
       </c>
       <c r="E31" s="1">
-        <v>1486</v>
+        <v>3258</v>
       </c>
       <c r="F31" s="1">
-        <v>2664</v>
+        <v>3722</v>
       </c>
       <c r="G31" s="1">
-        <v>1962</v>
+        <v>1747</v>
       </c>
       <c r="H31" s="1">
-        <v>2590</v>
+        <v>1457</v>
       </c>
       <c r="I31" s="1">
-        <v>167</v>
+        <v>960</v>
       </c>
       <c r="J31" s="1">
-        <v>281</v>
+        <v>396</v>
       </c>
       <c r="K31" s="1">
-        <v>210</v>
+        <v>655</v>
       </c>
       <c r="L31" s="3">
         <f>SUM(C31:K31)</f>
-        <v>10656</v>
+        <v>17713</v>
       </c>
       <c r="M31" s="3">
         <f>K31+J31+I31+H31+G31+F31</f>
-        <v>7874</v>
+        <v>8937</v>
       </c>
       <c r="N31" s="3">
         <f>C31+D31+E31</f>
-        <v>2782</v>
+        <v>8776</v>
       </c>
       <c r="O31" s="5">
+        <f>M31*10.7639104</f>
+        <v>96197.067244799997</v>
+      </c>
+      <c r="P31" s="5">
+        <f>N31*10.7639104</f>
+        <v>94464.077670400002</v>
+      </c>
+      <c r="Q31" s="5">
         <f>M31/L31*100</f>
-        <v>73.892642642642642</v>
-      </c>
-      <c r="P31" s="5">
+        <v>50.45446846948569</v>
+      </c>
+      <c r="R31" s="5">
         <f>N31/L31*100</f>
-        <v>26.107357357357358</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" si="0"/>
-        <v>2831</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" si="1"/>
-        <v>2243</v>
+        <v>49.545531530514317</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="2"/>
-        <v>1486</v>
-      </c>
-      <c r="T31" s="5">
-        <f t="shared" si="3"/>
-        <v>15995.170854400001</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="4"/>
-        <v>7856</v>
+        <f>F31+I31</f>
+        <v>4682</v>
+      </c>
+      <c r="T31" s="3">
+        <f>G31+J31</f>
+        <v>2143</v>
+      </c>
+      <c r="U31" s="3">
+        <f>E31</f>
+        <v>3258</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="5"/>
-        <v>28.187093367466669</v>
-      </c>
-      <c r="W31" s="5">
-        <f>V31*0.35</f>
-        <v>9.8654826786133345</v>
+        <f>U31*10.7639104</f>
+        <v>35068.8200832</v>
+      </c>
+      <c r="W31" s="4">
+        <f>D31+E31+F31+G31+I31+J31</f>
+        <v>15601</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="6"/>
-        <v>43.532329060571428</v>
-      </c>
-      <c r="Y31" s="3">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+        <f>W31*10.7639104/3000</f>
+        <v>55.975922050133335</v>
+      </c>
+      <c r="Y31" s="5">
+        <f>X31/2</f>
+        <v>27.987961025066667</v>
+      </c>
+      <c r="Z31" s="5">
+        <f>S31*10.7639104/700</f>
+        <v>71.995183561142866</v>
+      </c>
+      <c r="AA31" s="3">
+        <f>B31</f>
+        <v>13</v>
+      </c>
+      <c r="AB31" s="3">
+        <f>Z31*595</f>
+        <v>42837.134218880004</v>
+      </c>
+      <c r="AC31" s="3">
+        <f>Y31*1000</f>
+        <v>27987.961025066666</v>
+      </c>
+      <c r="AD31" s="3">
+        <f>AC31+AB31</f>
+        <v>70825.095243946678</v>
+      </c>
+      <c r="AE31" s="3">
+        <f>(T31+S31)*10.7639104</f>
+        <v>73463.688479999997</v>
+      </c>
+      <c r="AF31" s="3">
+        <f>AD31/AE31*100</f>
+        <v>96.408302808302821</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1662</v>
+        <v>1691</v>
       </c>
       <c r="E32" s="1">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="F32" s="1">
-        <v>2471</v>
+        <v>2086</v>
       </c>
       <c r="G32" s="1">
-        <v>2559</v>
+        <v>2278</v>
       </c>
       <c r="H32" s="1">
-        <v>2915</v>
+        <v>2759</v>
       </c>
       <c r="I32" s="1">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J32" s="1">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="K32" s="1">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="L32" s="3">
         <f>SUM(C32:K32)</f>
-        <v>11750</v>
+        <v>11176</v>
       </c>
       <c r="M32" s="3">
         <f>K32+J32+I32+H32+G32+F32</f>
-        <v>8414</v>
+        <v>7818</v>
       </c>
       <c r="N32" s="3">
         <f>C32+D32+E32</f>
-        <v>3336</v>
+        <v>3358</v>
       </c>
       <c r="O32" s="5">
+        <f>M32*10.7639104</f>
+        <v>84152.25150720001</v>
+      </c>
+      <c r="P32" s="5">
+        <f>N32*10.7639104</f>
+        <v>36145.211123200002</v>
+      </c>
+      <c r="Q32" s="5">
         <f>M32/L32*100</f>
-        <v>71.608510638297872</v>
-      </c>
-      <c r="P32" s="5">
+        <v>69.953471725125269</v>
+      </c>
+      <c r="R32" s="5">
         <f>N32/L32*100</f>
-        <v>28.391489361702128</v>
-      </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="0"/>
-        <v>2493</v>
-      </c>
-      <c r="R32" s="3">
-        <f t="shared" si="1"/>
-        <v>2830</v>
+        <v>30.046528274874735</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="2"/>
-        <v>1674</v>
-      </c>
-      <c r="T32" s="5">
-        <f t="shared" si="3"/>
-        <v>18018.7860096</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="4"/>
-        <v>8659</v>
+        <f>F32+I32</f>
+        <v>2148</v>
+      </c>
+      <c r="T32" s="3">
+        <f>G32+J32</f>
+        <v>2534</v>
+      </c>
+      <c r="U32" s="3">
+        <f>E32</f>
+        <v>1667</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="5"/>
-        <v>31.068233384533332</v>
-      </c>
-      <c r="W32" s="5">
-        <v>28</v>
+        <f>U32*10.7639104</f>
+        <v>17943.438636800001</v>
+      </c>
+      <c r="W32" s="4">
+        <f>D32+E32+F32+G32+I32+J32</f>
+        <v>8040</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="6"/>
-        <v>38.334898038857141</v>
-      </c>
-      <c r="Y32" s="3">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+        <f>W32*10.7639104/3000</f>
+        <v>28.847279871999998</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>29</v>
+      </c>
+      <c r="Z32" s="5">
+        <f>S32*10.7639104/700</f>
+        <v>33.029827913142853</v>
+      </c>
+      <c r="AA32" s="3">
+        <f>B32</f>
+        <v>35</v>
+      </c>
+      <c r="AB32" s="3">
+        <f>Z32*595</f>
+        <v>19652.747608319998</v>
+      </c>
+      <c r="AC32" s="3">
+        <f>Y32*1000</f>
+        <v>29000</v>
+      </c>
+      <c r="AD32" s="3">
+        <f>AC32+AB32</f>
+        <v>48652.747608320002</v>
+      </c>
+      <c r="AE32" s="3">
+        <f>(T32+S32)*10.7639104</f>
+        <v>50396.628492800002</v>
+      </c>
+      <c r="AF32" s="3">
+        <f>AD32/AE32*100</f>
+        <v>96.539687402443704</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>2950</v>
+        <v>3164</v>
       </c>
       <c r="E33" s="1">
-        <v>4118</v>
+        <v>2887</v>
       </c>
       <c r="F33" s="1">
-        <v>8808</v>
+        <v>3153</v>
       </c>
       <c r="G33" s="1">
-        <v>6578</v>
+        <v>2390</v>
       </c>
       <c r="H33" s="1">
-        <v>7229</v>
+        <v>1979</v>
       </c>
       <c r="I33" s="1">
         <v>340</v>
       </c>
       <c r="J33" s="1">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="K33" s="1">
-        <v>284</v>
+        <v>441</v>
       </c>
       <c r="L33" s="3">
         <f>SUM(C33:K33)</f>
-        <v>30907</v>
+        <v>14898</v>
       </c>
       <c r="M33" s="3">
         <f>K33+J33+I33+H33+G33+F33</f>
-        <v>23839</v>
+        <v>8847</v>
       </c>
       <c r="N33" s="3">
         <f>C33+D33+E33</f>
-        <v>7068</v>
+        <v>6051</v>
       </c>
       <c r="O33" s="5">
+        <f>M33*10.7639104</f>
+        <v>95228.315308799996</v>
+      </c>
+      <c r="P33" s="5">
+        <f>N33*10.7639104</f>
+        <v>65132.421830400002</v>
+      </c>
+      <c r="Q33" s="5">
         <f>M33/L33*100</f>
-        <v>77.131394182547638</v>
-      </c>
-      <c r="P33" s="5">
+        <v>59.383809907370122</v>
+      </c>
+      <c r="R33" s="5">
         <f>N33/L33*100</f>
-        <v>22.868605817452355</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="0"/>
-        <v>9148</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" si="1"/>
-        <v>7178</v>
+        <v>40.616190092629886</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="2"/>
-        <v>4118</v>
-      </c>
-      <c r="T33" s="5">
-        <f t="shared" si="3"/>
-        <v>44325.783027199999</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="4"/>
-        <v>23394</v>
+        <f>F33+I33</f>
+        <v>3493</v>
+      </c>
+      <c r="T33" s="3">
+        <f>G33+J33</f>
+        <v>2934</v>
+      </c>
+      <c r="U33" s="3">
+        <f>E33</f>
+        <v>2887</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="5"/>
-        <v>83.936973299200005</v>
-      </c>
-      <c r="W33" s="5">
-        <f>V33*0.2</f>
-        <v>16.78739465984</v>
+        <f>U33*10.7639104</f>
+        <v>31075.409324800003</v>
+      </c>
+      <c r="W33" s="4">
+        <f>D33+E33+F33+G33+I33+J33</f>
+        <v>12478</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" si="6"/>
-        <v>140.66893191314287</v>
-      </c>
-      <c r="Y33" s="3">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
+        <f>W33*10.7639104/3000</f>
+        <v>44.770691323733338</v>
+      </c>
+      <c r="Y33" s="5">
+        <f>X33*0.8</f>
+        <v>35.816553058986671</v>
+      </c>
+      <c r="Z33" s="5">
+        <f>S33*10.7639104/700</f>
+        <v>53.711912896000008</v>
+      </c>
+      <c r="AA33" s="3">
+        <f>B33</f>
+        <v>15</v>
+      </c>
+      <c r="AB33" s="3">
+        <f>Z33*595</f>
+        <v>31958.588173120006</v>
+      </c>
+      <c r="AC33" s="3">
+        <f>Y33*1000</f>
+        <v>35816.553058986668</v>
+      </c>
+      <c r="AD33" s="3">
+        <f>AC33+AB33</f>
+        <v>67775.141232106675</v>
+      </c>
+      <c r="AE33" s="3">
+        <f>(T33+S33)*10.7639104</f>
+        <v>69179.652140799997</v>
+      </c>
+      <c r="AF33" s="3">
+        <f>AD33/AE33*100</f>
+        <v>97.969762979098604</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>1379</v>
+        <v>1246</v>
       </c>
       <c r="E34" s="1">
-        <v>780</v>
+        <v>657</v>
       </c>
       <c r="F34" s="1">
-        <v>3193</v>
+        <v>2944</v>
       </c>
       <c r="G34" s="1">
-        <v>2979</v>
+        <v>1415</v>
       </c>
       <c r="H34" s="1">
-        <v>3686</v>
+        <v>2024</v>
       </c>
       <c r="I34" s="1">
-        <v>297</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1">
-        <v>533</v>
+        <v>60</v>
       </c>
       <c r="K34" s="1">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="L34" s="3">
         <f>SUM(C34:K34)</f>
-        <v>12927</v>
+        <v>8715</v>
       </c>
       <c r="M34" s="3">
         <f>K34+J34+I34+H34+G34+F34</f>
-        <v>10768</v>
+        <v>6812</v>
       </c>
       <c r="N34" s="3">
         <f>C34+D34+E34</f>
-        <v>2159</v>
+        <v>1903</v>
       </c>
       <c r="O34" s="5">
+        <f>M34*10.7639104</f>
+        <v>73323.757644800004</v>
+      </c>
+      <c r="P34" s="5">
+        <f>N34*10.7639104</f>
+        <v>20483.721491200002</v>
+      </c>
+      <c r="Q34" s="5">
         <f>M34/L34*100</f>
-        <v>83.2985224723447</v>
-      </c>
-      <c r="P34" s="5">
+        <v>78.164084911072862</v>
+      </c>
+      <c r="R34" s="5">
         <f>N34/L34*100</f>
-        <v>16.701477527655296</v>
-      </c>
-      <c r="Q34" s="3">
-        <f t="shared" si="0"/>
-        <v>3490</v>
-      </c>
-      <c r="R34" s="3">
-        <f t="shared" si="1"/>
-        <v>3512</v>
+        <v>21.835915088927138</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="2"/>
-        <v>780</v>
-      </c>
-      <c r="T34" s="5">
-        <f t="shared" si="3"/>
-        <v>8395.8501120000001</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" si="4"/>
-        <v>9161</v>
+        <f>F34+I34</f>
+        <v>2974</v>
+      </c>
+      <c r="T34" s="3">
+        <f>G34+J34</f>
+        <v>1475</v>
+      </c>
+      <c r="U34" s="3">
+        <f>E34</f>
+        <v>657</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="5"/>
-        <v>32.86939439146667</v>
-      </c>
-      <c r="W34" s="5">
-        <f>V34*0.65</f>
-        <v>21.365106354453335</v>
+        <f>U34*10.7639104</f>
+        <v>7071.8891328</v>
+      </c>
+      <c r="W34" s="4">
+        <f>D34+E34+F34+G34+I34+J34</f>
+        <v>6352</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="6"/>
-        <v>53.665781851428576</v>
-      </c>
-      <c r="Y34" s="3">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
+        <f>W34*10.7639104/3000</f>
+        <v>22.790786286933333</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z34" s="5">
+        <f>S34*10.7639104/700</f>
+        <v>45.731242185142861</v>
+      </c>
+      <c r="AA34" s="3">
+        <f>B34</f>
+        <v>19</v>
+      </c>
+      <c r="AB34" s="3">
+        <f>Z34*595</f>
+        <v>27210.089100160003</v>
+      </c>
+      <c r="AC34" s="3">
+        <f>Y34*1000</f>
+        <v>20000</v>
+      </c>
+      <c r="AD34" s="3">
+        <f>AC34+AB34</f>
+        <v>47210.089100160003</v>
+      </c>
+      <c r="AE34" s="3">
+        <f>(T34+S34)*10.7639104</f>
+        <v>47888.637369600001</v>
+      </c>
+      <c r="AF34" s="3">
+        <f>AD34/AE34*100</f>
+        <v>98.583070417721373</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="D35" s="1">
-        <v>1512</v>
+        <v>15232</v>
       </c>
       <c r="E35" s="1">
-        <v>1712</v>
+        <v>12035</v>
       </c>
       <c r="F35" s="1">
-        <v>1746</v>
+        <v>11196</v>
       </c>
       <c r="G35" s="1">
-        <v>1739</v>
+        <v>8164</v>
       </c>
       <c r="H35" s="1">
-        <v>2135</v>
+        <v>5866</v>
       </c>
       <c r="I35" s="1">
-        <v>184</v>
+        <v>2193</v>
       </c>
       <c r="J35" s="1">
-        <v>143</v>
+        <v>1400</v>
       </c>
       <c r="K35" s="1">
-        <v>82</v>
+        <v>2522</v>
       </c>
       <c r="L35" s="3">
         <f>SUM(C35:K35)</f>
-        <v>9253</v>
+        <v>60358</v>
       </c>
       <c r="M35" s="3">
         <f>K35+J35+I35+H35+G35+F35</f>
-        <v>6029</v>
+        <v>31341</v>
       </c>
       <c r="N35" s="3">
         <f>C35+D35+E35</f>
-        <v>3224</v>
+        <v>29017</v>
       </c>
       <c r="O35" s="5">
+        <f>M35*10.7639104</f>
+        <v>337351.71584640001</v>
+      </c>
+      <c r="P35" s="5">
+        <f>N35*10.7639104</f>
+        <v>312336.38807680004</v>
+      </c>
+      <c r="Q35" s="5">
         <f>M35/L35*100</f>
-        <v>65.157246298497782</v>
-      </c>
-      <c r="P35" s="5">
+        <v>51.925179760760798</v>
+      </c>
+      <c r="R35" s="5">
         <f>N35/L35*100</f>
-        <v>34.842753701502218</v>
-      </c>
-      <c r="Q35" s="3">
-        <f t="shared" si="0"/>
-        <v>1930</v>
-      </c>
-      <c r="R35" s="3">
+        <v>48.074820239239209</v>
+      </c>
+      <c r="S35" s="3">
+        <f>F35+I35</f>
+        <v>13389</v>
+      </c>
+      <c r="T35" s="3">
         <f>G35+J35</f>
-        <v>1882</v>
-      </c>
-      <c r="S35" s="3">
-        <f t="shared" si="2"/>
-        <v>1712</v>
-      </c>
-      <c r="T35" s="5">
-        <f t="shared" si="3"/>
-        <v>18427.814604800002</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="4"/>
-        <v>7036</v>
+        <v>9564</v>
+      </c>
+      <c r="U35" s="3">
+        <f>E35</f>
+        <v>12035</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="5"/>
-        <v>25.244957858133333</v>
-      </c>
-      <c r="W35" s="5">
-        <f>V35*0.85</f>
-        <v>21.458214179413332</v>
+        <f>U35*10.7639104</f>
+        <v>129543.661664</v>
+      </c>
+      <c r="W35" s="4">
+        <f>D35+E35+F35+G35+I35+J35</f>
+        <v>50220</v>
       </c>
       <c r="X35" s="5">
-        <f t="shared" si="6"/>
-        <v>29.677638674285713</v>
-      </c>
-      <c r="Y35" s="3">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
+        <f>W35*10.7639104/3000</f>
+        <v>180.18786009600001</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>130</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>180</v>
+      </c>
+      <c r="AA35" s="3">
+        <f>B35</f>
+        <v>14</v>
+      </c>
+      <c r="AB35" s="3">
+        <f>Z35*595</f>
+        <v>107100</v>
+      </c>
+      <c r="AC35" s="3">
+        <f>Y35*1000</f>
+        <v>130000</v>
+      </c>
+      <c r="AD35" s="3">
+        <f>AC35+AB35</f>
+        <v>237100</v>
+      </c>
+      <c r="AE35" s="3">
+        <f>(T35+S35)*10.7639104</f>
+        <v>247064.03541120002</v>
+      </c>
+      <c r="AF35" s="3">
+        <f>AD35/AE35*100</f>
+        <v>95.967023126366229</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>1691</v>
+        <v>14120</v>
       </c>
       <c r="E36" s="1">
+        <v>5968</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8404</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6853</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6277</v>
+      </c>
+      <c r="I36" s="1">
         <v>1667</v>
       </c>
-      <c r="F36" s="1">
-        <v>2086</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2278</v>
-      </c>
-      <c r="H36" s="1">
-        <v>2759</v>
-      </c>
-      <c r="I36" s="1">
-        <v>62</v>
-      </c>
       <c r="J36" s="1">
-        <v>256</v>
+        <v>906</v>
       </c>
       <c r="K36" s="1">
-        <v>377</v>
+        <v>2513</v>
       </c>
       <c r="L36" s="3">
         <f>SUM(C36:K36)</f>
-        <v>11176</v>
+        <v>46708</v>
       </c>
       <c r="M36" s="3">
         <f>K36+J36+I36+H36+G36+F36</f>
-        <v>7818</v>
+        <v>26620</v>
       </c>
       <c r="N36" s="3">
         <f>C36+D36+E36</f>
-        <v>3358</v>
+        <v>20088</v>
       </c>
       <c r="O36" s="5">
+        <f>M36*10.7639104</f>
+        <v>286535.29484799999</v>
+      </c>
+      <c r="P36" s="5">
+        <f>N36*10.7639104</f>
+        <v>216225.4321152</v>
+      </c>
+      <c r="Q36" s="5">
         <f>M36/L36*100</f>
-        <v>69.953471725125269</v>
-      </c>
-      <c r="P36" s="5">
+        <v>56.992378179326884</v>
+      </c>
+      <c r="R36" s="5">
         <f>N36/L36*100</f>
-        <v>30.046528274874735</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="0"/>
-        <v>2148</v>
-      </c>
-      <c r="R36" s="3">
-        <f t="shared" si="1"/>
-        <v>2534</v>
+        <v>43.007621820673123</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="2"/>
-        <v>1667</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" si="3"/>
-        <v>17943.438636800001</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="4"/>
-        <v>8040</v>
+        <f>F36+I36</f>
+        <v>10071</v>
+      </c>
+      <c r="T36" s="3">
+        <f>G36+J36</f>
+        <v>7759</v>
+      </c>
+      <c r="U36" s="3">
+        <f>E36</f>
+        <v>5968</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="5"/>
-        <v>28.847279871999998</v>
-      </c>
-      <c r="W36" s="5">
-        <v>29</v>
+        <f>U36*10.7639104</f>
+        <v>64239.017267200004</v>
+      </c>
+      <c r="W36" s="4">
+        <f>D36+E36+F36+G36+I36+J36</f>
+        <v>37918</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" si="6"/>
-        <v>33.029827913142853</v>
-      </c>
-      <c r="Y36" s="3">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
+        <f>W36*10.7639104/3000</f>
+        <v>136.04865151573333</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>100</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>140</v>
+      </c>
+      <c r="AA36" s="3">
+        <f>B36</f>
+        <v>20</v>
+      </c>
+      <c r="AB36" s="3">
+        <f>Z36*595</f>
+        <v>83300</v>
+      </c>
+      <c r="AC36" s="3">
+        <f>Y36*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="AD36" s="3">
+        <f>AC36+AB36</f>
+        <v>183300</v>
+      </c>
+      <c r="AE36" s="3">
+        <f>(T36+S36)*10.7639104</f>
+        <v>191920.522432</v>
+      </c>
+      <c r="AF36" s="3">
+        <f>AD36/AE36*100</f>
+        <v>95.508285240806202</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>1236</v>
+        <v>5059</v>
       </c>
       <c r="E37" s="1">
-        <v>1687</v>
+        <v>16069</v>
       </c>
       <c r="F37" s="1">
-        <v>1084</v>
+        <v>6652</v>
       </c>
       <c r="G37" s="1">
-        <v>949</v>
+        <v>7735</v>
       </c>
       <c r="H37" s="1">
-        <v>494</v>
+        <v>11041</v>
       </c>
       <c r="I37" s="1">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="J37" s="1">
-        <v>84</v>
+        <v>531</v>
       </c>
       <c r="K37" s="1">
-        <v>128</v>
+        <v>856</v>
       </c>
       <c r="L37" s="3">
         <f>SUM(C37:K37)</f>
-        <v>5797</v>
+        <v>48325</v>
       </c>
       <c r="M37" s="3">
         <f>K37+J37+I37+H37+G37+F37</f>
-        <v>2874</v>
+        <v>27197</v>
       </c>
       <c r="N37" s="3">
         <f>C37+D37+E37</f>
-        <v>2923</v>
+        <v>21128</v>
       </c>
       <c r="O37" s="5">
+        <f>M37*10.7639104</f>
+        <v>292746.07114880002</v>
+      </c>
+      <c r="P37" s="5">
+        <f>N37*10.7639104</f>
+        <v>227419.8989312</v>
+      </c>
+      <c r="Q37" s="5">
         <f>M37/L37*100</f>
-        <v>49.57736760393307</v>
-      </c>
-      <c r="P37" s="5">
+        <v>56.279358510087953</v>
+      </c>
+      <c r="R37" s="5">
         <f>N37/L37*100</f>
-        <v>50.422632396066938</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="0"/>
-        <v>1219</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="1"/>
-        <v>1033</v>
+        <v>43.720641489912055</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="2"/>
+        <f>F37+I37</f>
+        <v>7034</v>
+      </c>
+      <c r="T37" s="3">
+        <f>G37+J37</f>
+        <v>8266</v>
+      </c>
+      <c r="U37" s="3">
+        <f>E37</f>
+        <v>16069</v>
+      </c>
+      <c r="V37" s="5">
+        <f>U37*10.7639104</f>
+        <v>172965.27621760001</v>
+      </c>
+      <c r="W37" s="4">
+        <f>D37+E37+F37+G37+I37+J37</f>
+        <v>36428</v>
+      </c>
+      <c r="X37" s="5">
+        <f>W37*10.7639104/3000</f>
+        <v>130.70257601706666</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>100</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>S37*10.7639104/700</f>
+        <v>108.16192250514287</v>
+      </c>
+      <c r="AA37" s="3">
+        <f>B37</f>
+        <v>39</v>
+      </c>
+      <c r="AB37" s="3">
+        <f>Z37*595</f>
+        <v>64356.343890560005</v>
+      </c>
+      <c r="AC37" s="3">
+        <f>Y37*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="AD37" s="3">
+        <f>AC37+AB37</f>
+        <v>164356.34389056001</v>
+      </c>
+      <c r="AE37" s="3">
+        <f>(T37+S37)*10.7639104</f>
+        <v>164687.82912000001</v>
+      </c>
+      <c r="AF37" s="3">
+        <f>AD37/AE37*100</f>
+        <v>99.798719048510577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1236</v>
+      </c>
+      <c r="E38" s="1">
         <v>1687</v>
       </c>
-      <c r="T37" s="5">
-        <f t="shared" si="3"/>
-        <v>18158.716844800001</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" si="4"/>
-        <v>5175</v>
-      </c>
-      <c r="V37" s="5">
-        <f t="shared" si="5"/>
-        <v>18.567745439999999</v>
-      </c>
-      <c r="W37" s="5">
-        <v>19</v>
-      </c>
-      <c r="X37" s="5">
-        <f t="shared" si="6"/>
-        <v>18.744581110857144</v>
-      </c>
-      <c r="Y37" s="3">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>853</v>
-      </c>
-      <c r="E38" s="1">
-        <v>828</v>
-      </c>
       <c r="F38" s="1">
-        <v>1686</v>
+        <v>1084</v>
       </c>
       <c r="G38" s="1">
-        <v>1857</v>
+        <v>949</v>
       </c>
       <c r="H38" s="1">
-        <v>2020</v>
+        <v>494</v>
       </c>
       <c r="I38" s="1">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="J38" s="1">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="K38" s="1">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="L38" s="3">
         <f>SUM(C38:K38)</f>
-        <v>7587</v>
+        <v>5797</v>
       </c>
       <c r="M38" s="3">
         <f>K38+J38+I38+H38+G38+F38</f>
-        <v>5906</v>
+        <v>2874</v>
       </c>
       <c r="N38" s="3">
         <f>C38+D38+E38</f>
-        <v>1681</v>
+        <v>2923</v>
       </c>
       <c r="O38" s="5">
+        <f>M38*10.7639104</f>
+        <v>30935.478489600002</v>
+      </c>
+      <c r="P38" s="5">
+        <f>N38*10.7639104</f>
+        <v>31462.910099200002</v>
+      </c>
+      <c r="Q38" s="5">
         <f>M38/L38*100</f>
-        <v>77.843679978911297</v>
-      </c>
-      <c r="P38" s="5">
+        <v>49.57736760393307</v>
+      </c>
+      <c r="R38" s="5">
         <f>N38/L38*100</f>
-        <v>22.156320021088703</v>
-      </c>
-      <c r="Q38" s="3">
-        <f t="shared" si="0"/>
-        <v>1746</v>
-      </c>
-      <c r="R38" s="3">
-        <f t="shared" si="1"/>
-        <v>1962</v>
+        <v>50.422632396066938</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="2"/>
-        <v>828</v>
-      </c>
-      <c r="T38" s="5">
-        <f t="shared" si="3"/>
-        <v>8912.5178111999994</v>
-      </c>
-      <c r="U38" s="4">
-        <f t="shared" si="4"/>
-        <v>5389</v>
+        <f>F38+I38</f>
+        <v>1219</v>
+      </c>
+      <c r="T38" s="3">
+        <f>G38+J38</f>
+        <v>1033</v>
+      </c>
+      <c r="U38" s="3">
+        <f>E38</f>
+        <v>1687</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="5"/>
-        <v>19.335571048533332</v>
-      </c>
-      <c r="W38" s="5">
+        <f>U38*10.7639104</f>
+        <v>18158.716844800001</v>
+      </c>
+      <c r="W38" s="4">
+        <f>D38+E38+F38+G38+I38+J38</f>
+        <v>5175</v>
+      </c>
+      <c r="X38" s="5">
+        <f>W38*10.7639104/3000</f>
+        <v>18.567745439999999</v>
+      </c>
+      <c r="Y38" s="5">
         <v>19</v>
       </c>
-      <c r="X38" s="5">
-        <f t="shared" si="6"/>
-        <v>26.848267940571429</v>
-      </c>
-      <c r="Y38" s="3">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
+      <c r="Z38" s="5">
+        <f>S38*10.7639104/700</f>
+        <v>18.744581110857144</v>
+      </c>
+      <c r="AA38" s="3">
+        <f>B38</f>
+        <v>36</v>
+      </c>
+      <c r="AB38" s="3">
+        <f>Z38*595</f>
+        <v>11153.025760960001</v>
+      </c>
+      <c r="AC38" s="3">
+        <f>Y38*1000</f>
+        <v>19000</v>
+      </c>
+      <c r="AD38" s="3">
+        <f>AC38+AB38</f>
+        <v>30153.025760960001</v>
+      </c>
+      <c r="AE38" s="3">
+        <f>(T38+S38)*10.7639104</f>
+        <v>24240.326220800001</v>
+      </c>
+      <c r="AF38" s="3">
+        <f>AD38/AE38*100</f>
+        <v>124.39199656928075</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>1881</v>
+        <v>3587</v>
       </c>
       <c r="E39" s="1">
-        <v>2828</v>
+        <v>1182</v>
       </c>
       <c r="F39" s="1">
-        <v>2753</v>
+        <v>1361</v>
       </c>
       <c r="G39" s="1">
-        <v>5774</v>
+        <v>615</v>
       </c>
       <c r="H39" s="1">
-        <v>3720</v>
+        <v>2252</v>
       </c>
       <c r="I39" s="1">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="J39" s="1">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="K39" s="1">
-        <v>349</v>
+        <v>1070</v>
       </c>
       <c r="L39" s="3">
         <f>SUM(C39:K39)</f>
-        <v>17666</v>
+        <v>10592</v>
       </c>
       <c r="M39" s="3">
         <f>K39+J39+I39+H39+G39+F39</f>
-        <v>12957</v>
+        <v>5823</v>
       </c>
       <c r="N39" s="3">
         <f>C39+D39+E39</f>
-        <v>4709</v>
+        <v>4769</v>
       </c>
       <c r="O39" s="5">
+        <f>M39*10.7639104</f>
+        <v>62678.250259200002</v>
+      </c>
+      <c r="P39" s="5">
+        <f>N39*10.7639104</f>
+        <v>51333.088697600004</v>
+      </c>
+      <c r="Q39" s="5">
         <f>M39/L39*100</f>
-        <v>73.34427714253367</v>
-      </c>
-      <c r="P39" s="5">
+        <v>54.975453172205434</v>
+      </c>
+      <c r="R39" s="5">
         <f>N39/L39*100</f>
-        <v>26.655722857466319</v>
-      </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="0"/>
-        <v>2957</v>
-      </c>
-      <c r="R39" s="3">
-        <f t="shared" si="1"/>
-        <v>5931</v>
+        <v>45.024546827794559</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="2"/>
-        <v>2828</v>
-      </c>
-      <c r="T39" s="5">
-        <f t="shared" si="3"/>
-        <v>30440.338611200001</v>
-      </c>
-      <c r="U39" s="4">
-        <f t="shared" si="4"/>
-        <v>13597</v>
+        <f>F39+I39</f>
+        <v>1693</v>
+      </c>
+      <c r="T39" s="3">
+        <f>G39+J39</f>
+        <v>808</v>
+      </c>
+      <c r="U39" s="3">
+        <f>E39</f>
+        <v>1182</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="5"/>
-        <v>48.785629902933337</v>
-      </c>
-      <c r="W39" s="5">
-        <v>25</v>
+        <f>U39*10.7639104</f>
+        <v>12722.9420928</v>
+      </c>
+      <c r="W39" s="4">
+        <f>D39+E39+F39+G39+I39+J39</f>
+        <v>7270</v>
       </c>
       <c r="X39" s="5">
-        <f t="shared" si="6"/>
-        <v>45.469832932571428</v>
-      </c>
-      <c r="Y39" s="3">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
+        <f>W39*10.7639104/3000</f>
+        <v>26.084542869333333</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>17</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA39" s="3">
+        <f>B39</f>
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3">
+        <f>Z39*595</f>
+        <v>8925</v>
+      </c>
+      <c r="AC39" s="3">
+        <f>Y39*1000</f>
+        <v>17000</v>
+      </c>
+      <c r="AD39" s="3">
+        <f>AC39+AB39</f>
+        <v>25925</v>
+      </c>
+      <c r="AE39" s="3">
+        <f>(T39+S39)*10.7639104</f>
+        <v>26920.539910400003</v>
+      </c>
+      <c r="AF39" s="3">
+        <f>AD39/AE39*100</f>
+        <v>96.301931856814633</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>5059</v>
+        <v>7861</v>
       </c>
       <c r="E40" s="1">
-        <v>16069</v>
+        <v>3021</v>
       </c>
       <c r="F40" s="1">
-        <v>6652</v>
+        <v>3913</v>
       </c>
       <c r="G40" s="1">
-        <v>7735</v>
+        <v>1197</v>
       </c>
       <c r="H40" s="1">
-        <v>11041</v>
+        <v>2289</v>
       </c>
       <c r="I40" s="1">
-        <v>382</v>
+        <v>649</v>
       </c>
       <c r="J40" s="1">
-        <v>531</v>
+        <v>636</v>
       </c>
       <c r="K40" s="1">
-        <v>856</v>
+        <v>1927</v>
       </c>
       <c r="L40" s="3">
         <f>SUM(C40:K40)</f>
-        <v>48325</v>
+        <v>21493</v>
       </c>
       <c r="M40" s="3">
         <f>K40+J40+I40+H40+G40+F40</f>
-        <v>27197</v>
+        <v>10611</v>
       </c>
       <c r="N40" s="3">
         <f>C40+D40+E40</f>
-        <v>21128</v>
+        <v>10882</v>
       </c>
       <c r="O40" s="5">
+        <f>M40*10.7639104</f>
+        <v>114215.8532544</v>
+      </c>
+      <c r="P40" s="5">
+        <f>N40*10.7639104</f>
+        <v>117132.8729728</v>
+      </c>
+      <c r="Q40" s="5">
         <f>M40/L40*100</f>
-        <v>56.279358510087953</v>
-      </c>
-      <c r="P40" s="5">
+        <v>49.369562183036336</v>
+      </c>
+      <c r="R40" s="5">
         <f>N40/L40*100</f>
-        <v>43.720641489912055</v>
-      </c>
-      <c r="Q40" s="3">
-        <f t="shared" si="0"/>
-        <v>7034</v>
-      </c>
-      <c r="R40" s="3">
-        <f t="shared" si="1"/>
-        <v>8266</v>
+        <v>50.630437816963656</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="2"/>
-        <v>16069</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="3"/>
-        <v>172965.27621760001</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" si="4"/>
-        <v>36428</v>
+        <f>F40+I40</f>
+        <v>4562</v>
+      </c>
+      <c r="T40" s="3">
+        <f>G40+J40</f>
+        <v>1833</v>
+      </c>
+      <c r="U40" s="3">
+        <f>E40</f>
+        <v>3021</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="5"/>
-        <v>130.70257601706666</v>
-      </c>
-      <c r="W40" s="5">
-        <v>131</v>
+        <f>U40*10.7639104</f>
+        <v>32517.773318400003</v>
+      </c>
+      <c r="W40" s="4">
+        <f>D40+E40+F40+G40+I40+J40</f>
+        <v>17277</v>
       </c>
       <c r="X40" s="5">
-        <f t="shared" si="6"/>
-        <v>108.16192250514287</v>
-      </c>
-      <c r="Y40" s="3">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
+        <f>W40*10.7639104/3000</f>
+        <v>61.989359993600004</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>35</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>55</v>
+      </c>
+      <c r="AA40" s="3">
+        <f>B40</f>
+        <v>12</v>
+      </c>
+      <c r="AB40" s="3">
+        <f>Z40*595</f>
+        <v>32725</v>
+      </c>
+      <c r="AC40" s="3">
+        <f>Y40*1000</f>
+        <v>35000</v>
+      </c>
+      <c r="AD40" s="3">
+        <f>AC40+AB40</f>
+        <v>67725</v>
+      </c>
+      <c r="AE40" s="3">
+        <f>(T40+S40)*10.7639104</f>
+        <v>68835.207007999998</v>
+      </c>
+      <c r="AF40" s="3">
+        <f>AD40/AE40*100</f>
+        <v>98.387152365400794</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{E6ED4D1B-D86F-42A9-8609-27B9E315963A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P40">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:AF1" xr:uid="{E6ED4D1B-D86F-42A9-8609-27B9E315963A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF40">
+      <sortCondition ref="AF1"/>
     </sortState>
   </autoFilter>
   <printOptions horizontalCentered="1"/>

--- a/raster_cells_per_sub.xlsx
+++ b/raster_cells_per_sub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive - University of Virginia\StreamLit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A2F7D2-65C0-4476-B45B-4C62429691C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D2EDF6-5DAB-43A9-9BF3-5E70347EB671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11160" windowHeight="15585" xr2:uid="{97454CBC-327E-48EE-B8D6-214EE2D65EB7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{97454CBC-327E-48EE-B8D6-214EE2D65EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabulat_Subcatc2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>NAME</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Max_RG_DEM_Considered</t>
+  </si>
+  <si>
+    <t>Percent_Imp_to_perv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average </t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -288,6 +294,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,27 +634,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3"/>
-    <col min="2" max="2" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6" style="3" customWidth="1"/>
-    <col min="4" max="19" width="10.85546875" style="3"/>
-    <col min="20" max="20" width="10.85546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="3"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" customWidth="1"/>
-    <col min="26" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="10.81640625" style="3"/>
+    <col min="2" max="2" width="9.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="3" customWidth="1"/>
+    <col min="5" max="19" width="10.81640625" style="3"/>
+    <col min="20" max="20" width="10.81640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" style="3"/>
+    <col min="24" max="24" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" customWidth="1"/>
+    <col min="26" max="26" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,8 +732,11 @@
       <c r="Y1" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="Z1" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,11 +775,11 @@
         <v>10592</v>
       </c>
       <c r="M2" s="3">
-        <f>K2+J2+I2+H2+G2+F2</f>
+        <f t="shared" ref="M2:M40" si="0">K2+J2+I2+H2+G2+F2</f>
         <v>5823</v>
       </c>
       <c r="N2" s="3">
-        <f>C2+D2+E2</f>
+        <f t="shared" ref="N2:N40" si="1">C2+D2+E2</f>
         <v>4769</v>
       </c>
       <c r="O2" s="5">
@@ -773,7 +787,7 @@
         <v>62678.250259200002</v>
       </c>
       <c r="P2" s="5">
-        <f>N2*10.7639104</f>
+        <f t="shared" ref="P2:P40" si="2">N2*10.7639104</f>
         <v>51333.088697600004</v>
       </c>
       <c r="Q2" s="5">
@@ -793,28 +807,31 @@
         <v>18223.300307199999</v>
       </c>
       <c r="U2" s="7">
-        <f>T2/600</f>
-        <v>30.372167178666665</v>
+        <f>T2/300</f>
+        <v>60.744334357333329</v>
       </c>
       <c r="V2" s="3">
-        <f>E2</f>
+        <f t="shared" ref="V2:V40" si="3">E2</f>
         <v>1182</v>
       </c>
       <c r="W2" s="5">
-        <f>V2*10.7639104</f>
+        <f t="shared" ref="W2:W39" si="4">V2*10.7639104</f>
         <v>12722.9420928</v>
       </c>
       <c r="X2" s="7">
-        <f>W2/1000</f>
-        <v>12.7229420928</v>
+        <f>W2/500</f>
+        <v>25.445884185600001</v>
       </c>
       <c r="Y2" s="7">
         <f>X2*0.6</f>
-        <v>7.6337652556800002</v>
-      </c>
-      <c r="Z2" s="1"/>
+        <v>15.26753051136</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>T2/O2*100</f>
+        <v>29.074360295380387</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -849,64 +866,67 @@
         <v>250</v>
       </c>
       <c r="L3" s="3">
-        <f>SUM(C3:K3)</f>
+        <f t="shared" ref="L3:L13" si="5">SUM(C3:K3)</f>
         <v>19452</v>
       </c>
       <c r="M3" s="3">
-        <f>K3+J3+I3+H3+G3+F3</f>
+        <f t="shared" si="0"/>
         <v>12410</v>
       </c>
       <c r="N3" s="3">
-        <f>C3+D3+E3</f>
+        <f t="shared" si="1"/>
         <v>7042</v>
       </c>
       <c r="O3" s="5">
-        <f>M3*10.7639104</f>
+        <f t="shared" ref="O3:O40" si="6">M3*10.7639104</f>
         <v>133580.12806399999</v>
       </c>
       <c r="P3" s="5">
-        <f>N3*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>75799.457036799999</v>
       </c>
       <c r="Q3" s="5">
-        <f>M3/L3*100</f>
+        <f t="shared" ref="Q3:Q40" si="7">M3/L3*100</f>
         <v>63.798067036808561</v>
       </c>
       <c r="R3" s="5">
-        <f>N3/L3*100</f>
+        <f t="shared" ref="R3:R40" si="8">N3/L3*100</f>
         <v>36.201932963191446</v>
       </c>
       <c r="S3" s="3">
-        <f>F3+I3</f>
+        <f t="shared" ref="S3:S40" si="9">F3+I3</f>
         <v>3929</v>
       </c>
       <c r="T3" s="3">
-        <f>S3*10.7639104</f>
+        <f t="shared" ref="T3:T40" si="10">S3*10.7639104</f>
         <v>42291.403961600001</v>
       </c>
       <c r="U3" s="7">
-        <f>T3/600</f>
-        <v>70.485673269333333</v>
+        <f t="shared" ref="U3:U40" si="11">T3/300</f>
+        <v>140.97134653866667</v>
       </c>
       <c r="V3" s="3">
-        <f>E3</f>
+        <f t="shared" si="3"/>
         <v>2381</v>
       </c>
       <c r="W3" s="5">
-        <f>V3*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>25628.870662400001</v>
       </c>
       <c r="X3" s="7">
-        <f>W3/1000</f>
-        <v>25.628870662400001</v>
+        <f t="shared" ref="X3:X40" si="12">W3/500</f>
+        <v>51.257741324800001</v>
       </c>
       <c r="Y3" s="7">
         <f>X3*0.3</f>
-        <v>7.6886611987200002</v>
-      </c>
-      <c r="Z3" s="1"/>
+        <v>15.37732239744</v>
+      </c>
+      <c r="Z3" s="8">
+        <f t="shared" ref="Z3:Z40" si="13">T3/O3*100</f>
+        <v>31.659951651893635</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,64 +961,67 @@
         <v>64</v>
       </c>
       <c r="L4" s="3">
-        <f>SUM(C4:K4)</f>
+        <f t="shared" si="5"/>
         <v>11295</v>
       </c>
       <c r="M4" s="3">
-        <f>K4+J4+I4+H4+G4+F4</f>
+        <f t="shared" si="0"/>
         <v>8077</v>
       </c>
       <c r="N4" s="3">
-        <f>C4+D4+E4</f>
+        <f t="shared" si="1"/>
         <v>3218</v>
       </c>
       <c r="O4" s="5">
-        <f>M4*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>86940.104300799998</v>
       </c>
       <c r="P4" s="5">
-        <f>N4*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>34638.263667200001</v>
       </c>
       <c r="Q4" s="5">
-        <f>M4/L4*100</f>
+        <f t="shared" si="7"/>
         <v>71.509517485613102</v>
       </c>
       <c r="R4" s="5">
-        <f>N4/L4*100</f>
+        <f t="shared" si="8"/>
         <v>28.490482514386894</v>
       </c>
       <c r="S4" s="3">
-        <f>F4+I4</f>
+        <f t="shared" si="9"/>
         <v>1152</v>
       </c>
       <c r="T4" s="3">
-        <f>S4*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>12400.0247808</v>
       </c>
       <c r="U4" s="7">
-        <f>T4/600</f>
-        <v>20.666707968000001</v>
+        <f t="shared" si="11"/>
+        <v>41.333415936000002</v>
       </c>
       <c r="V4" s="3">
-        <f>E4</f>
+        <f t="shared" si="3"/>
         <v>2335</v>
       </c>
       <c r="W4" s="5">
-        <f>V4*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>25133.730783999999</v>
       </c>
       <c r="X4" s="7">
-        <f>W4/1000</f>
-        <v>25.133730784000001</v>
+        <f t="shared" si="12"/>
+        <v>50.267461568000002</v>
       </c>
       <c r="Y4" s="7">
         <f>X4*0.2</f>
-        <v>5.0267461568000007</v>
-      </c>
-      <c r="Z4" s="1"/>
+        <v>10.053492313600001</v>
+      </c>
+      <c r="Z4" s="8">
+        <f t="shared" si="13"/>
+        <v>14.26272130741612</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,64 +1056,67 @@
         <v>153</v>
       </c>
       <c r="L5" s="3">
-        <f>SUM(C5:K5)</f>
+        <f t="shared" si="5"/>
         <v>8809</v>
       </c>
       <c r="M5" s="3">
-        <f>K5+J5+I5+H5+G5+F5</f>
+        <f t="shared" si="0"/>
         <v>7219</v>
       </c>
       <c r="N5" s="3">
-        <f>C5+D5+E5</f>
+        <f t="shared" si="1"/>
         <v>1590</v>
       </c>
       <c r="O5" s="5">
-        <f>M5*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>77704.669177600008</v>
       </c>
       <c r="P5" s="5">
-        <f>N5*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>17114.617536000002</v>
       </c>
       <c r="Q5" s="5">
-        <f>M5/L5*100</f>
+        <f t="shared" si="7"/>
         <v>81.950278124645251</v>
       </c>
       <c r="R5" s="5">
-        <f>N5/L5*100</f>
+        <f t="shared" si="8"/>
         <v>18.049721875354752</v>
       </c>
       <c r="S5" s="3">
-        <f>F5+I5</f>
+        <f t="shared" si="9"/>
         <v>2112</v>
       </c>
       <c r="T5" s="3">
-        <f>S5*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>22733.3787648</v>
       </c>
       <c r="U5" s="7">
-        <f>T5/600</f>
-        <v>37.888964608000002</v>
+        <f t="shared" si="11"/>
+        <v>75.777929216000004</v>
       </c>
       <c r="V5" s="3">
-        <f>E5</f>
+        <f t="shared" si="3"/>
         <v>1421</v>
       </c>
       <c r="W5" s="5">
-        <f>V5*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>15295.516678400001</v>
       </c>
       <c r="X5" s="7">
-        <f>W5/1000</f>
-        <v>15.295516678400002</v>
+        <f t="shared" si="12"/>
+        <v>30.591033356800004</v>
       </c>
       <c r="Y5" s="7">
         <f>X5*0.1</f>
-        <v>1.5295516678400003</v>
-      </c>
-      <c r="Z5" s="1"/>
+        <v>3.0591033356800006</v>
+      </c>
+      <c r="Z5" s="8">
+        <f t="shared" si="13"/>
+        <v>29.256129657847346</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1125,64 +1151,67 @@
         <v>283</v>
       </c>
       <c r="L6" s="3">
-        <f>SUM(C6:K6)</f>
+        <f t="shared" si="5"/>
         <v>8203</v>
       </c>
       <c r="M6" s="3">
-        <f>K6+J6+I6+H6+G6+F6</f>
+        <f t="shared" si="0"/>
         <v>7837</v>
       </c>
       <c r="N6" s="3">
-        <f>C6+D6+E6</f>
+        <f t="shared" si="1"/>
         <v>366</v>
       </c>
       <c r="O6" s="5">
-        <f>M6*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>84356.765804800001</v>
       </c>
       <c r="P6" s="5">
-        <f>N6*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>3939.5912063999999</v>
       </c>
       <c r="Q6" s="5">
-        <f>M6/L6*100</f>
+        <f t="shared" si="7"/>
         <v>95.538217725222481</v>
       </c>
       <c r="R6" s="5">
-        <f>N6/L6*100</f>
+        <f t="shared" si="8"/>
         <v>4.4617822747775202</v>
       </c>
       <c r="S6" s="3">
-        <f>F6+I6</f>
+        <f t="shared" si="9"/>
         <v>1302</v>
       </c>
       <c r="T6" s="3">
-        <f>S6*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>14014.6113408</v>
       </c>
       <c r="U6" s="7">
-        <f>T6/600</f>
-        <v>23.357685568000001</v>
+        <f t="shared" si="11"/>
+        <v>46.715371136000002</v>
       </c>
       <c r="V6" s="3">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="W6" s="5">
-        <f>V6*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>1808.3369471999999</v>
       </c>
       <c r="X6" s="7">
-        <f>W6/1000</f>
-        <v>1.8083369471999999</v>
+        <f t="shared" si="12"/>
+        <v>3.6166738943999999</v>
       </c>
       <c r="Y6" s="7">
         <f>X6</f>
-        <v>1.8083369471999999</v>
-      </c>
-      <c r="Z6" s="1"/>
+        <v>3.6166738943999999</v>
+      </c>
+      <c r="Z6" s="8">
+        <f t="shared" si="13"/>
+        <v>16.613500063799925</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1217,64 +1246,67 @@
         <v>108</v>
       </c>
       <c r="L7" s="3">
-        <f>SUM(C7:K7)</f>
+        <f t="shared" si="5"/>
         <v>6779</v>
       </c>
       <c r="M7" s="3">
-        <f>K7+J7+I7+H7+G7+F7</f>
+        <f t="shared" si="0"/>
         <v>5775</v>
       </c>
       <c r="N7" s="3">
-        <f>C7+D7+E7</f>
+        <f t="shared" si="1"/>
         <v>1004</v>
       </c>
       <c r="O7" s="5">
-        <f>M7*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>62161.582560000003</v>
       </c>
       <c r="P7" s="5">
-        <f>N7*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>10806.966041600001</v>
       </c>
       <c r="Q7" s="5">
-        <f>M7/L7*100</f>
+        <f t="shared" si="7"/>
         <v>85.189555981708224</v>
       </c>
       <c r="R7" s="5">
-        <f>N7/L7*100</f>
+        <f t="shared" si="8"/>
         <v>14.810444018291783</v>
       </c>
       <c r="S7" s="3">
-        <f>F7+I7</f>
+        <f t="shared" si="9"/>
         <v>1433</v>
       </c>
       <c r="T7" s="3">
-        <f>S7*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>15424.683603200001</v>
       </c>
       <c r="U7" s="7">
-        <f>T7/600</f>
-        <v>25.707806005333335</v>
+        <f t="shared" si="11"/>
+        <v>51.415612010666671</v>
       </c>
       <c r="V7" s="3">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>740</v>
       </c>
       <c r="W7" s="5">
-        <f>V7*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>7965.2936960000006</v>
       </c>
       <c r="X7" s="7">
-        <f>W7/1000</f>
-        <v>7.9652936960000007</v>
+        <f t="shared" si="12"/>
+        <v>15.930587392000001</v>
       </c>
       <c r="Y7" s="7">
         <f>X7</f>
-        <v>7.9652936960000007</v>
-      </c>
-      <c r="Z7" s="1"/>
+        <v>15.930587392000001</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="13"/>
+        <v>24.813852813852815</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,63 +1341,66 @@
         <v>46</v>
       </c>
       <c r="L8" s="3">
-        <f>SUM(C8:K8)</f>
+        <f t="shared" si="5"/>
         <v>3482</v>
       </c>
       <c r="M8" s="3">
-        <f>K8+J8+I8+H8+G8+F8</f>
+        <f t="shared" si="0"/>
         <v>2621</v>
       </c>
       <c r="N8" s="3">
-        <f>C8+D8+E8</f>
+        <f t="shared" si="1"/>
         <v>861</v>
       </c>
       <c r="O8" s="5">
-        <f>M8*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>28212.209158400001</v>
       </c>
       <c r="P8" s="5">
-        <f>N8*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>9267.7268543999999</v>
       </c>
       <c r="Q8" s="5">
-        <f>M8/L8*100</f>
+        <f t="shared" si="7"/>
         <v>75.272831705916147</v>
       </c>
       <c r="R8" s="5">
-        <f>N8/L8*100</f>
+        <f t="shared" si="8"/>
         <v>24.72716829408386</v>
       </c>
       <c r="S8" s="3">
-        <f>F8+I8</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="T8" s="3">
-        <f>S8*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>355.2090432</v>
       </c>
       <c r="U8" s="7">
-        <f>T8/600</f>
-        <v>0.59201507200000003</v>
+        <f t="shared" si="11"/>
+        <v>1.1840301440000001</v>
       </c>
       <c r="V8" s="3">
-        <f>E8</f>
+        <f t="shared" si="3"/>
         <v>417</v>
       </c>
       <c r="W8" s="5">
-        <f>V8*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>4488.5506368000006</v>
       </c>
       <c r="X8" s="7">
-        <f>W8/1000</f>
-        <v>4.4885506368000003</v>
+        <f t="shared" si="12"/>
+        <v>8.9771012736000007</v>
       </c>
       <c r="Y8" s="7">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
+      <c r="Z8" s="8">
+        <f t="shared" si="13"/>
+        <v>1.2590614269362836</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1400,63 +1435,66 @@
         <v>5</v>
       </c>
       <c r="L9" s="3">
-        <f>SUM(C9:K9)</f>
+        <f t="shared" si="5"/>
         <v>1495</v>
       </c>
       <c r="M9" s="3">
-        <f>K9+J9+I9+H9+G9+F9</f>
+        <f t="shared" si="0"/>
         <v>579</v>
       </c>
       <c r="N9" s="3">
-        <f>C9+D9+E9</f>
+        <f t="shared" si="1"/>
         <v>916</v>
       </c>
       <c r="O9" s="5">
-        <f>M9*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>6232.3041216000001</v>
       </c>
       <c r="P9" s="5">
-        <f>N9*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>9859.7419264</v>
       </c>
       <c r="Q9" s="5">
-        <f>M9/L9*100</f>
+        <f t="shared" si="7"/>
         <v>38.729096989966557</v>
       </c>
       <c r="R9" s="5">
-        <f>N9/L9*100</f>
+        <f t="shared" si="8"/>
         <v>61.270903010033436</v>
       </c>
       <c r="S9" s="3">
-        <f>F9+I9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <f>S9*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <f>T9/600</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <f>E9</f>
+        <f t="shared" si="3"/>
         <v>758</v>
       </c>
       <c r="W9" s="5">
-        <f>V9*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>8159.0440832000004</v>
       </c>
       <c r="X9" s="7">
-        <f>W9/1000</f>
-        <v>8.1590440831999995</v>
+        <f t="shared" si="12"/>
+        <v>16.318088166399999</v>
       </c>
       <c r="Y9" s="7">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
+      <c r="Z9" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,64 +1529,67 @@
         <v>408</v>
       </c>
       <c r="L10" s="3">
-        <f>SUM(C10:K10)</f>
+        <f t="shared" si="5"/>
         <v>18272</v>
       </c>
       <c r="M10" s="3">
-        <f>K10+J10+I10+H10+G10+F10</f>
+        <f t="shared" si="0"/>
         <v>7740</v>
       </c>
       <c r="N10" s="3">
-        <f>C10+D10+E10</f>
+        <f t="shared" si="1"/>
         <v>10532</v>
       </c>
       <c r="O10" s="5">
-        <f>M10*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>83312.666496000005</v>
       </c>
       <c r="P10" s="5">
-        <f>N10*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>113365.5043328</v>
       </c>
       <c r="Q10" s="5">
-        <f>M10/L10*100</f>
+        <f t="shared" si="7"/>
         <v>42.359894921190893</v>
       </c>
       <c r="R10" s="5">
-        <f>N10/L10*100</f>
+        <f t="shared" si="8"/>
         <v>57.640105078809114</v>
       </c>
       <c r="S10" s="3">
-        <f>F10+I10</f>
+        <f t="shared" si="9"/>
         <v>2635</v>
       </c>
       <c r="T10" s="3">
-        <f>S10*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>28362.903904000003</v>
       </c>
       <c r="U10" s="7">
-        <f>T10/600</f>
-        <v>47.271506506666668</v>
+        <f t="shared" si="11"/>
+        <v>94.543013013333336</v>
       </c>
       <c r="V10" s="3">
-        <f>E10</f>
+        <f t="shared" si="3"/>
         <v>5155</v>
       </c>
       <c r="W10" s="5">
-        <f>V10*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>55487.958112</v>
       </c>
       <c r="X10" s="7">
-        <f>W10/1000</f>
-        <v>55.487958112000001</v>
+        <f t="shared" si="12"/>
+        <v>110.975916224</v>
       </c>
       <c r="Y10" s="7">
         <f>X10*0.3</f>
-        <v>16.646387433600001</v>
-      </c>
-      <c r="Z10" s="1"/>
+        <v>33.292774867200002</v>
+      </c>
+      <c r="Z10" s="8">
+        <f t="shared" si="13"/>
+        <v>34.043927648578816</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1583,63 +1624,66 @@
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <f>SUM(C11:K11)</f>
+        <f t="shared" si="5"/>
         <v>8851</v>
       </c>
       <c r="M11" s="3">
-        <f>K11+J11+I11+H11+G11+F11</f>
+        <f t="shared" si="0"/>
         <v>6837</v>
       </c>
       <c r="N11" s="3">
-        <f>C11+D11+E11</f>
+        <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="O11" s="5">
-        <f>M11*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>73592.855404800008</v>
       </c>
       <c r="P11" s="5">
-        <f>N11*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>21678.515545599999</v>
       </c>
       <c r="Q11" s="5">
-        <f>M11/L11*100</f>
+        <f t="shared" si="7"/>
         <v>77.245508982035929</v>
       </c>
       <c r="R11" s="5">
-        <f>N11/L11*100</f>
+        <f t="shared" si="8"/>
         <v>22.754491017964071</v>
       </c>
       <c r="S11" s="3">
-        <f>F11+I11</f>
+        <f t="shared" si="9"/>
         <v>3440</v>
       </c>
       <c r="T11" s="3">
-        <f>S11*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>37027.851776000003</v>
       </c>
       <c r="U11" s="7">
-        <f>T11/600</f>
-        <v>61.71308629333334</v>
+        <f t="shared" si="11"/>
+        <v>123.42617258666668</v>
       </c>
       <c r="V11" s="3">
-        <f>E11</f>
+        <f t="shared" si="3"/>
         <v>808</v>
       </c>
       <c r="W11" s="5">
-        <f>V11*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>8697.2396031999997</v>
       </c>
       <c r="X11" s="7">
-        <f>W11/1000</f>
-        <v>8.6972396031999999</v>
+        <f t="shared" si="12"/>
+        <v>17.3944792064</v>
       </c>
       <c r="Y11" s="7">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
+      <c r="Z11" s="8">
+        <f t="shared" si="13"/>
+        <v>50.314465408805034</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1674,64 +1718,67 @@
         <v>173</v>
       </c>
       <c r="L12" s="3">
-        <f>SUM(C12:K12)</f>
+        <f t="shared" si="5"/>
         <v>2705</v>
       </c>
       <c r="M12" s="3">
-        <f>K12+J12+I12+H12+G12+F12</f>
+        <f t="shared" si="0"/>
         <v>1541</v>
       </c>
       <c r="N12" s="3">
-        <f>C12+D12+E12</f>
+        <f t="shared" si="1"/>
         <v>1164</v>
       </c>
       <c r="O12" s="5">
-        <f>M12*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>16587.185926400001</v>
       </c>
       <c r="P12" s="5">
-        <f>N12*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>12529.1917056</v>
       </c>
       <c r="Q12" s="5">
-        <f>M12/L12*100</f>
+        <f t="shared" si="7"/>
         <v>56.968576709796672</v>
       </c>
       <c r="R12" s="5">
-        <f>N12/L12*100</f>
+        <f t="shared" si="8"/>
         <v>43.031423290203321</v>
       </c>
       <c r="S12" s="3">
-        <f>F12+I12</f>
+        <f t="shared" si="9"/>
         <v>223</v>
       </c>
       <c r="T12" s="3">
-        <f>S12*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>2400.3520192000001</v>
       </c>
       <c r="U12" s="7">
-        <f>T12/600</f>
-        <v>4.0005866986666669</v>
+        <f t="shared" si="11"/>
+        <v>8.0011733973333339</v>
       </c>
       <c r="V12" s="3">
-        <f>E12</f>
+        <f t="shared" si="3"/>
         <v>616</v>
       </c>
       <c r="W12" s="5">
-        <f>V12*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>6630.5688064000005</v>
       </c>
       <c r="X12" s="7">
-        <f>W12/1000</f>
-        <v>6.6305688064000003</v>
+        <f t="shared" si="12"/>
+        <v>13.261137612800001</v>
       </c>
       <c r="Y12" s="7">
         <f>X12*0.5</f>
-        <v>3.3152844032000002</v>
-      </c>
-      <c r="Z12" s="1"/>
+        <v>6.6305688064000003</v>
+      </c>
+      <c r="Z12" s="8">
+        <f t="shared" si="13"/>
+        <v>14.471122647631407</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1766,64 +1813,67 @@
         <v>1927</v>
       </c>
       <c r="L13" s="3">
-        <f>SUM(C13:K13)</f>
+        <f t="shared" si="5"/>
         <v>21493</v>
       </c>
       <c r="M13" s="3">
-        <f>K13+J13+I13+H13+G13+F13</f>
+        <f t="shared" si="0"/>
         <v>10611</v>
       </c>
       <c r="N13" s="3">
-        <f>C13+D13+E13</f>
+        <f t="shared" si="1"/>
         <v>10882</v>
       </c>
       <c r="O13" s="5">
-        <f>M13*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>114215.8532544</v>
       </c>
       <c r="P13" s="5">
-        <f>N13*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>117132.8729728</v>
       </c>
       <c r="Q13" s="5">
-        <f>M13/L13*100</f>
+        <f t="shared" si="7"/>
         <v>49.369562183036336</v>
       </c>
       <c r="R13" s="5">
-        <f>N13/L13*100</f>
+        <f t="shared" si="8"/>
         <v>50.630437816963656</v>
       </c>
       <c r="S13" s="3">
-        <f>F13+I13</f>
+        <f t="shared" si="9"/>
         <v>4562</v>
       </c>
       <c r="T13" s="3">
-        <f>S13*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>49104.959244800004</v>
       </c>
       <c r="U13" s="7">
-        <f>T13/600</f>
-        <v>81.841598741333343</v>
+        <f t="shared" si="11"/>
+        <v>163.68319748266669</v>
       </c>
       <c r="V13" s="3">
-        <f>E13</f>
+        <f t="shared" si="3"/>
         <v>3021</v>
       </c>
       <c r="W13" s="5">
-        <f>V13*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>32517.773318400003</v>
       </c>
       <c r="X13" s="7">
-        <f>W13/1000</f>
-        <v>32.517773318400003</v>
+        <f t="shared" si="12"/>
+        <v>65.035546636800007</v>
       </c>
       <c r="Y13" s="7">
         <f>X13*0.8</f>
-        <v>26.014218654720004</v>
-      </c>
-      <c r="Z13" s="1"/>
+        <v>52.028437309440008</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="13"/>
+        <v>42.993120346809917</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1874,48 +1924,51 @@
         <v>96197.067244799997</v>
       </c>
       <c r="P14" s="5">
-        <f>N14*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>94464.077670400002</v>
       </c>
       <c r="Q14" s="5">
-        <f>M14/L14*100</f>
+        <f t="shared" si="7"/>
         <v>50.45446846948569</v>
       </c>
       <c r="R14" s="5">
-        <f>N14/L14*100</f>
+        <f t="shared" si="8"/>
         <v>49.545531530514317</v>
       </c>
       <c r="S14" s="3">
-        <f>F14+I14</f>
+        <f t="shared" si="9"/>
         <v>4682</v>
       </c>
       <c r="T14" s="3">
-        <f>S14*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>50396.628492800002</v>
       </c>
       <c r="U14" s="7">
-        <f>T14/600</f>
-        <v>83.994380821333337</v>
+        <f t="shared" si="11"/>
+        <v>167.98876164266667</v>
       </c>
       <c r="V14" s="3">
-        <f>E14</f>
+        <f t="shared" si="3"/>
         <v>3258</v>
       </c>
       <c r="W14" s="5">
-        <f>V14*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>35068.8200832</v>
       </c>
       <c r="X14" s="7">
-        <f>W14/1000</f>
-        <v>35.068820083200002</v>
+        <f t="shared" si="12"/>
+        <v>70.137640166400004</v>
       </c>
       <c r="Y14" s="7">
         <f>X14*0.4</f>
-        <v>14.027528033280001</v>
-      </c>
-      <c r="Z14" s="1"/>
+        <v>28.055056066560002</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="13"/>
+        <v>52.388944836074749</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1950,64 +2003,67 @@
         <v>2522</v>
       </c>
       <c r="L15" s="3">
-        <f>SUM(C15:K15)</f>
+        <f t="shared" ref="L15:L40" si="14">SUM(C15:K15)</f>
         <v>60358</v>
       </c>
       <c r="M15" s="3">
-        <f>K15+J15+I15+H15+G15+F15</f>
+        <f t="shared" si="0"/>
         <v>31341</v>
       </c>
       <c r="N15" s="3">
-        <f>C15+D15+E15</f>
+        <f t="shared" si="1"/>
         <v>29017</v>
       </c>
       <c r="O15" s="5">
-        <f>M15*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>337351.71584640001</v>
       </c>
       <c r="P15" s="5">
-        <f>N15*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>312336.38807680004</v>
       </c>
       <c r="Q15" s="5">
-        <f>M15/L15*100</f>
+        <f t="shared" si="7"/>
         <v>51.925179760760798</v>
       </c>
       <c r="R15" s="5">
-        <f>N15/L15*100</f>
+        <f t="shared" si="8"/>
         <v>48.074820239239209</v>
       </c>
       <c r="S15" s="3">
-        <f>F15+I15</f>
+        <f t="shared" si="9"/>
         <v>13389</v>
       </c>
       <c r="T15" s="3">
-        <f>S15*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>144117.9963456</v>
       </c>
       <c r="U15" s="7">
-        <f>T15/600</f>
-        <v>240.196660576</v>
+        <f t="shared" si="11"/>
+        <v>480.393321152</v>
       </c>
       <c r="V15" s="3">
-        <f>E15</f>
+        <f t="shared" si="3"/>
         <v>12035</v>
       </c>
       <c r="W15" s="5">
-        <f>V15*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>129543.661664</v>
       </c>
       <c r="X15" s="7">
-        <f>W15/1000</f>
-        <v>129.54366166400001</v>
+        <f t="shared" si="12"/>
+        <v>259.08732332800002</v>
       </c>
       <c r="Y15" s="7">
         <f>X15</f>
-        <v>129.54366166400001</v>
-      </c>
-      <c r="Z15" s="1"/>
+        <v>259.08732332800002</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="13"/>
+        <v>42.720398200440322</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2042,64 +2098,67 @@
         <v>441</v>
       </c>
       <c r="L16" s="3">
-        <f>SUM(C16:K16)</f>
+        <f t="shared" si="14"/>
         <v>14898</v>
       </c>
       <c r="M16" s="3">
-        <f>K16+J16+I16+H16+G16+F16</f>
+        <f t="shared" si="0"/>
         <v>8847</v>
       </c>
       <c r="N16" s="3">
-        <f>C16+D16+E16</f>
+        <f t="shared" si="1"/>
         <v>6051</v>
       </c>
       <c r="O16" s="5">
-        <f>M16*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>95228.315308799996</v>
       </c>
       <c r="P16" s="5">
-        <f>N16*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>65132.421830400002</v>
       </c>
       <c r="Q16" s="5">
-        <f>M16/L16*100</f>
+        <f t="shared" si="7"/>
         <v>59.383809907370122</v>
       </c>
       <c r="R16" s="5">
-        <f>N16/L16*100</f>
+        <f t="shared" si="8"/>
         <v>40.616190092629886</v>
       </c>
       <c r="S16" s="3">
-        <f>F16+I16</f>
+        <f t="shared" si="9"/>
         <v>3493</v>
       </c>
       <c r="T16" s="3">
-        <f>S16*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>37598.339027200003</v>
       </c>
       <c r="U16" s="7">
-        <f>T16/600</f>
-        <v>62.663898378666673</v>
+        <f t="shared" si="11"/>
+        <v>125.32779675733335</v>
       </c>
       <c r="V16" s="3">
-        <f>E16</f>
+        <f t="shared" si="3"/>
         <v>2887</v>
       </c>
       <c r="W16" s="5">
-        <f>V16*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>31075.409324800003</v>
       </c>
       <c r="X16" s="7">
-        <f>W16/1000</f>
-        <v>31.075409324800003</v>
+        <f t="shared" si="12"/>
+        <v>62.150818649600005</v>
       </c>
       <c r="Y16" s="7">
         <f>X16</f>
-        <v>31.075409324800003</v>
-      </c>
-      <c r="Z16" s="1"/>
+        <v>62.150818649600005</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="13"/>
+        <v>39.48231038770205</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2134,64 +2193,67 @@
         <v>141</v>
       </c>
       <c r="L17" s="3">
-        <f>SUM(C17:K17)</f>
+        <f t="shared" si="14"/>
         <v>11368</v>
       </c>
       <c r="M17" s="3">
-        <f>K17+J17+I17+H17+G17+F17</f>
+        <f t="shared" si="0"/>
         <v>5485</v>
       </c>
       <c r="N17" s="3">
-        <f>C17+D17+E17</f>
+        <f t="shared" si="1"/>
         <v>5883</v>
       </c>
       <c r="O17" s="5">
-        <f>M17*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>59040.048544000005</v>
       </c>
       <c r="P17" s="5">
-        <f>N17*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>63324.084883200005</v>
       </c>
       <c r="Q17" s="5">
-        <f>M17/L17*100</f>
+        <f t="shared" si="7"/>
         <v>48.24947220267417</v>
       </c>
       <c r="R17" s="5">
-        <f>N17/L17*100</f>
+        <f t="shared" si="8"/>
         <v>51.75052779732583</v>
       </c>
       <c r="S17" s="3">
-        <f>F17+I17</f>
+        <f t="shared" si="9"/>
         <v>1506</v>
       </c>
       <c r="T17" s="3">
-        <f>S17*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>16210.449062400001</v>
       </c>
       <c r="U17" s="7">
-        <f>T17/600</f>
-        <v>27.017415104000001</v>
+        <f t="shared" si="11"/>
+        <v>54.034830208000002</v>
       </c>
       <c r="V17" s="3">
-        <f>E17</f>
+        <f t="shared" si="3"/>
         <v>3732</v>
       </c>
       <c r="W17" s="5">
-        <f>V17*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>40170.913612800003</v>
       </c>
       <c r="X17" s="7">
-        <f>W17/1000</f>
-        <v>40.1709136128</v>
+        <f t="shared" si="12"/>
+        <v>80.341827225599999</v>
       </c>
       <c r="Y17" s="7">
         <f>X17*0.1</f>
-        <v>4.0170913612800003</v>
-      </c>
-      <c r="Z17" s="1"/>
+        <v>8.0341827225600007</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="13"/>
+        <v>27.456700091157703</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2226,64 +2288,67 @@
         <v>329</v>
       </c>
       <c r="L18" s="3">
-        <f>SUM(C18:K18)</f>
+        <f t="shared" si="14"/>
         <v>20011</v>
       </c>
       <c r="M18" s="3">
-        <f>K18+J18+I18+H18+G18+F18</f>
+        <f t="shared" si="0"/>
         <v>8217</v>
       </c>
       <c r="N18" s="3">
-        <f>C18+D18+E18</f>
+        <f t="shared" si="1"/>
         <v>11794</v>
       </c>
       <c r="O18" s="5">
-        <f>M18*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>88447.051756800007</v>
       </c>
       <c r="P18" s="5">
-        <f>N18*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>126949.55925760001</v>
       </c>
       <c r="Q18" s="5">
-        <f>M18/L18*100</f>
+        <f t="shared" si="7"/>
         <v>41.062415671380741</v>
       </c>
       <c r="R18" s="5">
-        <f>N18/L18*100</f>
+        <f t="shared" si="8"/>
         <v>58.937584328619266</v>
       </c>
       <c r="S18" s="3">
-        <f>F18+I18</f>
+        <f t="shared" si="9"/>
         <v>2558</v>
       </c>
       <c r="T18" s="3">
-        <f>S18*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>27534.082803199999</v>
       </c>
       <c r="U18" s="7">
-        <f>T18/600</f>
-        <v>45.890138005333334</v>
+        <f t="shared" si="11"/>
+        <v>91.780276010666668</v>
       </c>
       <c r="V18" s="3">
-        <f>E18</f>
+        <f t="shared" si="3"/>
         <v>4919</v>
       </c>
       <c r="W18" s="5">
-        <f>V18*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>52947.6752576</v>
       </c>
       <c r="X18" s="7">
-        <f>W18/1000</f>
-        <v>52.947675257599997</v>
+        <f t="shared" si="12"/>
+        <v>105.89535051519999</v>
       </c>
       <c r="Y18" s="7">
         <f>X18*0.5</f>
-        <v>26.473837628799998</v>
-      </c>
-      <c r="Z18" s="1"/>
+        <v>52.947675257599997</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" si="13"/>
+        <v>31.130582937811852</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2318,64 +2383,67 @@
         <v>256</v>
       </c>
       <c r="L19" s="3">
-        <f>SUM(C19:K19)</f>
+        <f t="shared" si="14"/>
         <v>6133</v>
       </c>
       <c r="M19" s="3">
-        <f>K19+J19+I19+H19+G19+F19</f>
+        <f t="shared" si="0"/>
         <v>4836</v>
       </c>
       <c r="N19" s="3">
-        <f>C19+D19+E19</f>
+        <f t="shared" si="1"/>
         <v>1297</v>
       </c>
       <c r="O19" s="5">
-        <f>M19*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>52054.270694400002</v>
       </c>
       <c r="P19" s="5">
-        <f>N19*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>13960.791788800001</v>
       </c>
       <c r="Q19" s="5">
-        <f>M19/L19*100</f>
+        <f t="shared" si="7"/>
         <v>78.852111527800432</v>
       </c>
       <c r="R19" s="5">
-        <f>N19/L19*100</f>
+        <f t="shared" si="8"/>
         <v>21.147888472199575</v>
       </c>
       <c r="S19" s="3">
-        <f>F19+I19</f>
+        <f t="shared" si="9"/>
         <v>2568</v>
       </c>
       <c r="T19" s="3">
-        <f>S19*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>27641.721907200001</v>
       </c>
       <c r="U19" s="7">
-        <f>T19/600</f>
-        <v>46.069536511999999</v>
+        <f t="shared" si="11"/>
+        <v>92.139073023999998</v>
       </c>
       <c r="V19" s="3">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
       <c r="W19" s="5">
-        <f>V19*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>3487.5069696</v>
       </c>
       <c r="X19" s="7">
-        <f>W19/1000</f>
-        <v>3.4875069696000001</v>
+        <f t="shared" si="12"/>
+        <v>6.9750139392000001</v>
       </c>
       <c r="Y19" s="7">
         <f>X19*0.5</f>
-        <v>1.7437534848</v>
-      </c>
-      <c r="Z19" s="1"/>
+        <v>3.4875069696000001</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" si="13"/>
+        <v>53.101736972704714</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2410,64 +2478,67 @@
         <v>339</v>
       </c>
       <c r="L20" s="3">
-        <f>SUM(C20:K20)</f>
+        <f t="shared" si="14"/>
         <v>8715</v>
       </c>
       <c r="M20" s="3">
-        <f>K20+J20+I20+H20+G20+F20</f>
+        <f t="shared" si="0"/>
         <v>6812</v>
       </c>
       <c r="N20" s="3">
-        <f>C20+D20+E20</f>
+        <f t="shared" si="1"/>
         <v>1903</v>
       </c>
       <c r="O20" s="5">
-        <f>M20*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>73323.757644800004</v>
       </c>
       <c r="P20" s="5">
-        <f>N20*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>20483.721491200002</v>
       </c>
       <c r="Q20" s="5">
-        <f>M20/L20*100</f>
+        <f t="shared" si="7"/>
         <v>78.164084911072862</v>
       </c>
       <c r="R20" s="5">
-        <f>N20/L20*100</f>
+        <f t="shared" si="8"/>
         <v>21.835915088927138</v>
       </c>
       <c r="S20" s="3">
-        <f>F20+I20</f>
+        <f t="shared" si="9"/>
         <v>2974</v>
       </c>
       <c r="T20" s="3">
-        <f>S20*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>32011.869529600001</v>
       </c>
       <c r="U20" s="7">
-        <f>T20/600</f>
-        <v>53.353115882666664</v>
+        <f t="shared" si="11"/>
+        <v>106.70623176533333</v>
       </c>
       <c r="V20" s="3">
-        <f>E20</f>
+        <f t="shared" si="3"/>
         <v>657</v>
       </c>
       <c r="W20" s="5">
-        <f>V20*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>7071.8891328</v>
       </c>
       <c r="X20" s="7">
-        <f>W20/1000</f>
-        <v>7.0718891328</v>
+        <f t="shared" si="12"/>
+        <v>14.1437782656</v>
       </c>
       <c r="Y20" s="7">
         <f>X20</f>
-        <v>7.0718891328</v>
-      </c>
-      <c r="Z20" s="1"/>
+        <v>14.1437782656</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" si="13"/>
+        <v>43.658250146799766</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2502,64 +2573,67 @@
         <v>2513</v>
       </c>
       <c r="L21" s="3">
-        <f>SUM(C21:K21)</f>
+        <f t="shared" si="14"/>
         <v>46708</v>
       </c>
       <c r="M21" s="3">
-        <f>K21+J21+I21+H21+G21+F21</f>
+        <f t="shared" si="0"/>
         <v>26620</v>
       </c>
       <c r="N21" s="3">
-        <f>C21+D21+E21</f>
+        <f t="shared" si="1"/>
         <v>20088</v>
       </c>
       <c r="O21" s="5">
-        <f>M21*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>286535.29484799999</v>
       </c>
       <c r="P21" s="5">
-        <f>N21*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>216225.4321152</v>
       </c>
       <c r="Q21" s="5">
-        <f>M21/L21*100</f>
+        <f t="shared" si="7"/>
         <v>56.992378179326884</v>
       </c>
       <c r="R21" s="5">
-        <f>N21/L21*100</f>
+        <f t="shared" si="8"/>
         <v>43.007621820673123</v>
       </c>
       <c r="S21" s="3">
-        <f>F21+I21</f>
+        <f t="shared" si="9"/>
         <v>10071</v>
       </c>
       <c r="T21" s="3">
-        <f>S21*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>108403.3416384</v>
       </c>
       <c r="U21" s="7">
-        <f>T21/600</f>
-        <v>180.672236064</v>
+        <f t="shared" si="11"/>
+        <v>361.34447212800001</v>
       </c>
       <c r="V21" s="3">
-        <f>E21</f>
+        <f t="shared" si="3"/>
         <v>5968</v>
       </c>
       <c r="W21" s="5">
-        <f>V21*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>64239.017267200004</v>
       </c>
       <c r="X21" s="7">
-        <f>W21/1000</f>
-        <v>64.239017267199998</v>
+        <f t="shared" si="12"/>
+        <v>128.4780345344</v>
       </c>
       <c r="Y21" s="7">
         <f>X21*0.95</f>
-        <v>61.027066403839996</v>
-      </c>
-      <c r="Z21" s="1"/>
+        <v>122.05413280767999</v>
+      </c>
+      <c r="Z21" s="8">
+        <f t="shared" si="13"/>
+        <v>37.832456799398948</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -2594,64 +2668,67 @@
         <v>269</v>
       </c>
       <c r="L22" s="3">
-        <f>SUM(C22:K22)</f>
+        <f t="shared" si="14"/>
         <v>10025</v>
       </c>
       <c r="M22" s="3">
-        <f>K22+J22+I22+H22+G22+F22</f>
+        <f t="shared" si="0"/>
         <v>7149</v>
       </c>
       <c r="N22" s="3">
-        <f>C22+D22+E22</f>
+        <f t="shared" si="1"/>
         <v>2876</v>
       </c>
       <c r="O22" s="5">
-        <f>M22*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>76951.195449599996</v>
       </c>
       <c r="P22" s="5">
-        <f>N22*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>30957.0063104</v>
       </c>
       <c r="Q22" s="5">
-        <f>M22/L22*100</f>
+        <f t="shared" si="7"/>
         <v>71.311720698254362</v>
       </c>
       <c r="R22" s="5">
-        <f>N22/L22*100</f>
+        <f t="shared" si="8"/>
         <v>28.688279301745634</v>
       </c>
       <c r="S22" s="3">
-        <f>F22+I22</f>
+        <f t="shared" si="9"/>
         <v>2875</v>
       </c>
       <c r="T22" s="3">
-        <f>S22*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>30946.242399999999</v>
       </c>
       <c r="U22" s="7">
-        <f>T22/600</f>
-        <v>51.577070666666664</v>
+        <f t="shared" si="11"/>
+        <v>103.15414133333333</v>
       </c>
       <c r="V22" s="3">
-        <f>E22</f>
+        <f t="shared" si="3"/>
         <v>1506</v>
       </c>
       <c r="W22" s="5">
-        <f>V22*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>16210.449062400001</v>
       </c>
       <c r="X22" s="7">
-        <f>W22/1000</f>
-        <v>16.210449062400002</v>
+        <f t="shared" si="12"/>
+        <v>32.420898124800004</v>
       </c>
       <c r="Y22" s="7">
         <f>X22*0.1</f>
-        <v>1.6210449062400003</v>
-      </c>
-      <c r="Z22" s="1"/>
+        <v>3.2420898124800006</v>
+      </c>
+      <c r="Z22" s="8">
+        <f t="shared" si="13"/>
+        <v>40.215414743320743</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2686,63 +2763,66 @@
         <v>327</v>
       </c>
       <c r="L23" s="3">
-        <f>SUM(C23:K23)</f>
+        <f t="shared" si="14"/>
         <v>3813</v>
       </c>
       <c r="M23" s="3">
-        <f>K23+J23+I23+H23+G23+F23</f>
+        <f t="shared" si="0"/>
         <v>2623</v>
       </c>
       <c r="N23" s="3">
-        <f>C23+D23+E23</f>
+        <f t="shared" si="1"/>
         <v>1190</v>
       </c>
       <c r="O23" s="5">
-        <f>M23*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>28233.736979199999</v>
       </c>
       <c r="P23" s="5">
-        <f>N23*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>12809.053376</v>
       </c>
       <c r="Q23" s="5">
-        <f>M23/L23*100</f>
+        <f t="shared" si="7"/>
         <v>68.79097823236296</v>
       </c>
       <c r="R23" s="5">
-        <f>N23/L23*100</f>
+        <f t="shared" si="8"/>
         <v>31.209021767637029</v>
       </c>
       <c r="S23" s="3">
-        <f>F23+I23</f>
+        <f t="shared" si="9"/>
         <v>328</v>
       </c>
       <c r="T23" s="3">
-        <f>S23*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>3530.5626112</v>
       </c>
       <c r="U23" s="7">
-        <f>T23/600</f>
-        <v>5.8842710186666665</v>
+        <f t="shared" si="11"/>
+        <v>11.768542037333333</v>
       </c>
       <c r="V23" s="3">
-        <f>E23</f>
+        <f t="shared" si="3"/>
         <v>656</v>
       </c>
       <c r="W23" s="5">
-        <f>V23*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>7061.1252224</v>
       </c>
       <c r="X23" s="7">
-        <f>W23/1000</f>
-        <v>7.0611252224000003</v>
+        <f t="shared" si="12"/>
+        <v>14.122250444800001</v>
       </c>
       <c r="Y23" s="7">
         <v>0</v>
       </c>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="8">
+        <f t="shared" si="13"/>
+        <v>12.504765535646206</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2777,64 +2857,67 @@
         <v>98</v>
       </c>
       <c r="L24" s="3">
-        <f>SUM(C24:K24)</f>
+        <f t="shared" si="14"/>
         <v>11921</v>
       </c>
       <c r="M24" s="3">
-        <f>K24+J24+I24+H24+G24+F24</f>
+        <f t="shared" si="0"/>
         <v>7563</v>
       </c>
       <c r="N24" s="3">
-        <f>C24+D24+E24</f>
+        <f t="shared" si="1"/>
         <v>4358</v>
       </c>
       <c r="O24" s="5">
-        <f>M24*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>81407.454355199996</v>
       </c>
       <c r="P24" s="5">
-        <f>N24*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>46909.121523200003</v>
       </c>
       <c r="Q24" s="5">
-        <f>M24/L24*100</f>
+        <f t="shared" si="7"/>
         <v>63.442664206022982</v>
       </c>
       <c r="R24" s="5">
-        <f>N24/L24*100</f>
+        <f t="shared" si="8"/>
         <v>36.55733579397701</v>
       </c>
       <c r="S24" s="3">
-        <f>F24+I24</f>
+        <f t="shared" si="9"/>
         <v>1645</v>
       </c>
       <c r="T24" s="3">
-        <f>S24*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>17706.632608</v>
       </c>
       <c r="U24" s="7">
-        <f>T24/600</f>
-        <v>29.511054346666665</v>
+        <f t="shared" si="11"/>
+        <v>59.02210869333333</v>
       </c>
       <c r="V24" s="3">
-        <f>E24</f>
+        <f t="shared" si="3"/>
         <v>2447</v>
       </c>
       <c r="W24" s="5">
-        <f>V24*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>26339.288748800001</v>
       </c>
       <c r="X24" s="7">
-        <f>W24/1000</f>
-        <v>26.339288748800001</v>
+        <f t="shared" si="12"/>
+        <v>52.678577497600003</v>
       </c>
       <c r="Y24" s="7">
         <f>X24*0.1</f>
-        <v>2.6339288748800005</v>
-      </c>
-      <c r="Z24" s="1"/>
+        <v>5.267857749760001</v>
+      </c>
+      <c r="Z24" s="8">
+        <f t="shared" si="13"/>
+        <v>21.750628057649081</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2869,64 +2952,67 @@
         <v>238</v>
       </c>
       <c r="L25" s="3">
-        <f>SUM(C25:K25)</f>
+        <f t="shared" si="14"/>
         <v>24001</v>
       </c>
       <c r="M25" s="3">
-        <f>K25+J25+I25+H25+G25+F25</f>
+        <f t="shared" si="0"/>
         <v>14272</v>
       </c>
       <c r="N25" s="3">
-        <f>C25+D25+E25</f>
+        <f t="shared" si="1"/>
         <v>9729</v>
       </c>
       <c r="O25" s="5">
-        <f>M25*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>153622.52922880001</v>
       </c>
       <c r="P25" s="5">
-        <f>N25*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>104722.08428160001</v>
       </c>
       <c r="Q25" s="5">
-        <f>M25/L25*100</f>
+        <f t="shared" si="7"/>
         <v>59.464188992125329</v>
       </c>
       <c r="R25" s="5">
-        <f>N25/L25*100</f>
+        <f t="shared" si="8"/>
         <v>40.535811007874671</v>
       </c>
       <c r="S25" s="3">
-        <f>F25+I25</f>
+        <f t="shared" si="9"/>
         <v>4584</v>
       </c>
       <c r="T25" s="3">
-        <f>S25*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>49341.765273600002</v>
       </c>
       <c r="U25" s="7">
-        <f>T25/600</f>
-        <v>82.236275456000001</v>
+        <f t="shared" si="11"/>
+        <v>164.472550912</v>
       </c>
       <c r="V25" s="3">
-        <f>E25</f>
+        <f t="shared" si="3"/>
         <v>4191</v>
       </c>
       <c r="W25" s="5">
-        <f>V25*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>45111.548486400003</v>
       </c>
       <c r="X25" s="7">
-        <f>W25/1000</f>
-        <v>45.111548486400004</v>
+        <f t="shared" si="12"/>
+        <v>90.223096972800008</v>
       </c>
       <c r="Y25" s="7">
         <f>X25*0.75</f>
-        <v>33.833661364800001</v>
-      </c>
-      <c r="Z25" s="1"/>
+        <v>67.667322729600002</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" si="13"/>
+        <v>32.118834080717491</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2961,63 +3047,66 @@
         <v>338</v>
       </c>
       <c r="L26" s="3">
-        <f>SUM(C26:K26)</f>
+        <f t="shared" si="14"/>
         <v>13665</v>
       </c>
       <c r="M26" s="3">
-        <f>K26+J26+I26+H26+G26+F26</f>
+        <f t="shared" si="0"/>
         <v>5673</v>
       </c>
       <c r="N26" s="3">
-        <f>C26+D26+E26</f>
+        <f t="shared" si="1"/>
         <v>7992</v>
       </c>
       <c r="O26" s="5">
-        <f>M26*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>61063.663699199999</v>
       </c>
       <c r="P26" s="5">
-        <f>N26*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>86025.171916799998</v>
       </c>
       <c r="Q26" s="5">
-        <f>M26/L26*100</f>
+        <f t="shared" si="7"/>
         <v>41.514818880351264</v>
       </c>
       <c r="R26" s="5">
-        <f>N26/L26*100</f>
+        <f t="shared" si="8"/>
         <v>58.485181119648729</v>
       </c>
       <c r="S26" s="3">
-        <f>F26+I26</f>
+        <f t="shared" si="9"/>
         <v>2287</v>
       </c>
       <c r="T26" s="3">
-        <f>S26*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>24617.0630848</v>
       </c>
       <c r="U26" s="7">
-        <f>T26/600</f>
-        <v>41.028438474666665</v>
+        <f t="shared" si="11"/>
+        <v>82.056876949333329</v>
       </c>
       <c r="V26" s="3">
-        <f>E26</f>
+        <f t="shared" si="3"/>
         <v>3165</v>
       </c>
       <c r="W26" s="5">
-        <f>V26*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>34067.776416000001</v>
       </c>
       <c r="X26" s="7">
-        <f>W26/1000</f>
-        <v>34.067776416000001</v>
+        <f t="shared" si="12"/>
+        <v>68.135552832000002</v>
       </c>
       <c r="Y26" s="7">
         <v>0</v>
       </c>
-      <c r="Z26" s="1"/>
+      <c r="Z26" s="8">
+        <f t="shared" si="13"/>
+        <v>40.313766966331748</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -3052,64 +3141,67 @@
         <v>605</v>
       </c>
       <c r="L27" s="3">
-        <f>SUM(C27:K27)</f>
+        <f t="shared" si="14"/>
         <v>26083</v>
       </c>
       <c r="M27" s="3">
-        <f>K27+J27+I27+H27+G27+F27</f>
+        <f t="shared" si="0"/>
         <v>15582</v>
       </c>
       <c r="N27" s="3">
-        <f>C27+D27+E27</f>
+        <f t="shared" si="1"/>
         <v>10501</v>
       </c>
       <c r="O27" s="5">
-        <f>M27*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>167723.25185279999</v>
       </c>
       <c r="P27" s="5">
-        <f>N27*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>113031.8231104</v>
       </c>
       <c r="Q27" s="5">
-        <f>M27/L27*100</f>
+        <f t="shared" si="7"/>
         <v>59.740060575854002</v>
       </c>
       <c r="R27" s="5">
-        <f>N27/L27*100</f>
+        <f t="shared" si="8"/>
         <v>40.259939424145998</v>
       </c>
       <c r="S27" s="3">
-        <f>F27+I27</f>
+        <f t="shared" si="9"/>
         <v>6248</v>
       </c>
       <c r="T27" s="3">
-        <f>S27*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>67252.912179200008</v>
       </c>
       <c r="U27" s="7">
-        <f>T27/600</f>
-        <v>112.08818696533335</v>
+        <f t="shared" si="11"/>
+        <v>224.1763739306667</v>
       </c>
       <c r="V27" s="3">
-        <f>E27</f>
+        <f t="shared" si="3"/>
         <v>4987</v>
       </c>
       <c r="W27" s="5">
-        <f>V27*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>53679.621164800003</v>
       </c>
       <c r="X27" s="7">
-        <f>W27/1000</f>
-        <v>53.679621164800004</v>
+        <f t="shared" si="12"/>
+        <v>107.35924232960001</v>
       </c>
       <c r="Y27" s="7">
         <f>X27*0.25</f>
-        <v>13.419905291200001</v>
-      </c>
-      <c r="Z27" s="1"/>
+        <v>26.839810582400002</v>
+      </c>
+      <c r="Z27" s="8">
+        <f t="shared" si="13"/>
+        <v>40.097548453343606</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -3144,64 +3236,67 @@
         <v>750</v>
       </c>
       <c r="L28" s="3">
-        <f>SUM(C28:K28)</f>
+        <f t="shared" si="14"/>
         <v>9286</v>
       </c>
       <c r="M28" s="3">
-        <f>K28+J28+I28+H28+G28+F28</f>
+        <f t="shared" si="0"/>
         <v>6193</v>
       </c>
       <c r="N28" s="3">
-        <f>C28+D28+E28</f>
+        <f t="shared" si="1"/>
         <v>3093</v>
       </c>
       <c r="O28" s="5">
-        <f>M28*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>66660.897107199999</v>
       </c>
       <c r="P28" s="5">
-        <f>N28*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>33292.774867200002</v>
       </c>
       <c r="Q28" s="5">
-        <f>M28/L28*100</f>
+        <f t="shared" si="7"/>
         <v>66.691794098643115</v>
       </c>
       <c r="R28" s="5">
-        <f>N28/L28*100</f>
+        <f t="shared" si="8"/>
         <v>33.308205901356878</v>
       </c>
       <c r="S28" s="3">
-        <f>F28+I28</f>
+        <f t="shared" si="9"/>
         <v>2203</v>
       </c>
       <c r="T28" s="3">
-        <f>S28*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>23712.894611200001</v>
       </c>
       <c r="U28" s="7">
-        <f>T28/600</f>
-        <v>39.521491018666666</v>
+        <f t="shared" si="11"/>
+        <v>79.042982037333331</v>
       </c>
       <c r="V28" s="3">
-        <f>E28</f>
+        <f t="shared" si="3"/>
         <v>668</v>
       </c>
       <c r="W28" s="5">
-        <f>V28*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>7190.2921471999998</v>
       </c>
       <c r="X28" s="7">
-        <f>W28/1000</f>
-        <v>7.1902921472000001</v>
+        <f t="shared" si="12"/>
+        <v>14.3805842944</v>
       </c>
       <c r="Y28" s="7">
         <f>X28</f>
-        <v>7.1902921472000001</v>
-      </c>
-      <c r="Z28" s="1"/>
+        <v>14.3805842944</v>
+      </c>
+      <c r="Z28" s="8">
+        <f t="shared" si="13"/>
+        <v>35.57242047472954</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -3236,64 +3331,67 @@
         <v>1198</v>
       </c>
       <c r="L29" s="3">
-        <f>SUM(C29:K29)</f>
+        <f t="shared" si="14"/>
         <v>42915</v>
       </c>
       <c r="M29" s="3">
-        <f>K29+J29+I29+H29+G29+F29</f>
+        <f t="shared" si="0"/>
         <v>30264</v>
       </c>
       <c r="N29" s="3">
-        <f>C29+D29+E29</f>
+        <f t="shared" si="1"/>
         <v>12651</v>
       </c>
       <c r="O29" s="5">
-        <f>M29*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>325758.98434560001</v>
       </c>
       <c r="P29" s="5">
-        <f>N29*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>136174.23047040001</v>
       </c>
       <c r="Q29" s="5">
-        <f>M29/L29*100</f>
+        <f t="shared" si="7"/>
         <v>70.520796924152393</v>
       </c>
       <c r="R29" s="5">
-        <f>N29/L29*100</f>
+        <f t="shared" si="8"/>
         <v>29.479203075847604</v>
       </c>
       <c r="S29" s="3">
-        <f>F29+I29</f>
+        <f t="shared" si="9"/>
         <v>10013</v>
       </c>
       <c r="T29" s="3">
-        <f>S29*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>107779.0348352</v>
       </c>
       <c r="U29" s="7">
-        <f>T29/600</f>
-        <v>179.63172472533333</v>
+        <f t="shared" si="11"/>
+        <v>359.26344945066666</v>
       </c>
       <c r="V29" s="3">
-        <f>E29</f>
+        <f t="shared" si="3"/>
         <v>6100</v>
       </c>
       <c r="W29" s="5">
-        <f>V29*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>65659.853440000006</v>
       </c>
       <c r="X29" s="7">
-        <f>W29/1000</f>
-        <v>65.659853440000006</v>
+        <f t="shared" si="12"/>
+        <v>131.31970688000001</v>
       </c>
       <c r="Y29" s="7">
         <f>X29*0.5</f>
-        <v>32.829926720000003</v>
-      </c>
-      <c r="Z29" s="1"/>
+        <v>65.659853440000006</v>
+      </c>
+      <c r="Z29" s="8">
+        <f t="shared" si="13"/>
+        <v>33.085514142215175</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3328,64 +3426,67 @@
         <v>468</v>
       </c>
       <c r="L30" s="3">
-        <f>SUM(C30:K30)</f>
+        <f t="shared" si="14"/>
         <v>18047</v>
       </c>
       <c r="M30" s="3">
-        <f>K30+J30+I30+H30+G30+F30</f>
+        <f t="shared" si="0"/>
         <v>13722</v>
       </c>
       <c r="N30" s="3">
-        <f>C30+D30+E30</f>
+        <f t="shared" si="1"/>
         <v>4325</v>
       </c>
       <c r="O30" s="5">
-        <f>M30*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>147702.3785088</v>
       </c>
       <c r="P30" s="5">
-        <f>N30*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>46553.912479999999</v>
       </c>
       <c r="Q30" s="5">
-        <f>M30/L30*100</f>
+        <f t="shared" si="7"/>
         <v>76.034798027372972</v>
       </c>
       <c r="R30" s="5">
-        <f>N30/L30*100</f>
+        <f t="shared" si="8"/>
         <v>23.965201972627028</v>
       </c>
       <c r="S30" s="3">
-        <f>F30+I30</f>
+        <f t="shared" si="9"/>
         <v>4566</v>
       </c>
       <c r="T30" s="3">
-        <f>S30*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>49148.0148864</v>
       </c>
       <c r="U30" s="7">
-        <f>T30/600</f>
-        <v>81.913358144</v>
+        <f t="shared" si="11"/>
+        <v>163.826716288</v>
       </c>
       <c r="V30" s="3">
-        <f>E30</f>
+        <f t="shared" si="3"/>
         <v>1567</v>
       </c>
       <c r="W30" s="5">
-        <f>V30*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>16867.047596799999</v>
       </c>
       <c r="X30" s="7">
-        <f>W30/1000</f>
-        <v>16.867047596799999</v>
+        <f t="shared" si="12"/>
+        <v>33.734095193599998</v>
       </c>
       <c r="Y30" s="7">
         <f>X30*0.5</f>
-        <v>8.4335237983999995</v>
-      </c>
-      <c r="Z30" s="1"/>
+        <v>16.867047596799999</v>
+      </c>
+      <c r="Z30" s="8">
+        <f t="shared" si="13"/>
+        <v>33.275032794053345</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3420,64 +3521,67 @@
         <v>210</v>
       </c>
       <c r="L31" s="3">
-        <f>SUM(C31:K31)</f>
+        <f t="shared" si="14"/>
         <v>10656</v>
       </c>
       <c r="M31" s="3">
-        <f>K31+J31+I31+H31+G31+F31</f>
+        <f t="shared" si="0"/>
         <v>7874</v>
       </c>
       <c r="N31" s="3">
-        <f>C31+D31+E31</f>
+        <f t="shared" si="1"/>
         <v>2782</v>
       </c>
       <c r="O31" s="5">
-        <f>M31*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>84755.030489600002</v>
       </c>
       <c r="P31" s="5">
-        <f>N31*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>29945.1987328</v>
       </c>
       <c r="Q31" s="5">
-        <f>M31/L31*100</f>
+        <f t="shared" si="7"/>
         <v>73.892642642642642</v>
       </c>
       <c r="R31" s="5">
-        <f>N31/L31*100</f>
+        <f t="shared" si="8"/>
         <v>26.107357357357358</v>
       </c>
       <c r="S31" s="3">
-        <f>F31+I31</f>
+        <f t="shared" si="9"/>
         <v>2831</v>
       </c>
       <c r="T31" s="3">
-        <f>S31*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>30472.6303424</v>
       </c>
       <c r="U31" s="7">
-        <f>T31/600</f>
-        <v>50.787717237333332</v>
+        <f t="shared" si="11"/>
+        <v>101.57543447466666</v>
       </c>
       <c r="V31" s="3">
-        <f>E31</f>
+        <f t="shared" si="3"/>
         <v>1486</v>
       </c>
       <c r="W31" s="5">
-        <f>V31*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>15995.170854400001</v>
       </c>
       <c r="X31" s="7">
-        <f>W31/1000</f>
-        <v>15.995170854400001</v>
+        <f t="shared" si="12"/>
+        <v>31.990341708800003</v>
       </c>
       <c r="Y31" s="7">
         <f>X31*0.3</f>
-        <v>4.7985512563200006</v>
-      </c>
-      <c r="Z31" s="1"/>
+        <v>9.5971025126400011</v>
+      </c>
+      <c r="Z31" s="8">
+        <f t="shared" si="13"/>
+        <v>35.95377190754381</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3512,64 +3616,67 @@
         <v>176</v>
       </c>
       <c r="L32" s="3">
-        <f>SUM(C32:K32)</f>
+        <f t="shared" si="14"/>
         <v>11750</v>
       </c>
       <c r="M32" s="3">
-        <f>K32+J32+I32+H32+G32+F32</f>
+        <f t="shared" si="0"/>
         <v>8414</v>
       </c>
       <c r="N32" s="3">
-        <f>C32+D32+E32</f>
+        <f t="shared" si="1"/>
         <v>3336</v>
       </c>
       <c r="O32" s="5">
-        <f>M32*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>90567.542105600005</v>
       </c>
       <c r="P32" s="5">
-        <f>N32*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>35908.405094400005</v>
       </c>
       <c r="Q32" s="5">
-        <f>M32/L32*100</f>
+        <f t="shared" si="7"/>
         <v>71.608510638297872</v>
       </c>
       <c r="R32" s="5">
-        <f>N32/L32*100</f>
+        <f t="shared" si="8"/>
         <v>28.391489361702128</v>
       </c>
       <c r="S32" s="3">
-        <f>F32+I32</f>
+        <f t="shared" si="9"/>
         <v>2493</v>
       </c>
       <c r="T32" s="3">
-        <f>S32*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>26834.428627199999</v>
       </c>
       <c r="U32" s="7">
-        <f>T32/600</f>
-        <v>44.724047712000001</v>
+        <f t="shared" si="11"/>
+        <v>89.448095424000002</v>
       </c>
       <c r="V32" s="3">
-        <f>E32</f>
+        <f t="shared" si="3"/>
         <v>1674</v>
       </c>
       <c r="W32" s="5">
-        <f>V32*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>18018.7860096</v>
       </c>
       <c r="X32" s="7">
-        <f>W32/1000</f>
-        <v>18.018786009599999</v>
+        <f t="shared" si="12"/>
+        <v>36.037572019199999</v>
       </c>
       <c r="Y32" s="7">
         <f>X32</f>
-        <v>18.018786009599999</v>
-      </c>
-      <c r="Z32" s="1"/>
+        <v>36.037572019199999</v>
+      </c>
+      <c r="Z32" s="8">
+        <f t="shared" si="13"/>
+        <v>29.62918944616116</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,64 +3711,67 @@
         <v>284</v>
       </c>
       <c r="L33" s="3">
-        <f>SUM(C33:K33)</f>
+        <f t="shared" si="14"/>
         <v>30907</v>
       </c>
       <c r="M33" s="3">
-        <f>K33+J33+I33+H33+G33+F33</f>
+        <f t="shared" si="0"/>
         <v>23839</v>
       </c>
       <c r="N33" s="3">
-        <f>C33+D33+E33</f>
+        <f t="shared" si="1"/>
         <v>7068</v>
       </c>
       <c r="O33" s="5">
-        <f>M33*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>256600.86002560001</v>
       </c>
       <c r="P33" s="5">
-        <f>N33*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>76079.3187072</v>
       </c>
       <c r="Q33" s="5">
-        <f>M33/L33*100</f>
+        <f t="shared" si="7"/>
         <v>77.131394182547638</v>
       </c>
       <c r="R33" s="5">
-        <f>N33/L33*100</f>
+        <f t="shared" si="8"/>
         <v>22.868605817452355</v>
       </c>
       <c r="S33" s="3">
-        <f>F33+I33</f>
+        <f t="shared" si="9"/>
         <v>9148</v>
       </c>
       <c r="T33" s="3">
-        <f>S33*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>98468.2523392</v>
       </c>
       <c r="U33" s="7">
-        <f>T33/600</f>
-        <v>164.11375389866666</v>
+        <f t="shared" si="11"/>
+        <v>328.22750779733332</v>
       </c>
       <c r="V33" s="3">
-        <f>E33</f>
+        <f t="shared" si="3"/>
         <v>4118</v>
       </c>
       <c r="W33" s="5">
-        <f>V33*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>44325.783027199999</v>
       </c>
       <c r="X33" s="7">
-        <f>W33/1000</f>
-        <v>44.325783027199996</v>
+        <f t="shared" si="12"/>
+        <v>88.651566054399993</v>
       </c>
       <c r="Y33" s="7">
         <f>X33*0.4</f>
-        <v>17.730313210879999</v>
-      </c>
-      <c r="Z33" s="1"/>
+        <v>35.460626421759997</v>
+      </c>
+      <c r="Z33" s="8">
+        <f t="shared" si="13"/>
+        <v>38.374092873023194</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -3696,64 +3806,67 @@
         <v>80</v>
       </c>
       <c r="L34" s="3">
-        <f>SUM(C34:K34)</f>
+        <f t="shared" si="14"/>
         <v>12927</v>
       </c>
       <c r="M34" s="3">
-        <f>K34+J34+I34+H34+G34+F34</f>
+        <f t="shared" si="0"/>
         <v>10768</v>
       </c>
       <c r="N34" s="3">
-        <f>C34+D34+E34</f>
+        <f t="shared" si="1"/>
         <v>2159</v>
       </c>
       <c r="O34" s="5">
-        <f>M34*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>115905.78718720001</v>
       </c>
       <c r="P34" s="5">
-        <f>N34*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>23239.282553600002</v>
       </c>
       <c r="Q34" s="5">
-        <f>M34/L34*100</f>
+        <f t="shared" si="7"/>
         <v>83.2985224723447</v>
       </c>
       <c r="R34" s="5">
-        <f>N34/L34*100</f>
+        <f t="shared" si="8"/>
         <v>16.701477527655296</v>
       </c>
       <c r="S34" s="3">
-        <f>F34+I34</f>
+        <f t="shared" si="9"/>
         <v>3490</v>
       </c>
       <c r="T34" s="3">
-        <f>S34*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>37566.047296000004</v>
       </c>
       <c r="U34" s="7">
-        <f>T34/600</f>
-        <v>62.610078826666673</v>
+        <f t="shared" si="11"/>
+        <v>125.22015765333335</v>
       </c>
       <c r="V34" s="3">
-        <f>E34</f>
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
       <c r="W34" s="5">
-        <f>V34*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>8395.8501120000001</v>
       </c>
       <c r="X34" s="7">
-        <f>W34/1000</f>
-        <v>8.3958501119999998</v>
+        <f t="shared" si="12"/>
+        <v>16.791700224</v>
       </c>
       <c r="Y34" s="7">
         <f>X34*0.6</f>
-        <v>5.0375100671999995</v>
-      </c>
-      <c r="Z34" s="1"/>
+        <v>10.075020134399999</v>
+      </c>
+      <c r="Z34" s="8">
+        <f t="shared" si="13"/>
+        <v>32.410846953937593</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3788,64 +3901,67 @@
         <v>82</v>
       </c>
       <c r="L35" s="3">
-        <f>SUM(C35:K35)</f>
+        <f t="shared" si="14"/>
         <v>9253</v>
       </c>
       <c r="M35" s="3">
-        <f>K35+J35+I35+H35+G35+F35</f>
+        <f t="shared" si="0"/>
         <v>6029</v>
       </c>
       <c r="N35" s="3">
-        <f>C35+D35+E35</f>
+        <f t="shared" si="1"/>
         <v>3224</v>
       </c>
       <c r="O35" s="5">
-        <f>M35*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>64895.615801600004</v>
       </c>
       <c r="P35" s="5">
-        <f>N35*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>34702.847129599999</v>
       </c>
       <c r="Q35" s="5">
-        <f>M35/L35*100</f>
+        <f t="shared" si="7"/>
         <v>65.157246298497782</v>
       </c>
       <c r="R35" s="5">
-        <f>N35/L35*100</f>
+        <f t="shared" si="8"/>
         <v>34.842753701502218</v>
       </c>
       <c r="S35" s="3">
-        <f>F35+I35</f>
+        <f t="shared" si="9"/>
         <v>1930</v>
       </c>
       <c r="T35" s="3">
-        <f>S35*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>20774.347072</v>
       </c>
       <c r="U35" s="7">
-        <f>T35/600</f>
-        <v>34.623911786666667</v>
+        <f t="shared" si="11"/>
+        <v>69.247823573333335</v>
       </c>
       <c r="V35" s="3">
-        <f>E35</f>
+        <f t="shared" si="3"/>
         <v>1712</v>
       </c>
       <c r="W35" s="5">
-        <f>V35*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>18427.814604800002</v>
       </c>
       <c r="X35" s="7">
-        <f>W35/1000</f>
-        <v>18.427814604800002</v>
+        <f t="shared" si="12"/>
+        <v>36.855629209600004</v>
       </c>
       <c r="Y35" s="7">
         <f>X35</f>
-        <v>18.427814604800002</v>
-      </c>
-      <c r="Z35" s="1"/>
+        <v>36.855629209600004</v>
+      </c>
+      <c r="Z35" s="8">
+        <f t="shared" si="13"/>
+        <v>32.011942278984904</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -3880,64 +3996,67 @@
         <v>377</v>
       </c>
       <c r="L36" s="3">
-        <f>SUM(C36:K36)</f>
+        <f t="shared" si="14"/>
         <v>11176</v>
       </c>
       <c r="M36" s="3">
-        <f>K36+J36+I36+H36+G36+F36</f>
+        <f t="shared" si="0"/>
         <v>7818</v>
       </c>
       <c r="N36" s="3">
-        <f>C36+D36+E36</f>
+        <f t="shared" si="1"/>
         <v>3358</v>
       </c>
       <c r="O36" s="5">
-        <f>M36*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>84152.25150720001</v>
       </c>
       <c r="P36" s="5">
-        <f>N36*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>36145.211123200002</v>
       </c>
       <c r="Q36" s="5">
-        <f>M36/L36*100</f>
+        <f t="shared" si="7"/>
         <v>69.953471725125269</v>
       </c>
       <c r="R36" s="5">
-        <f>N36/L36*100</f>
+        <f t="shared" si="8"/>
         <v>30.046528274874735</v>
       </c>
       <c r="S36" s="3">
-        <f>F36+I36</f>
+        <f t="shared" si="9"/>
         <v>2148</v>
       </c>
       <c r="T36" s="3">
-        <f>S36*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>23120.879539199999</v>
       </c>
       <c r="U36" s="7">
-        <f>T36/600</f>
-        <v>38.534799231999997</v>
+        <f t="shared" si="11"/>
+        <v>77.069598463999995</v>
       </c>
       <c r="V36" s="3">
-        <f>E36</f>
+        <f t="shared" si="3"/>
         <v>1667</v>
       </c>
       <c r="W36" s="5">
-        <f>V36*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>17943.438636800001</v>
       </c>
       <c r="X36" s="7">
-        <f>W36/1000</f>
-        <v>17.9434386368</v>
+        <f t="shared" si="12"/>
+        <v>35.8868772736</v>
       </c>
       <c r="Y36" s="7">
         <f>X36</f>
-        <v>17.9434386368</v>
-      </c>
-      <c r="Z36" s="1"/>
+        <v>35.8868772736</v>
+      </c>
+      <c r="Z36" s="8">
+        <f t="shared" si="13"/>
+        <v>27.475057559478124</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3972,64 +4091,67 @@
         <v>128</v>
       </c>
       <c r="L37" s="3">
-        <f>SUM(C37:K37)</f>
+        <f t="shared" si="14"/>
         <v>5797</v>
       </c>
       <c r="M37" s="3">
-        <f>K37+J37+I37+H37+G37+F37</f>
+        <f t="shared" si="0"/>
         <v>2874</v>
       </c>
       <c r="N37" s="3">
-        <f>C37+D37+E37</f>
+        <f t="shared" si="1"/>
         <v>2923</v>
       </c>
       <c r="O37" s="5">
-        <f>M37*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>30935.478489600002</v>
       </c>
       <c r="P37" s="5">
-        <f>N37*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>31462.910099200002</v>
       </c>
       <c r="Q37" s="5">
-        <f>M37/L37*100</f>
+        <f t="shared" si="7"/>
         <v>49.57736760393307</v>
       </c>
       <c r="R37" s="5">
-        <f>N37/L37*100</f>
+        <f t="shared" si="8"/>
         <v>50.422632396066938</v>
       </c>
       <c r="S37" s="3">
-        <f>F37+I37</f>
+        <f t="shared" si="9"/>
         <v>1219</v>
       </c>
       <c r="T37" s="3">
-        <f>S37*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>13121.2067776</v>
       </c>
       <c r="U37" s="7">
-        <f>T37/600</f>
-        <v>21.868677962666666</v>
+        <f t="shared" si="11"/>
+        <v>43.737355925333333</v>
       </c>
       <c r="V37" s="3">
-        <f>E37</f>
+        <f t="shared" si="3"/>
         <v>1687</v>
       </c>
       <c r="W37" s="5">
-        <f>V37*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>18158.716844800001</v>
       </c>
       <c r="X37" s="7">
-        <f>W37/1000</f>
-        <v>18.158716844800001</v>
+        <f t="shared" si="12"/>
+        <v>36.317433689600001</v>
       </c>
       <c r="Y37" s="7">
         <f>X37</f>
-        <v>18.158716844800001</v>
-      </c>
-      <c r="Z37" s="1"/>
+        <v>36.317433689600001</v>
+      </c>
+      <c r="Z37" s="8">
+        <f t="shared" si="13"/>
+        <v>42.414752957550448</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -4064,64 +4186,67 @@
         <v>178</v>
       </c>
       <c r="L38" s="3">
-        <f>SUM(C38:K38)</f>
+        <f t="shared" si="14"/>
         <v>7587</v>
       </c>
       <c r="M38" s="3">
-        <f>K38+J38+I38+H38+G38+F38</f>
+        <f t="shared" si="0"/>
         <v>5906</v>
       </c>
       <c r="N38" s="3">
-        <f>C38+D38+E38</f>
+        <f t="shared" si="1"/>
         <v>1681</v>
       </c>
       <c r="O38" s="5">
-        <f>M38*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>63571.6548224</v>
       </c>
       <c r="P38" s="5">
-        <f>N38*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>18094.133382399999</v>
       </c>
       <c r="Q38" s="5">
-        <f>M38/L38*100</f>
+        <f t="shared" si="7"/>
         <v>77.843679978911297</v>
       </c>
       <c r="R38" s="5">
-        <f>N38/L38*100</f>
+        <f t="shared" si="8"/>
         <v>22.156320021088703</v>
       </c>
       <c r="S38" s="3">
-        <f>F38+I38</f>
+        <f t="shared" si="9"/>
         <v>1746</v>
       </c>
       <c r="T38" s="3">
-        <f>S38*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>18793.787558399999</v>
       </c>
       <c r="U38" s="7">
-        <f>T38/600</f>
-        <v>31.322979264000001</v>
+        <f t="shared" si="11"/>
+        <v>62.645958528000001</v>
       </c>
       <c r="V38" s="3">
-        <f>E38</f>
+        <f t="shared" si="3"/>
         <v>828</v>
       </c>
       <c r="W38" s="5">
-        <f>V38*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>8912.5178111999994</v>
       </c>
       <c r="X38" s="7">
-        <f>W38/1000</f>
-        <v>8.912517811199999</v>
+        <f t="shared" si="12"/>
+        <v>17.825035622399998</v>
       </c>
       <c r="Y38" s="7">
         <f>X38</f>
-        <v>8.912517811199999</v>
-      </c>
-      <c r="Z38" s="1"/>
+        <v>17.825035622399998</v>
+      </c>
+      <c r="Z38" s="8">
+        <f t="shared" si="13"/>
+        <v>29.56315611242804</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -4156,64 +4281,67 @@
         <v>349</v>
       </c>
       <c r="L39" s="3">
-        <f>SUM(C39:K39)</f>
+        <f t="shared" si="14"/>
         <v>17666</v>
       </c>
       <c r="M39" s="3">
-        <f>K39+J39+I39+H39+G39+F39</f>
+        <f t="shared" si="0"/>
         <v>12957</v>
       </c>
       <c r="N39" s="3">
-        <f>C39+D39+E39</f>
+        <f t="shared" si="1"/>
         <v>4709</v>
       </c>
       <c r="O39" s="5">
-        <f>M39*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>139467.98705280002</v>
       </c>
       <c r="P39" s="5">
-        <f>N39*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>50687.254073600001</v>
       </c>
       <c r="Q39" s="5">
-        <f>M39/L39*100</f>
+        <f t="shared" si="7"/>
         <v>73.34427714253367</v>
       </c>
       <c r="R39" s="5">
-        <f>N39/L39*100</f>
+        <f t="shared" si="8"/>
         <v>26.655722857466319</v>
       </c>
       <c r="S39" s="3">
-        <f>F39+I39</f>
+        <f t="shared" si="9"/>
         <v>2957</v>
       </c>
       <c r="T39" s="3">
-        <f>S39*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>31828.8830528</v>
       </c>
       <c r="U39" s="7">
-        <f>T39/600</f>
-        <v>53.048138421333334</v>
+        <f t="shared" si="11"/>
+        <v>106.09627684266667</v>
       </c>
       <c r="V39" s="3">
-        <f>E39</f>
+        <f t="shared" si="3"/>
         <v>2828</v>
       </c>
       <c r="W39" s="5">
-        <f>V39*10.7639104</f>
+        <f t="shared" si="4"/>
         <v>30440.338611200001</v>
       </c>
       <c r="X39" s="7">
-        <f>W39/1000</f>
-        <v>30.440338611200001</v>
+        <f t="shared" si="12"/>
+        <v>60.880677222400003</v>
       </c>
       <c r="Y39" s="7">
         <f>X39*0.5</f>
-        <v>15.220169305600001</v>
-      </c>
-      <c r="Z39" s="1"/>
+        <v>30.440338611200001</v>
+      </c>
+      <c r="Z39" s="8">
+        <f t="shared" si="13"/>
+        <v>22.821640811916335</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4248,47 +4376,47 @@
         <v>856</v>
       </c>
       <c r="L40" s="3">
-        <f>SUM(C40:K40)</f>
+        <f t="shared" si="14"/>
         <v>48325</v>
       </c>
       <c r="M40" s="3">
-        <f>K40+J40+I40+H40+G40+F40</f>
+        <f t="shared" si="0"/>
         <v>27197</v>
       </c>
       <c r="N40" s="3">
-        <f>C40+D40+E40</f>
+        <f t="shared" si="1"/>
         <v>21128</v>
       </c>
       <c r="O40" s="5">
-        <f>M40*10.7639104</f>
+        <f t="shared" si="6"/>
         <v>292746.07114880002</v>
       </c>
       <c r="P40" s="5">
-        <f>N40*10.7639104</f>
+        <f t="shared" si="2"/>
         <v>227419.8989312</v>
       </c>
       <c r="Q40" s="5">
-        <f>M40/L40*100</f>
+        <f t="shared" si="7"/>
         <v>56.279358510087953</v>
       </c>
       <c r="R40" s="5">
-        <f>N40/L40*100</f>
+        <f t="shared" si="8"/>
         <v>43.720641489912055</v>
       </c>
       <c r="S40" s="3">
-        <f>F40+I40</f>
+        <f t="shared" si="9"/>
         <v>7034</v>
       </c>
       <c r="T40" s="3">
-        <f>S40*10.7639104</f>
+        <f t="shared" si="10"/>
         <v>75713.345753600006</v>
       </c>
       <c r="U40" s="7">
-        <f>T40/600</f>
-        <v>126.18890958933335</v>
+        <f t="shared" si="11"/>
+        <v>252.3778191786667</v>
       </c>
       <c r="V40" s="3">
-        <f>E40</f>
+        <f t="shared" si="3"/>
         <v>16069</v>
       </c>
       <c r="W40" s="5">
@@ -4296,14 +4424,31 @@
         <v>172965.27621760001</v>
       </c>
       <c r="X40" s="7">
-        <f>W40/1000</f>
-        <v>172.96527621760001</v>
+        <f t="shared" si="12"/>
+        <v>345.93055243520001</v>
       </c>
       <c r="Y40" s="7">
         <f>X40*0.6</f>
-        <v>103.77916573056</v>
-      </c>
-      <c r="Z40" s="1"/>
+        <v>207.55833146111999</v>
+      </c>
+      <c r="Z40" s="8">
+        <f t="shared" si="13"/>
+        <v>25.863146670588666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U41" s="10"/>
+      <c r="Z41" s="9">
+        <f>AVERAGE(Z2:Z40)</f>
+        <v>31.332951704119512</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U42" s="6"/>
+      <c r="W42" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X1" xr:uid="{E6ED4D1B-D86F-42A9-8609-27B9E315963A}">

--- a/raster_cells_per_sub.xlsx
+++ b/raster_cells_per_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive - University of Virginia\StreamLit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D2EDF6-5DAB-43A9-9BF3-5E70347EB671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852C1EA-C39D-4C6D-B25B-A0AA6EB64147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{97454CBC-327E-48EE-B8D6-214EE2D65EB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>NAME</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Percent_Imp_to_perv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average </t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -295,8 +292,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,11 +629,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -922,7 +917,7 @@
         <v>15.37732239744</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" ref="Z3:Z40" si="13">T3/O3*100</f>
+        <f>T3/O3*100</f>
         <v>31.659951651893635</v>
       </c>
     </row>
@@ -1017,7 +1012,7 @@
         <v>10.053492313600001</v>
       </c>
       <c r="Z4" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="Z4:Z40" si="13">T4/O4*100</f>
         <v>14.26272130741612</v>
       </c>
     </row>
@@ -3676,7 +3671,7 @@
         <v>29.62918944616116</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>38.374092873023194</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -3866,7 +3861,7 @@
         <v>32.410846953937593</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3961,7 +3956,7 @@
         <v>32.011942278984904</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -4056,7 +4051,7 @@
         <v>27.475057559478124</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -4151,7 +4146,7 @@
         <v>42.414752957550448</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -4246,7 +4241,7 @@
         <v>29.56315611242804</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -4341,7 +4336,7 @@
         <v>22.821640811916335</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4436,19 +4431,9 @@
         <v>25.863146670588666</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U41" s="10"/>
-      <c r="Z41" s="9">
-        <f>AVERAGE(Z2:Z40)</f>
-        <v>31.332951704119512</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U42" s="6"/>
-      <c r="W42" s="5"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U41" s="6"/>
+      <c r="W41" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X1" xr:uid="{E6ED4D1B-D86F-42A9-8609-27B9E315963A}">
